--- a/chess analysis.xlsx
+++ b/chess analysis.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spamt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\GitHub\Chess-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -141,13 +141,160 @@
   </si>
   <si>
     <t>ungido</t>
+  </si>
+  <si>
+    <t>CheepTix</t>
+  </si>
+  <si>
+    <t>This is BS because opp hung many pieces that I didn't take</t>
+  </si>
+  <si>
+    <t>smzavagli</t>
+  </si>
+  <si>
+    <t>DaminduSamarasing..</t>
+  </si>
+  <si>
+    <t>He was up material before blundering and resigning</t>
+  </si>
+  <si>
+    <t>mrmick28</t>
+  </si>
+  <si>
+    <t>I Missed mate in midgame, and kept giving up pawns</t>
+  </si>
+  <si>
+    <t>|||TWG|||</t>
+  </si>
+  <si>
+    <t>I missed mate in midgame, and got forked twice</t>
+  </si>
+  <si>
+    <t>abdusalamalmegzazi</t>
+  </si>
+  <si>
+    <t>mhufford</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>He blundered queen early on</t>
+  </si>
+  <si>
+    <t>zharkynshyntaev</t>
+  </si>
+  <si>
+    <t>kinder33</t>
+  </si>
+  <si>
+    <t>yldrmrkn</t>
+  </si>
+  <si>
+    <t>Buzin</t>
+  </si>
+  <si>
+    <t>bertingmalana</t>
+  </si>
+  <si>
+    <t>gnehdalachica</t>
+  </si>
+  <si>
+    <t>I gift you my queen, I don’t want it</t>
+  </si>
+  <si>
+    <t>Trpaslik</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>pavud</t>
+  </si>
+  <si>
+    <t>jeffreyemerson</t>
+  </si>
+  <si>
+    <t>MusS111000</t>
+  </si>
+  <si>
+    <t>bil3434</t>
+  </si>
+  <si>
+    <t>BigJime</t>
+  </si>
+  <si>
+    <t>ericsauer7181</t>
+  </si>
+  <si>
+    <t>nasspouch</t>
+  </si>
+  <si>
+    <t>vivekes</t>
+  </si>
+  <si>
+    <t>Bullseye4415</t>
+  </si>
+  <si>
+    <t>Was up but missed his checkmate</t>
+  </si>
+  <si>
+    <t>blot</t>
+  </si>
+  <si>
+    <t>geotromos</t>
+  </si>
+  <si>
+    <t>fergie90</t>
+  </si>
+  <si>
+    <t>cristmarc</t>
+  </si>
+  <si>
+    <t>Shouldn't have won this</t>
+  </si>
+  <si>
+    <t>2random4chance</t>
+  </si>
+  <si>
+    <t>Missed taking queen</t>
+  </si>
+  <si>
+    <t>aoe2dotnet</t>
+  </si>
+  <si>
+    <t>larfra</t>
+  </si>
+  <si>
+    <t>xhaakon77</t>
+  </si>
+  <si>
+    <t>sebnipples</t>
+  </si>
+  <si>
+    <t>Flip flopped</t>
+  </si>
+  <si>
+    <t>TJ284</t>
+  </si>
+  <si>
+    <t>xablau09</t>
+  </si>
+  <si>
+    <t>srulrish</t>
+  </si>
+  <si>
+    <t>I gave up queen</t>
+  </si>
+  <si>
+    <t>sanchezvilla_7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,16 +302,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -172,14 +339,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,106 +675,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:X19"/>
+  <dimension ref="A4:AA92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.47265625" customWidth="1"/>
-    <col min="3" max="3" width="5.26171875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.20703125" customWidth="1"/>
-    <col min="5" max="5" width="5.05078125" customWidth="1"/>
-    <col min="6" max="6" width="6.89453125" customWidth="1"/>
-    <col min="7" max="7" width="6.20703125" customWidth="1"/>
-    <col min="9" max="9" width="3.62890625" customWidth="1"/>
-    <col min="11" max="11" width="5.9453125" customWidth="1"/>
-    <col min="16" max="16" width="4.20703125" customWidth="1"/>
-    <col min="18" max="18" width="5.15625" customWidth="1"/>
-    <col min="24" max="24" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="5" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="17" max="17" width="4.85546875" customWidth="1"/>
+    <col min="18" max="18" width="4.140625" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" customWidth="1"/>
+    <col min="25" max="25" width="3.140625" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="J4" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J5" t="s">
+      <c r="I5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42866</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="2">
@@ -608,51 +799,55 @@
       <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>26</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>6</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
+        <f>SUM(K6:P6)</f>
+        <v>39</v>
+      </c>
+      <c r="S6">
         <v>22</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>8</v>
       </c>
-      <c r="S6">
-        <v>4</v>
-      </c>
-      <c r="T6">
-        <v>4</v>
-      </c>
       <c r="U6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42866</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="2">
@@ -670,48 +865,52 @@
       <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="J7">
-        <v>36</v>
-      </c>
       <c r="K7">
+        <v>36</v>
+      </c>
+      <c r="L7">
         <v>8</v>
       </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
       <c r="M7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>36</v>
-      </c>
-      <c r="R7">
+        <f>SUM(K7:P7)</f>
+        <v>52</v>
+      </c>
+      <c r="S7">
+        <v>36</v>
+      </c>
+      <c r="T7">
         <v>8</v>
       </c>
-      <c r="S7">
-        <v>3</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
       <c r="U7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42866</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C8" s="2">
@@ -726,38 +925,36 @@
       <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>22</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
       </c>
       <c r="L8">
         <v>5</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
+        <f t="shared" ref="Q8:Q19" si="0">SUM(K8:P8)</f>
+        <v>34</v>
+      </c>
+      <c r="S8">
         <v>28</v>
       </c>
-      <c r="R8">
-        <v>4</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
       <c r="T8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -765,12 +962,18 @@
       <c r="V8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42866</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="2">
@@ -785,54 +988,58 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>53</v>
       </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
       <c r="L9">
         <v>3</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>1</v>
       </c>
       <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="S9">
         <v>56</v>
       </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9">
-        <v>4</v>
-      </c>
       <c r="T9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
       <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>2094996409</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42865</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C10" s="2">
@@ -847,15 +1054,12 @@
       <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>33</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
         <v>1</v>
       </c>
@@ -863,38 +1067,45 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="S10">
         <v>29</v>
       </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>2</v>
-      </c>
       <c r="T10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
       </c>
       <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>2094920808</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42865</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C11" s="2">
@@ -909,23 +1120,20 @@
       <c r="F11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H11" t="s">
         <v>28</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>16</v>
       </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
       <c r="L11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -933,30 +1141,37 @@
       <c r="O11">
         <v>1</v>
       </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
       <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="S11">
         <v>13</v>
       </c>
-      <c r="R11">
-        <v>4</v>
-      </c>
-      <c r="S11">
-        <v>3</v>
-      </c>
       <c r="T11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>2</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42865</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="2">
@@ -971,57 +1186,61 @@
       <c r="F12" t="s">
         <v>20</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>6</v>
       </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
       <c r="L12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S12">
         <v>7</v>
       </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>2</v>
-      </c>
       <c r="T12">
         <v>2</v>
       </c>
       <c r="U12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="W12">
+        <v>3</v>
       </c>
       <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <v>2094202885</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42865</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="2">
@@ -1036,23 +1255,20 @@
       <c r="F13" t="s">
         <v>18</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H13" t="s">
         <v>30</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>8</v>
       </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
       <c r="L13">
         <v>3</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1060,33 +1276,40 @@
       <c r="O13">
         <v>0</v>
       </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
       <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="S13">
         <v>8</v>
       </c>
-      <c r="R13">
-        <v>1</v>
-      </c>
-      <c r="S13">
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
         <v>6</v>
       </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
       <c r="V13">
         <v>0</v>
       </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
       <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
         <v>2094196615</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42864</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="2">
@@ -1101,57 +1324,61 @@
       <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>25</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
       <c r="L14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="S14">
         <v>20</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <v>5</v>
       </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>3</v>
-      </c>
       <c r="U14">
         <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
       </c>
       <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
         <v>2091603758</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42864</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="2">
@@ -1166,23 +1393,20 @@
       <c r="F15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H15" t="s">
         <v>28</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>19</v>
       </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
       <c r="L15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1190,33 +1414,40 @@
       <c r="O15">
         <v>0</v>
       </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
       <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="S15">
         <v>13</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <v>5</v>
       </c>
-      <c r="S15">
-        <v>4</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
       <c r="U15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
       </c>
       <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
         <v>2091595032</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42864</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="2">
@@ -1231,20 +1462,17 @@
       <c r="F16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H16" t="s">
         <v>30</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>13</v>
       </c>
-      <c r="K16">
-        <v>4</v>
-      </c>
       <c r="L16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16">
         <v>3</v>
@@ -1253,17 +1481,18 @@
         <v>3</v>
       </c>
       <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="S16">
         <v>12</v>
       </c>
-      <c r="R16">
-        <v>4</v>
-      </c>
-      <c r="S16">
-        <v>3</v>
-      </c>
       <c r="T16">
         <v>4</v>
       </c>
@@ -1271,17 +1500,23 @@
         <v>3</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="W16">
+        <v>3</v>
       </c>
       <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <v>2091579371</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42863</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="2">
@@ -1296,57 +1531,61 @@
       <c r="F17" t="s">
         <v>20</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H17" t="s">
         <v>34</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>20</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>9</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>5</v>
       </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
       <c r="N17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
       <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="S17">
         <v>14</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <v>16</v>
       </c>
-      <c r="S17">
-        <v>4</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
       <c r="U17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
       <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
         <v>2091398028</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42863</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="2">
@@ -1361,53 +1600,57 @@
       <c r="F18" t="s">
         <v>18</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H18" t="s">
         <v>30</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>7</v>
       </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
       <c r="L18">
         <v>2</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
       <c r="Q18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="S18">
         <v>12</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <v>1</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
       </c>
       <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
         <v>2091389414</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42862</v>
       </c>
@@ -1426,41 +1669,39 @@
       <c r="F19" t="s">
         <v>18</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H19" t="s">
         <v>34</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>21</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>5</v>
       </c>
-      <c r="L19">
-        <v>4</v>
-      </c>
       <c r="M19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>1</v>
       </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
       <c r="Q19">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="S19">
         <v>23</v>
       </c>
-      <c r="R19">
-        <v>3</v>
-      </c>
-      <c r="S19">
-        <v>2</v>
-      </c>
       <c r="T19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U19">
         <v>2</v>
@@ -1468,8 +1709,4218 @@
       <c r="V19">
         <v>1</v>
       </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
       <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
         <v>2089406792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="2">
+        <v>869</v>
+      </c>
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33">
+        <v>795</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33">
+        <v>13</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" ref="Q33:Q49" si="1">SUM(K33:P33)</f>
+        <v>15</v>
+      </c>
+      <c r="S33">
+        <v>10</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>2</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>2086292539</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="2">
+        <v>858</v>
+      </c>
+      <c r="D34" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34">
+        <v>802</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+      <c r="K34">
+        <v>26</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="S34">
+        <v>19</v>
+      </c>
+      <c r="T34">
+        <v>9</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+      <c r="V34">
+        <v>4</v>
+      </c>
+      <c r="W34">
+        <v>2</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <v>2086286213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2">
+        <v>845</v>
+      </c>
+      <c r="D35" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35">
+        <v>809</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
+      <c r="K35">
+        <v>25</v>
+      </c>
+      <c r="L35">
+        <v>8</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="S35">
+        <v>22</v>
+      </c>
+      <c r="T35">
+        <v>9</v>
+      </c>
+      <c r="U35">
+        <v>4</v>
+      </c>
+      <c r="V35">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <v>1</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>2086279901</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="2">
+        <v>831</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+      <c r="E36">
+        <v>817</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36">
+        <v>7</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="S36">
+        <v>4</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>4</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>2086278257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="2">
+        <v>815</v>
+      </c>
+      <c r="D37" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37">
+        <v>825</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" t="s">
+        <v>30</v>
+      </c>
+      <c r="I37">
+        <v>-5.62</v>
+      </c>
+      <c r="K37">
+        <v>8</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>3</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="S37">
+        <v>10</v>
+      </c>
+      <c r="T37">
+        <v>3</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="V37">
+        <v>3</v>
+      </c>
+      <c r="W37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>2086275180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2">
+        <v>832</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38">
+        <v>715</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38">
+        <v>14</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="S38">
+        <v>8</v>
+      </c>
+      <c r="T38">
+        <v>7</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38">
+        <v>2</v>
+      </c>
+      <c r="X38">
+        <v>2</v>
+      </c>
+      <c r="Z38">
+        <v>2086262571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2">
+        <v>819</v>
+      </c>
+      <c r="D39" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39">
+        <v>729</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="K39">
+        <v>19</v>
+      </c>
+      <c r="L39">
+        <v>6</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>6</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="S39">
+        <v>20</v>
+      </c>
+      <c r="T39">
+        <v>7</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+      <c r="V39">
+        <v>4</v>
+      </c>
+      <c r="W39">
+        <v>3</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>2086246305</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2">
+        <v>805</v>
+      </c>
+      <c r="D40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40">
+        <v>745</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40">
+        <v>24</v>
+      </c>
+      <c r="L40">
+        <v>7</v>
+      </c>
+      <c r="M40">
+        <v>3</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>3</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="S40">
+        <v>22</v>
+      </c>
+      <c r="T40">
+        <v>6</v>
+      </c>
+      <c r="U40">
+        <v>5</v>
+      </c>
+      <c r="V40">
+        <v>4</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>2086230757</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="2">
+        <v>788</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41">
+        <v>764</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41">
+        <v>-20.9</v>
+      </c>
+      <c r="K41">
+        <v>15</v>
+      </c>
+      <c r="L41">
+        <v>6</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="S41">
+        <v>20</v>
+      </c>
+      <c r="T41">
+        <v>4</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>2086219665</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" s="2">
+        <v>811</v>
+      </c>
+      <c r="D42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42">
+        <v>739</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42">
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="S42">
+        <v>15</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>4</v>
+      </c>
+      <c r="V42">
+        <v>4</v>
+      </c>
+      <c r="W42">
+        <v>2</v>
+      </c>
+      <c r="X42">
+        <v>1</v>
+      </c>
+      <c r="Z42">
+        <v>2086208385</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="2">
+        <v>793</v>
+      </c>
+      <c r="D43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43">
+        <v>759</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43">
+        <v>17</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="S43">
+        <v>16</v>
+      </c>
+      <c r="T43">
+        <v>5</v>
+      </c>
+      <c r="U43">
+        <v>4</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>1</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>2086199647</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="2">
+        <v>819</v>
+      </c>
+      <c r="D44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44">
+        <v>729</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44">
+        <v>30</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>5</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="S44">
+        <v>25</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>3</v>
+      </c>
+      <c r="W44">
+        <v>1</v>
+      </c>
+      <c r="X44">
+        <v>3</v>
+      </c>
+      <c r="Z44">
+        <v>2086191639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="2">
+        <v>800</v>
+      </c>
+      <c r="D45" t="s">
+        <v>84</v>
+      </c>
+      <c r="E45">
+        <v>630</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45">
+        <v>15</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>6</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="S45">
+        <v>11</v>
+      </c>
+      <c r="T45">
+        <v>2</v>
+      </c>
+      <c r="U45">
+        <v>4</v>
+      </c>
+      <c r="V45">
+        <v>5</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>3</v>
+      </c>
+      <c r="Z45">
+        <v>2086186407</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>42860</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="2">
+        <v>775</v>
+      </c>
+      <c r="D46" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46">
+        <v>614</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46">
+        <v>19</v>
+      </c>
+      <c r="L46">
+        <v>5</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="S46">
+        <v>14</v>
+      </c>
+      <c r="T46">
+        <v>4</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
+      <c r="V46">
+        <v>4</v>
+      </c>
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>2086175926</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>42697</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="2">
+        <v>756</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47">
+        <v>801</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>3</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="S47">
+        <v>3</v>
+      </c>
+      <c r="T47">
+        <v>2</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>2</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>1823027183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>42697</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="2">
+        <v>770</v>
+      </c>
+      <c r="D48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48">
+        <v>794</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48">
+        <v>16</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>6</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="S48">
+        <v>16</v>
+      </c>
+      <c r="T48">
+        <v>4</v>
+      </c>
+      <c r="U48">
+        <v>2</v>
+      </c>
+      <c r="V48">
+        <v>2</v>
+      </c>
+      <c r="W48">
+        <v>6</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>1823016455</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>42696</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="2">
+        <v>785</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49">
+        <v>840</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" t="s">
+        <v>34</v>
+      </c>
+      <c r="K49">
+        <v>13</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="S49">
+        <v>10</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>3</v>
+      </c>
+      <c r="V49">
+        <v>2</v>
+      </c>
+      <c r="W49">
+        <v>3</v>
+      </c>
+      <c r="X49">
+        <v>2</v>
+      </c>
+      <c r="Z49">
+        <v>1821145626</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>42696</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="2">
+        <v>785</v>
+      </c>
+      <c r="D50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E50">
+        <v>840</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50">
+        <v>14</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" ref="Q50:Q65" si="2">SUM(K50:P50)</f>
+        <v>19</v>
+      </c>
+      <c r="S50">
+        <v>12</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>3</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>1821135770</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>42693</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" s="2">
+        <v>785</v>
+      </c>
+      <c r="D51">
+        <v>1211221122</v>
+      </c>
+      <c r="E51">
+        <v>924</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" t="s">
+        <v>30</v>
+      </c>
+      <c r="K51">
+        <v>30</v>
+      </c>
+      <c r="L51">
+        <v>5</v>
+      </c>
+      <c r="M51">
+        <v>4</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="S51">
+        <v>27</v>
+      </c>
+      <c r="T51">
+        <v>8</v>
+      </c>
+      <c r="U51">
+        <v>5</v>
+      </c>
+      <c r="V51">
+        <v>2</v>
+      </c>
+      <c r="W51">
+        <v>2</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>1817292557</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>42693</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="2">
+        <v>796</v>
+      </c>
+      <c r="D52" t="s">
+        <v>79</v>
+      </c>
+      <c r="E52">
+        <v>883</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52">
+        <v>17</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>5</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="S52">
+        <v>18</v>
+      </c>
+      <c r="T52">
+        <v>6</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="V52">
+        <v>3</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>1816818371</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>42693</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="2">
+        <v>796</v>
+      </c>
+      <c r="D53" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53">
+        <v>1200</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" t="s">
+        <v>30</v>
+      </c>
+      <c r="I53">
+        <v>-10.7</v>
+      </c>
+      <c r="K53">
+        <v>9</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="S53">
+        <v>12</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>1816803424</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>42692</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" s="2">
+        <v>796</v>
+      </c>
+      <c r="D54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54">
+        <v>1022</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" t="s">
+        <v>30</v>
+      </c>
+      <c r="I54">
+        <v>-27.55</v>
+      </c>
+      <c r="K54">
+        <v>15</v>
+      </c>
+      <c r="L54">
+        <v>9</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="S54">
+        <v>19</v>
+      </c>
+      <c r="T54">
+        <v>4</v>
+      </c>
+      <c r="U54">
+        <v>3</v>
+      </c>
+      <c r="V54">
+        <v>1</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>1815935094</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>42692</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="2">
+        <v>796</v>
+      </c>
+      <c r="D55" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55">
+        <v>1022</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" t="s">
+        <v>28</v>
+      </c>
+      <c r="K55">
+        <v>28</v>
+      </c>
+      <c r="L55">
+        <v>6</v>
+      </c>
+      <c r="M55">
+        <v>6</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55">
+        <v>2</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="S55">
+        <v>20</v>
+      </c>
+      <c r="T55">
+        <v>10</v>
+      </c>
+      <c r="U55">
+        <v>4</v>
+      </c>
+      <c r="V55">
+        <v>2</v>
+      </c>
+      <c r="W55">
+        <v>4</v>
+      </c>
+      <c r="X55">
+        <v>4</v>
+      </c>
+      <c r="Z55">
+        <v>1815922801</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>42692</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="2">
+        <v>796</v>
+      </c>
+      <c r="D56" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56">
+        <v>1022</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56">
+        <v>23</v>
+      </c>
+      <c r="L56">
+        <v>5</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="S56">
+        <v>26</v>
+      </c>
+      <c r="T56">
+        <v>3</v>
+      </c>
+      <c r="U56">
+        <v>3</v>
+      </c>
+      <c r="V56">
+        <v>1</v>
+      </c>
+      <c r="W56">
+        <v>2</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>1815911805</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>42692</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="2">
+        <v>796</v>
+      </c>
+      <c r="D57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E57">
+        <v>751</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57">
+        <v>-6.06</v>
+      </c>
+      <c r="K57">
+        <v>11</v>
+      </c>
+      <c r="L57">
+        <v>2</v>
+      </c>
+      <c r="M57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>5</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="S57">
+        <v>12</v>
+      </c>
+      <c r="T57">
+        <v>3</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+      <c r="V57">
+        <v>5</v>
+      </c>
+      <c r="W57">
+        <v>2</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>1815890323</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>42691</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="2">
+        <v>781</v>
+      </c>
+      <c r="D58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58">
+        <v>1017</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" t="s">
+        <v>30</v>
+      </c>
+      <c r="I58">
+        <v>-1.66</v>
+      </c>
+      <c r="K58">
+        <v>12</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>1</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="S58">
+        <v>13</v>
+      </c>
+      <c r="T58">
+        <v>1</v>
+      </c>
+      <c r="U58">
+        <v>2</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>2</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>1814772517</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>42689</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="2">
+        <v>781</v>
+      </c>
+      <c r="D59" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59">
+        <v>1213</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" t="s">
+        <v>30</v>
+      </c>
+      <c r="I59">
+        <v>-5.81</v>
+      </c>
+      <c r="K59">
+        <v>12</v>
+      </c>
+      <c r="L59">
+        <v>6</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="S59">
+        <v>13</v>
+      </c>
+      <c r="T59">
+        <v>8</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+      <c r="V59">
+        <v>1</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>1814712917</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>42689</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60" s="2">
+        <v>781</v>
+      </c>
+      <c r="D60" t="s">
+        <v>71</v>
+      </c>
+      <c r="E60">
+        <v>1930</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60">
+        <v>13</v>
+      </c>
+      <c r="L60">
+        <v>5</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="S60">
+        <v>21</v>
+      </c>
+      <c r="T60">
+        <v>4</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>1</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>1814708647</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>42689</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="2">
+        <v>781</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61">
+        <v>864</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" t="s">
+        <v>28</v>
+      </c>
+      <c r="K61">
+        <v>10</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>2</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="S61">
+        <v>14</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>1</v>
+      </c>
+      <c r="V61">
+        <v>2</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>1811736159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>42689</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="2">
+        <v>795</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62">
+        <v>850</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+      <c r="K62">
+        <v>8</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>2</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>3</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="S62">
+        <v>8</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>2</v>
+      </c>
+      <c r="V62">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>4</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>1811730313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>42689</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C63" s="2">
+        <v>812</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63">
+        <v>834</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" t="s">
+        <v>28</v>
+      </c>
+      <c r="K63">
+        <v>42</v>
+      </c>
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>2</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="S63">
+        <v>45</v>
+      </c>
+      <c r="T63">
+        <v>2</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>1811716015</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>42689</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="2">
+        <v>831</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64">
+        <v>816</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" t="s">
+        <v>28</v>
+      </c>
+      <c r="K64">
+        <v>19</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>5</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="S64">
+        <v>15</v>
+      </c>
+      <c r="T64">
+        <v>6</v>
+      </c>
+      <c r="U64">
+        <v>3</v>
+      </c>
+      <c r="V64">
+        <v>6</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>1811706198</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>42685</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="2">
+        <v>854</v>
+      </c>
+      <c r="D65" t="s">
+        <v>68</v>
+      </c>
+      <c r="E65">
+        <v>1124</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65">
+        <v>31</v>
+      </c>
+      <c r="L65">
+        <v>5</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <v>2</v>
+      </c>
+      <c r="Q65">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="S65">
+        <v>33</v>
+      </c>
+      <c r="T65">
+        <v>7</v>
+      </c>
+      <c r="U65">
+        <v>6</v>
+      </c>
+      <c r="V65">
+        <v>2</v>
+      </c>
+      <c r="W65">
+        <v>1</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>1805270627</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>42683</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="2">
+        <v>867</v>
+      </c>
+      <c r="D66" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66">
+        <v>1021</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" t="s">
+        <v>28</v>
+      </c>
+      <c r="K66">
+        <v>20</v>
+      </c>
+      <c r="L66">
+        <v>7</v>
+      </c>
+      <c r="M66">
+        <v>6</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>2</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" ref="Q66:Q91" si="3">SUM(K66:P66)</f>
+        <v>38</v>
+      </c>
+      <c r="S66">
+        <v>24</v>
+      </c>
+      <c r="T66">
+        <v>7</v>
+      </c>
+      <c r="U66">
+        <v>4</v>
+      </c>
+      <c r="V66">
+        <v>2</v>
+      </c>
+      <c r="W66">
+        <v>2</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>1803719799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>42682</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="2">
+        <v>880</v>
+      </c>
+      <c r="D67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67">
+        <v>977</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" t="s">
+        <v>28</v>
+      </c>
+      <c r="K67">
+        <v>38</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>3</v>
+      </c>
+      <c r="N67">
+        <v>2</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>3</v>
+      </c>
+      <c r="Q67">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="S67">
+        <v>41</v>
+      </c>
+      <c r="T67">
+        <v>3</v>
+      </c>
+      <c r="U67">
+        <v>2</v>
+      </c>
+      <c r="V67">
+        <v>2</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>1802402373</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>42681</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="2">
+        <v>898</v>
+      </c>
+      <c r="D68" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68">
+        <v>814</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" t="s">
+        <v>28</v>
+      </c>
+      <c r="K68">
+        <v>28</v>
+      </c>
+      <c r="L68">
+        <v>7</v>
+      </c>
+      <c r="M68">
+        <v>5</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="S68">
+        <v>27</v>
+      </c>
+      <c r="T68">
+        <v>6</v>
+      </c>
+      <c r="U68">
+        <v>3</v>
+      </c>
+      <c r="V68">
+        <v>2</v>
+      </c>
+      <c r="W68">
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Z68">
+        <v>1801051477</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>42680</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="2">
+        <v>877</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69">
+        <v>945</v>
+      </c>
+      <c r="F69" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" t="s">
+        <v>30</v>
+      </c>
+      <c r="K69">
+        <v>17</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>4</v>
+      </c>
+      <c r="N69">
+        <v>4</v>
+      </c>
+      <c r="O69">
+        <v>5</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="S69">
+        <v>15</v>
+      </c>
+      <c r="T69">
+        <v>3</v>
+      </c>
+      <c r="U69">
+        <v>7</v>
+      </c>
+      <c r="V69">
+        <v>1</v>
+      </c>
+      <c r="W69">
+        <v>4</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>1799753292</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>42680</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70" s="2">
+        <v>845</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70">
+        <v>955</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" t="s">
+        <v>30</v>
+      </c>
+      <c r="K70">
+        <v>14</v>
+      </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70">
+        <v>4</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="S70">
+        <v>18</v>
+      </c>
+      <c r="T70">
+        <v>4</v>
+      </c>
+      <c r="U70">
+        <v>2</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70">
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>1799747558</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>42680</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C71" s="2">
+        <v>865</v>
+      </c>
+      <c r="D71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71">
+        <v>922</v>
+      </c>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" t="s">
+        <v>28</v>
+      </c>
+      <c r="K71">
+        <v>6</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>2</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="S71">
+        <v>8</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <v>1</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>1799369215</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>42680</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="2">
+        <v>891</v>
+      </c>
+      <c r="D72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72">
+        <v>1021</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72">
+        <v>18</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+      <c r="M72">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>2</v>
+      </c>
+      <c r="O72">
+        <v>1</v>
+      </c>
+      <c r="P72">
+        <v>4</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="S72">
+        <v>23</v>
+      </c>
+      <c r="T72">
+        <v>4</v>
+      </c>
+      <c r="U72">
+        <v>4</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>1</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>1799357884</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>42680</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="2">
+        <v>913</v>
+      </c>
+      <c r="D73" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73">
+        <v>805</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" t="s">
+        <v>28</v>
+      </c>
+      <c r="K73">
+        <v>14</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>1</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="S73">
+        <v>10</v>
+      </c>
+      <c r="T73">
+        <v>5</v>
+      </c>
+      <c r="U73">
+        <v>1</v>
+      </c>
+      <c r="V73">
+        <v>2</v>
+      </c>
+      <c r="W73">
+        <v>3</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>1799348375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74" s="2">
+        <v>887</v>
+      </c>
+      <c r="D74" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74">
+        <v>817</v>
+      </c>
+      <c r="F74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" t="s">
+        <v>30</v>
+      </c>
+      <c r="K74">
+        <v>14</v>
+      </c>
+      <c r="L74">
+        <v>14</v>
+      </c>
+      <c r="M74">
+        <v>4</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="S74">
+        <v>20</v>
+      </c>
+      <c r="T74">
+        <v>7</v>
+      </c>
+      <c r="U74">
+        <v>3</v>
+      </c>
+      <c r="V74">
+        <v>3</v>
+      </c>
+      <c r="W74">
+        <v>1</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>1750589971</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="2">
+        <v>929</v>
+      </c>
+      <c r="D75" t="s">
+        <v>57</v>
+      </c>
+      <c r="E75">
+        <v>1019</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" t="s">
+        <v>30</v>
+      </c>
+      <c r="K75">
+        <v>19</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>7</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="S75">
+        <v>20</v>
+      </c>
+      <c r="T75">
+        <v>5</v>
+      </c>
+      <c r="U75">
+        <v>1</v>
+      </c>
+      <c r="V75">
+        <v>1</v>
+      </c>
+      <c r="W75">
+        <v>6</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>1750582658</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="2">
+        <v>959</v>
+      </c>
+      <c r="D76" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76">
+        <v>1012</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" t="s">
+        <v>30</v>
+      </c>
+      <c r="K76">
+        <v>7</v>
+      </c>
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76">
+        <v>2</v>
+      </c>
+      <c r="P76">
+        <v>2</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="S76">
+        <v>13</v>
+      </c>
+      <c r="T76">
+        <v>3</v>
+      </c>
+      <c r="U76">
+        <v>1</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="W76">
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>1750579610</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="2">
+        <v>996</v>
+      </c>
+      <c r="D77" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77">
+        <v>1004</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" t="s">
+        <v>28</v>
+      </c>
+      <c r="K77">
+        <v>6</v>
+      </c>
+      <c r="L77">
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="O77">
+        <v>1</v>
+      </c>
+      <c r="P77">
+        <v>9</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="S77">
+        <v>12</v>
+      </c>
+      <c r="T77">
+        <v>2</v>
+      </c>
+      <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>1750577531</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1043</v>
+      </c>
+      <c r="D78" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78">
+        <v>1227</v>
+      </c>
+      <c r="F78" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" t="s">
+        <v>28</v>
+      </c>
+      <c r="K78">
+        <v>37</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>4</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="S78">
+        <v>42</v>
+      </c>
+      <c r="T78">
+        <v>5</v>
+      </c>
+      <c r="U78">
+        <v>1</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>1</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>1750564193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>42783</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1072</v>
+      </c>
+      <c r="D79" t="s">
+        <v>55</v>
+      </c>
+      <c r="E79">
+        <v>1197</v>
+      </c>
+      <c r="F79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" t="s">
+        <v>28</v>
+      </c>
+      <c r="K79">
+        <v>27</v>
+      </c>
+      <c r="L79">
+        <v>7</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>6</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>2</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="S79">
+        <v>35</v>
+      </c>
+      <c r="T79">
+        <v>4</v>
+      </c>
+      <c r="U79">
+        <v>2</v>
+      </c>
+      <c r="V79">
+        <v>3</v>
+      </c>
+      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>1464918348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>42783</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1095</v>
+      </c>
+      <c r="D80" t="s">
+        <v>55</v>
+      </c>
+      <c r="E80">
+        <v>1191</v>
+      </c>
+      <c r="F80" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" t="s">
+        <v>28</v>
+      </c>
+      <c r="K80">
+        <v>20</v>
+      </c>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="S80">
+        <v>24</v>
+      </c>
+      <c r="T80">
+        <v>2</v>
+      </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
+      <c r="V80">
+        <v>1</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+      <c r="Z80">
+        <v>1464912226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>42783</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1124</v>
+      </c>
+      <c r="D81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81">
+        <v>1338</v>
+      </c>
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" t="s">
+        <v>28</v>
+      </c>
+      <c r="K81">
+        <v>13</v>
+      </c>
+      <c r="L81">
+        <v>10</v>
+      </c>
+      <c r="M81">
+        <v>5</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81">
+        <v>4</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="S81">
+        <v>17</v>
+      </c>
+      <c r="T81">
+        <v>8</v>
+      </c>
+      <c r="U81">
+        <v>3</v>
+      </c>
+      <c r="V81">
+        <v>3</v>
+      </c>
+      <c r="W81">
+        <v>4</v>
+      </c>
+      <c r="X81">
+        <v>1</v>
+      </c>
+      <c r="Z81">
+        <v>1464893657</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>42783</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1144</v>
+      </c>
+      <c r="D82" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82">
+        <v>1240</v>
+      </c>
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" t="s">
+        <v>28</v>
+      </c>
+      <c r="K82">
+        <v>35</v>
+      </c>
+      <c r="L82">
+        <v>7</v>
+      </c>
+      <c r="M82">
+        <v>5</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82">
+        <v>4</v>
+      </c>
+      <c r="P82">
+        <v>5</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="S82">
+        <v>47</v>
+      </c>
+      <c r="T82">
+        <v>2</v>
+      </c>
+      <c r="U82">
+        <v>5</v>
+      </c>
+      <c r="V82">
+        <v>1</v>
+      </c>
+      <c r="W82">
+        <v>4</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>1464880151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>42783</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1186</v>
+      </c>
+      <c r="D83" t="s">
+        <v>52</v>
+      </c>
+      <c r="E83">
+        <v>1184</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" t="s">
+        <v>28</v>
+      </c>
+      <c r="K83">
+        <v>18</v>
+      </c>
+      <c r="L83">
+        <v>7</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83">
+        <v>4</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="S83">
+        <v>20</v>
+      </c>
+      <c r="T83">
+        <v>3</v>
+      </c>
+      <c r="U83">
+        <v>7</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>4</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>1464873451</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>42782</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1238</v>
+      </c>
+      <c r="D84" t="s">
+        <v>49</v>
+      </c>
+      <c r="E84">
+        <v>1067</v>
+      </c>
+      <c r="F84" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" t="s">
+        <v>30</v>
+      </c>
+      <c r="I84">
+        <v>8.59</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="S84">
+        <v>3</v>
+      </c>
+      <c r="T84">
+        <v>0</v>
+      </c>
+      <c r="U84">
+        <v>2</v>
+      </c>
+      <c r="V84">
+        <v>0</v>
+      </c>
+      <c r="W84">
+        <v>1</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>1464871856</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>42415</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1196</v>
+      </c>
+      <c r="D85" t="s">
+        <v>48</v>
+      </c>
+      <c r="E85">
+        <v>1278</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" t="s">
+        <v>28</v>
+      </c>
+      <c r="K85">
+        <v>16</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>4</v>
+      </c>
+      <c r="P85">
+        <v>2</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="S85">
+        <v>21</v>
+      </c>
+      <c r="T85">
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>3</v>
+      </c>
+      <c r="W85">
+        <v>3</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>1462337962</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>42415</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1250</v>
+      </c>
+      <c r="D86" t="s">
+        <v>41</v>
+      </c>
+      <c r="E86">
+        <v>1125</v>
+      </c>
+      <c r="F86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" t="s">
+        <v>30</v>
+      </c>
+      <c r="K86">
+        <v>24</v>
+      </c>
+      <c r="L86">
+        <v>2</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="S86">
+        <v>25</v>
+      </c>
+      <c r="T86">
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>1</v>
+      </c>
+      <c r="W86">
+        <v>1</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>1462332857</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>42415</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1191</v>
+      </c>
+      <c r="D87" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87">
+        <v>973</v>
+      </c>
+      <c r="F87" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="K87">
+        <v>12</v>
+      </c>
+      <c r="L87">
+        <v>8</v>
+      </c>
+      <c r="M87">
+        <v>4</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>2</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="S87">
+        <v>12</v>
+      </c>
+      <c r="T87">
+        <v>7</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>4</v>
+      </c>
+      <c r="W87">
+        <v>4</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>1462322928</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>42415</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1141</v>
+      </c>
+      <c r="D88" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88">
+        <v>977</v>
+      </c>
+      <c r="F88" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" t="s">
+        <v>34</v>
+      </c>
+      <c r="K88">
+        <v>25</v>
+      </c>
+      <c r="L88">
+        <v>5</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="S88">
+        <v>23</v>
+      </c>
+      <c r="T88">
+        <v>4</v>
+      </c>
+      <c r="U88">
+        <v>3</v>
+      </c>
+      <c r="V88">
+        <v>2</v>
+      </c>
+      <c r="W88">
+        <v>1</v>
+      </c>
+      <c r="X88">
+        <v>2</v>
+      </c>
+      <c r="Z88">
+        <v>1462313386</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>42415</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1066</v>
+      </c>
+      <c r="D89" t="s">
+        <v>44</v>
+      </c>
+      <c r="E89">
+        <v>972</v>
+      </c>
+      <c r="F89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="K89">
+        <v>15</v>
+      </c>
+      <c r="L89">
+        <v>2</v>
+      </c>
+      <c r="M89">
+        <v>5</v>
+      </c>
+      <c r="N89">
+        <v>5</v>
+      </c>
+      <c r="O89">
+        <v>5</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="S89">
+        <v>15</v>
+      </c>
+      <c r="T89">
+        <v>3</v>
+      </c>
+      <c r="U89">
+        <v>5</v>
+      </c>
+      <c r="V89">
+        <v>6</v>
+      </c>
+      <c r="W89">
+        <v>4</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>1462304142</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>42415</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" s="2">
+        <v>946</v>
+      </c>
+      <c r="D90" t="s">
+        <v>42</v>
+      </c>
+      <c r="E90">
+        <v>821</v>
+      </c>
+      <c r="F90" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" t="s">
+        <v>30</v>
+      </c>
+      <c r="K90">
+        <v>13</v>
+      </c>
+      <c r="L90">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>4</v>
+      </c>
+      <c r="N90">
+        <v>5</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="S90">
+        <v>14</v>
+      </c>
+      <c r="T90">
+        <v>3</v>
+      </c>
+      <c r="U90">
+        <v>3</v>
+      </c>
+      <c r="V90">
+        <v>2</v>
+      </c>
+      <c r="W90">
+        <v>4</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>1462297876</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>42415</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" s="2">
+        <v>786</v>
+      </c>
+      <c r="D91" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91">
+        <v>842</v>
+      </c>
+      <c r="F91" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
+      <c r="K91">
+        <v>16</v>
+      </c>
+      <c r="L91">
+        <v>8</v>
+      </c>
+      <c r="M91">
+        <v>3</v>
+      </c>
+      <c r="N91">
+        <v>6</v>
+      </c>
+      <c r="O91">
+        <v>5</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="S91">
+        <v>18</v>
+      </c>
+      <c r="T91">
+        <v>4</v>
+      </c>
+      <c r="U91">
+        <v>3</v>
+      </c>
+      <c r="V91">
+        <v>2</v>
+      </c>
+      <c r="W91">
+        <v>10</v>
+      </c>
+      <c r="X91">
+        <v>1</v>
+      </c>
+      <c r="Z91">
+        <v>1462286583</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C92" s="2">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/chess analysis.xlsx
+++ b/chess analysis.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\GitHub\Chess-Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spamt\Documents\Code\Github\Chess-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -491,7 +491,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,7 +598,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -637,7 +637,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1087,6 +1086,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB46-4551-99AF-D83D609952B5}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1255,7 +1259,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1298,7 +1302,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1748,6 +1751,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9F38-4198-89CC-734BC7BB11C0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1916,7 +1924,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1960,7 +1968,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2410,6 +2417,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B08-4291-BD19-21C959655A15}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2577,7 +2589,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2616,7 +2628,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3066,6 +3077,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B26A-4992-B6ED-928B6F8EC2CC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3233,7 +3249,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3277,7 +3293,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3730,6 +3745,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E03-4C86-A673-B04CA64429A6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3896,7 +3916,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3935,7 +3955,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4388,6 +4407,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CFC-4762-B7F3-65DF9AAA2A39}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4555,7 +4579,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -4594,7 +4618,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4758,6 +4781,93 @@
                 <c:pt idx="30">
                   <c:v>0.63300000000000001</c:v>
                 </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.371</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.318</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.41199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.41699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.46400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.34899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.28100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.33300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.22700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.36399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.27300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.56499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.45500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.35899999999999999</c:v>
+                </c:pt>
                 <c:pt idx="102">
                   <c:v>0.42899999999999999</c:v>
                 </c:pt>
@@ -4831,6 +4941,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0342-4765-9438-A65C63025100}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4997,7 +5112,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5036,7 +5151,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5200,6 +5314,93 @@
                 <c:pt idx="30">
                   <c:v>1.81</c:v>
                 </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.1399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.45</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.62</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.39</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.1599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.23</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.75</c:v>
+                </c:pt>
                 <c:pt idx="102">
                   <c:v>1.63</c:v>
                 </c:pt>
@@ -5273,6 +5474,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE20-47D1-9D7A-31FFADCC872C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -10430,56 +10636,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A27:AS158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="Y78" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AQ106" sqref="AQ106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.41796875" customWidth="1"/>
+    <col min="2" max="2" width="9.15625" customWidth="1"/>
+    <col min="3" max="3" width="5.26171875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.26171875" customWidth="1"/>
     <col min="5" max="5" width="5" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" customWidth="1"/>
-    <col min="7" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="3.5703125" customWidth="1"/>
-    <col min="14" max="14" width="3.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.83984375" customWidth="1"/>
+    <col min="7" max="8" width="6.15625" customWidth="1"/>
+    <col min="9" max="9" width="10.578125" customWidth="1"/>
+    <col min="10" max="10" width="7.83984375" customWidth="1"/>
+    <col min="11" max="11" width="3.578125" customWidth="1"/>
+    <col min="12" max="12" width="4.15625" customWidth="1"/>
+    <col min="13" max="13" width="3.578125" customWidth="1"/>
+    <col min="14" max="14" width="3.41796875" customWidth="1"/>
     <col min="15" max="15" width="4" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" customWidth="1"/>
-    <col min="17" max="17" width="3.28515625" customWidth="1"/>
-    <col min="18" max="18" width="4.85546875" customWidth="1"/>
-    <col min="19" max="19" width="4.140625" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" customWidth="1"/>
-    <col min="21" max="21" width="3.7109375" customWidth="1"/>
-    <col min="22" max="22" width="3.42578125" customWidth="1"/>
+    <col min="16" max="16" width="3.68359375" customWidth="1"/>
+    <col min="17" max="17" width="3.26171875" customWidth="1"/>
+    <col min="18" max="18" width="4.83984375" customWidth="1"/>
+    <col min="19" max="19" width="4.15625" customWidth="1"/>
+    <col min="20" max="20" width="4.26171875" customWidth="1"/>
+    <col min="21" max="21" width="3.68359375" customWidth="1"/>
+    <col min="22" max="22" width="3.41796875" customWidth="1"/>
     <col min="23" max="23" width="4" customWidth="1"/>
-    <col min="24" max="24" width="3.5703125" customWidth="1"/>
-    <col min="25" max="25" width="3.7109375" customWidth="1"/>
-    <col min="26" max="26" width="4.28515625" customWidth="1"/>
-    <col min="27" max="27" width="3.140625" customWidth="1"/>
-    <col min="28" max="28" width="5.85546875" customWidth="1"/>
-    <col min="29" max="30" width="5.140625" customWidth="1"/>
-    <col min="31" max="31" width="4.7109375" customWidth="1"/>
-    <col min="32" max="33" width="4.5703125" customWidth="1"/>
-    <col min="34" max="34" width="4.5703125" style="20" customWidth="1"/>
-    <col min="35" max="35" width="4.140625" customWidth="1"/>
-    <col min="36" max="36" width="5.28515625" customWidth="1"/>
-    <col min="37" max="37" width="4.42578125" customWidth="1"/>
+    <col min="24" max="24" width="3.578125" customWidth="1"/>
+    <col min="25" max="25" width="3.68359375" customWidth="1"/>
+    <col min="26" max="26" width="4.26171875" customWidth="1"/>
+    <col min="27" max="27" width="3.15625" customWidth="1"/>
+    <col min="28" max="28" width="5.83984375" customWidth="1"/>
+    <col min="29" max="30" width="5.15625" customWidth="1"/>
+    <col min="31" max="31" width="4.68359375" customWidth="1"/>
+    <col min="32" max="33" width="4.578125" customWidth="1"/>
+    <col min="34" max="34" width="4.578125" style="20" customWidth="1"/>
+    <col min="35" max="35" width="4.15625" customWidth="1"/>
+    <col min="36" max="36" width="5.26171875" customWidth="1"/>
+    <col min="37" max="37" width="4.41796875" customWidth="1"/>
     <col min="38" max="38" width="5" customWidth="1"/>
-    <col min="39" max="39" width="4.5703125" customWidth="1"/>
-    <col min="40" max="40" width="5.28515625" customWidth="1"/>
-    <col min="41" max="41" width="5.140625" style="9" customWidth="1"/>
-    <col min="42" max="42" width="5.140625" style="20" customWidth="1"/>
-    <col min="43" max="43" width="3.140625" customWidth="1"/>
-    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.578125" customWidth="1"/>
+    <col min="40" max="40" width="5.26171875" customWidth="1"/>
+    <col min="41" max="41" width="5.15625" style="9" customWidth="1"/>
+    <col min="42" max="42" width="5.15625" style="20" customWidth="1"/>
+    <col min="43" max="43" width="3.15625" customWidth="1"/>
+    <col min="44" max="44" width="10.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="L27" t="s">
         <v>6</v>
       </c>
@@ -10493,7 +10699,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.55000000000000004">
       <c r="L28" t="s">
         <v>7</v>
       </c>
@@ -10573,7 +10779,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
@@ -10680,25 +10886,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="12"/>
       <c r="AH30" s="22"/>
       <c r="AO30" s="10"/>
       <c r="AP30" s="22"/>
     </row>
-    <row r="31" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="12"/>
       <c r="AH31" s="22"/>
       <c r="AO31" s="10"/>
       <c r="AP31" s="22"/>
     </row>
-    <row r="32" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="12"/>
       <c r="AH32" s="22"/>
       <c r="AO32" s="10"/>
       <c r="AP32" s="22"/>
     </row>
-    <row r="33" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="13">
         <v>42870</v>
       </c>
@@ -10828,7 +11034,7 @@
         <v>2103208108</v>
       </c>
     </row>
-    <row r="34" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="13">
         <v>42870</v>
       </c>
@@ -10961,7 +11167,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="13">
         <v>42869</v>
       </c>
@@ -11094,7 +11300,7 @@
         <v>2101715858</v>
       </c>
     </row>
-    <row r="36" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="13">
         <v>42869</v>
       </c>
@@ -11227,7 +11433,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="13">
         <v>42869</v>
       </c>
@@ -11363,7 +11569,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="13">
         <v>42869</v>
       </c>
@@ -11496,7 +11702,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="13">
         <v>42869</v>
       </c>
@@ -11626,7 +11832,7 @@
         <v>2101504936</v>
       </c>
     </row>
-    <row r="40" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="13">
         <v>42869</v>
       </c>
@@ -11759,7 +11965,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="13">
         <v>42868</v>
       </c>
@@ -11889,7 +12095,7 @@
         <v>2099663099</v>
       </c>
     </row>
-    <row r="42" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="13">
         <v>42868</v>
       </c>
@@ -12025,7 +12231,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="13">
         <v>42868</v>
       </c>
@@ -12155,7 +12361,7 @@
         <v>2099626825</v>
       </c>
     </row>
-    <row r="44" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="13">
         <v>42868</v>
       </c>
@@ -12285,7 +12491,7 @@
         <v>2099619032</v>
       </c>
     </row>
-    <row r="45" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="13">
         <v>42868</v>
       </c>
@@ -12418,7 +12624,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="13">
         <v>42868</v>
       </c>
@@ -12551,7 +12757,7 @@
         <v>2099591308</v>
       </c>
     </row>
-    <row r="47" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="13">
         <v>42868</v>
       </c>
@@ -12684,7 +12890,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="13">
         <v>42868</v>
       </c>
@@ -12817,7 +13023,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="13">
         <v>42868</v>
       </c>
@@ -12947,7 +13153,7 @@
         <v>2098420065</v>
       </c>
     </row>
-    <row r="50" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="13">
         <v>42868</v>
       </c>
@@ -13080,7 +13286,7 @@
         <v>2098394670</v>
       </c>
     </row>
-    <row r="51" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="13">
         <v>42867</v>
       </c>
@@ -13213,7 +13419,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="13">
         <v>42867</v>
       </c>
@@ -13272,7 +13478,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="13">
         <v>42867</v>
       </c>
@@ -13405,7 +13611,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="54" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="13">
         <v>42867</v>
       </c>
@@ -13538,7 +13744,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="13">
         <v>42867</v>
       </c>
@@ -13668,7 +13874,7 @@
         <v>2098180634</v>
       </c>
     </row>
-    <row r="56" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="13">
         <v>42867</v>
       </c>
@@ -13798,7 +14004,7 @@
         <v>2098166670</v>
       </c>
     </row>
-    <row r="57" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="13">
         <v>42867</v>
       </c>
@@ -13928,7 +14134,7 @@
         <v>2098151752</v>
       </c>
     </row>
-    <row r="58" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="13">
         <v>42867</v>
       </c>
@@ -13976,7 +14182,7 @@
         <v>0</v>
       </c>
       <c r="R58">
-        <f>SUM(L58:Q58)</f>
+        <f t="shared" ref="R58:R67" si="184">SUM(L58:Q58)</f>
         <v>16</v>
       </c>
       <c r="T58" s="14">
@@ -14002,23 +14208,23 @@
         <v>15</v>
       </c>
       <c r="AB58" s="9">
-        <f t="shared" ref="AB58" si="184">(L58+M58)/$R58</f>
+        <f t="shared" ref="AB58" si="185">(L58+M58)/$R58</f>
         <v>0.875</v>
       </c>
       <c r="AC58" s="9">
-        <f t="shared" ref="AC58" si="185">N58/R58</f>
+        <f t="shared" ref="AC58" si="186">N58/R58</f>
         <v>0.125</v>
       </c>
       <c r="AD58" s="9">
-        <f t="shared" ref="AD58" si="186">O58/R58</f>
+        <f t="shared" ref="AD58" si="187">O58/R58</f>
         <v>0</v>
       </c>
       <c r="AE58" s="9">
-        <f t="shared" ref="AE58" si="187">P58/R58</f>
+        <f t="shared" ref="AE58" si="188">P58/R58</f>
         <v>0</v>
       </c>
       <c r="AF58" s="9">
-        <f t="shared" ref="AF58" si="188">Q58/R58</f>
+        <f t="shared" ref="AF58" si="189">Q58/R58</f>
         <v>0</v>
       </c>
       <c r="AG58" s="9">
@@ -14029,23 +14235,23 @@
       </c>
       <c r="AI58"/>
       <c r="AJ58" s="9">
-        <f t="shared" ref="AJ58" si="189">(T58+U58)/$Z58</f>
+        <f t="shared" ref="AJ58" si="190">(T58+U58)/$Z58</f>
         <v>0.73333333333333328</v>
       </c>
       <c r="AK58" s="10">
-        <f t="shared" ref="AK58" si="190">V58/$Z58</f>
+        <f t="shared" ref="AK58" si="191">V58/$Z58</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AL58" s="10">
-        <f t="shared" ref="AL58" si="191">W58/$Z58</f>
+        <f t="shared" ref="AL58" si="192">W58/$Z58</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AM58" s="10">
-        <f t="shared" ref="AM58" si="192">X58/$Z58</f>
+        <f t="shared" ref="AM58" si="193">X58/$Z58</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AN58" s="10">
-        <f t="shared" ref="AN58" si="193">Y58/$Z58</f>
+        <f t="shared" ref="AN58" si="194">Y58/$Z58</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AO58" s="10">
@@ -14058,7 +14264,7 @@
         <v>2098146598</v>
       </c>
     </row>
-    <row r="59" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="13">
         <v>42867</v>
       </c>
@@ -14106,7 +14312,7 @@
         <v>6</v>
       </c>
       <c r="R59">
-        <f>SUM(L59:Q59)</f>
+        <f t="shared" si="184"/>
         <v>54</v>
       </c>
       <c r="T59" s="14">
@@ -14132,23 +14338,23 @@
         <v>55</v>
       </c>
       <c r="AB59" s="9">
-        <f t="shared" ref="AB59" si="194">(L59+M59)/$R59</f>
+        <f t="shared" ref="AB59" si="195">(L59+M59)/$R59</f>
         <v>0.7592592592592593</v>
       </c>
       <c r="AC59" s="9">
-        <f t="shared" ref="AC59" si="195">N59/R59</f>
+        <f t="shared" ref="AC59" si="196">N59/R59</f>
         <v>9.2592592592592587E-2</v>
       </c>
       <c r="AD59" s="9">
-        <f t="shared" ref="AD59" si="196">O59/R59</f>
+        <f t="shared" ref="AD59" si="197">O59/R59</f>
         <v>1.8518518518518517E-2</v>
       </c>
       <c r="AE59" s="9">
-        <f t="shared" ref="AE59" si="197">P59/R59</f>
+        <f t="shared" ref="AE59" si="198">P59/R59</f>
         <v>1.8518518518518517E-2</v>
       </c>
       <c r="AF59" s="9">
-        <f t="shared" ref="AF59" si="198">Q59/R59</f>
+        <f t="shared" ref="AF59" si="199">Q59/R59</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="AG59" s="9">
@@ -14159,23 +14365,23 @@
       </c>
       <c r="AI59"/>
       <c r="AJ59" s="9">
-        <f t="shared" ref="AJ59" si="199">(T59+U59)/$Z59</f>
+        <f t="shared" ref="AJ59" si="200">(T59+U59)/$Z59</f>
         <v>0.89090909090909087</v>
       </c>
       <c r="AK59" s="10">
-        <f t="shared" ref="AK59" si="200">V59/$Z59</f>
+        <f t="shared" ref="AK59" si="201">V59/$Z59</f>
         <v>5.4545454545454543E-2</v>
       </c>
       <c r="AL59" s="10">
-        <f t="shared" ref="AL59" si="201">W59/$Z59</f>
+        <f t="shared" ref="AL59" si="202">W59/$Z59</f>
         <v>3.6363636363636362E-2</v>
       </c>
       <c r="AM59" s="10">
-        <f t="shared" ref="AM59" si="202">X59/$Z59</f>
+        <f t="shared" ref="AM59" si="203">X59/$Z59</f>
         <v>1.8181818181818181E-2</v>
       </c>
       <c r="AN59" s="10">
-        <f t="shared" ref="AN59" si="203">Y59/$Z59</f>
+        <f t="shared" ref="AN59" si="204">Y59/$Z59</f>
         <v>0</v>
       </c>
       <c r="AO59" s="10">
@@ -14188,7 +14394,7 @@
         <v>2098128592</v>
       </c>
     </row>
-    <row r="60" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="13">
         <v>42867</v>
       </c>
@@ -14236,7 +14442,7 @@
         <v>0</v>
       </c>
       <c r="R60">
-        <f>SUM(L60:Q60)</f>
+        <f t="shared" si="184"/>
         <v>15</v>
       </c>
       <c r="T60" s="14">
@@ -14262,23 +14468,23 @@
         <v>14</v>
       </c>
       <c r="AB60" s="9">
-        <f t="shared" ref="AB60" si="204">(L60+M60)/$R60</f>
+        <f t="shared" ref="AB60" si="205">(L60+M60)/$R60</f>
         <v>0.8</v>
       </c>
       <c r="AC60" s="9">
-        <f t="shared" ref="AC60" si="205">N60/R60</f>
+        <f t="shared" ref="AC60" si="206">N60/R60</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD60" s="9">
-        <f t="shared" ref="AD60" si="206">O60/R60</f>
+        <f t="shared" ref="AD60" si="207">O60/R60</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AE60" s="9">
-        <f t="shared" ref="AE60" si="207">P60/R60</f>
+        <f t="shared" ref="AE60" si="208">P60/R60</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF60" s="9">
-        <f t="shared" ref="AF60" si="208">Q60/R60</f>
+        <f t="shared" ref="AF60" si="209">Q60/R60</f>
         <v>0</v>
       </c>
       <c r="AG60" s="9">
@@ -14289,23 +14495,23 @@
       </c>
       <c r="AI60"/>
       <c r="AJ60" s="9">
-        <f t="shared" ref="AJ60" si="209">(T60+U60)/$Z60</f>
+        <f t="shared" ref="AJ60" si="210">(T60+U60)/$Z60</f>
         <v>0.6428571428571429</v>
       </c>
       <c r="AK60" s="10">
-        <f t="shared" ref="AK60" si="210">V60/$Z60</f>
+        <f t="shared" ref="AK60" si="211">V60/$Z60</f>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="AL60" s="10">
-        <f t="shared" ref="AL60" si="211">W60/$Z60</f>
+        <f t="shared" ref="AL60" si="212">W60/$Z60</f>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="AM60" s="10">
-        <f t="shared" ref="AM60" si="212">X60/$Z60</f>
+        <f t="shared" ref="AM60" si="213">X60/$Z60</f>
         <v>0.21428571428571427</v>
       </c>
       <c r="AN60" s="10">
-        <f t="shared" ref="AN60" si="213">Y60/$Z60</f>
+        <f t="shared" ref="AN60" si="214">Y60/$Z60</f>
         <v>0</v>
       </c>
       <c r="AO60" s="10">
@@ -14318,7 +14524,7 @@
         <v>2098107962</v>
       </c>
     </row>
-    <row r="61" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="13">
         <v>42867</v>
       </c>
@@ -14366,7 +14572,7 @@
         <v>0</v>
       </c>
       <c r="R61">
-        <f>SUM(L61:Q61)</f>
+        <f t="shared" si="184"/>
         <v>49</v>
       </c>
       <c r="T61" s="14">
@@ -14392,23 +14598,23 @@
         <v>48</v>
       </c>
       <c r="AB61" s="9">
-        <f t="shared" ref="AB61" si="214">(L61+M61)/$R61</f>
+        <f t="shared" ref="AB61" si="215">(L61+M61)/$R61</f>
         <v>0.69387755102040816</v>
       </c>
       <c r="AC61" s="9">
-        <f t="shared" ref="AC61" si="215">N61/R61</f>
+        <f t="shared" ref="AC61" si="216">N61/R61</f>
         <v>0.16326530612244897</v>
       </c>
       <c r="AD61" s="9">
-        <f t="shared" ref="AD61" si="216">O61/R61</f>
+        <f t="shared" ref="AD61" si="217">O61/R61</f>
         <v>0.12244897959183673</v>
       </c>
       <c r="AE61" s="9">
-        <f t="shared" ref="AE61" si="217">P61/R61</f>
+        <f t="shared" ref="AE61" si="218">P61/R61</f>
         <v>2.0408163265306121E-2</v>
       </c>
       <c r="AF61" s="9">
-        <f t="shared" ref="AF61" si="218">Q61/R61</f>
+        <f t="shared" ref="AF61" si="219">Q61/R61</f>
         <v>0</v>
       </c>
       <c r="AG61" s="9">
@@ -14419,23 +14625,23 @@
       </c>
       <c r="AI61"/>
       <c r="AJ61" s="9">
-        <f t="shared" ref="AJ61" si="219">(T61+U61)/$Z61</f>
+        <f t="shared" ref="AJ61" si="220">(T61+U61)/$Z61</f>
         <v>0.64583333333333337</v>
       </c>
       <c r="AK61" s="10">
-        <f t="shared" ref="AK61" si="220">V61/$Z61</f>
+        <f t="shared" ref="AK61" si="221">V61/$Z61</f>
         <v>0.14583333333333334</v>
       </c>
       <c r="AL61" s="10">
-        <f t="shared" ref="AL61" si="221">W61/$Z61</f>
+        <f t="shared" ref="AL61" si="222">W61/$Z61</f>
         <v>0.125</v>
       </c>
       <c r="AM61" s="10">
-        <f t="shared" ref="AM61" si="222">X61/$Z61</f>
+        <f t="shared" ref="AM61" si="223">X61/$Z61</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="AN61" s="10">
-        <f t="shared" ref="AN61" si="223">Y61/$Z61</f>
+        <f t="shared" ref="AN61" si="224">Y61/$Z61</f>
         <v>0</v>
       </c>
       <c r="AO61" s="10">
@@ -14448,7 +14654,7 @@
         <v>2098065936</v>
       </c>
     </row>
-    <row r="62" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="13">
         <v>42867</v>
       </c>
@@ -14496,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="R62">
-        <f>SUM(L62:Q62)</f>
+        <f t="shared" si="184"/>
         <v>45</v>
       </c>
       <c r="T62" s="14">
@@ -14522,23 +14728,23 @@
         <v>46</v>
       </c>
       <c r="AB62" s="9">
-        <f t="shared" ref="AB62" si="224">(L62+M62)/$R62</f>
+        <f t="shared" ref="AB62" si="225">(L62+M62)/$R62</f>
         <v>0.77777777777777779</v>
       </c>
       <c r="AC62" s="9">
-        <f t="shared" ref="AC62" si="225">N62/R62</f>
+        <f t="shared" ref="AC62" si="226">N62/R62</f>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="AD62" s="9">
-        <f t="shared" ref="AD62" si="226">O62/R62</f>
+        <f t="shared" ref="AD62" si="227">O62/R62</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="AE62" s="9">
-        <f t="shared" ref="AE62" si="227">P62/R62</f>
+        <f t="shared" ref="AE62" si="228">P62/R62</f>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="AF62" s="9">
-        <f t="shared" ref="AF62" si="228">Q62/R62</f>
+        <f t="shared" ref="AF62" si="229">Q62/R62</f>
         <v>0</v>
       </c>
       <c r="AG62" s="9">
@@ -14549,23 +14755,23 @@
       </c>
       <c r="AI62"/>
       <c r="AJ62" s="9">
-        <f t="shared" ref="AJ62" si="229">(T62+U62)/$Z62</f>
+        <f t="shared" ref="AJ62" si="230">(T62+U62)/$Z62</f>
         <v>0.71739130434782605</v>
       </c>
       <c r="AK62" s="10">
-        <f t="shared" ref="AK62" si="230">V62/$Z62</f>
+        <f t="shared" ref="AK62" si="231">V62/$Z62</f>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="AL62" s="10">
-        <f t="shared" ref="AL62" si="231">W62/$Z62</f>
+        <f t="shared" ref="AL62" si="232">W62/$Z62</f>
         <v>6.5217391304347824E-2</v>
       </c>
       <c r="AM62" s="10">
-        <f t="shared" ref="AM62" si="232">X62/$Z62</f>
+        <f t="shared" ref="AM62" si="233">X62/$Z62</f>
         <v>0.13043478260869565</v>
       </c>
       <c r="AN62" s="10">
-        <f t="shared" ref="AN62" si="233">Y62/$Z62</f>
+        <f t="shared" ref="AN62" si="234">Y62/$Z62</f>
         <v>0</v>
       </c>
       <c r="AO62" s="10">
@@ -14578,7 +14784,7 @@
         <v>2098045967</v>
       </c>
     </row>
-    <row r="63" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="13">
         <v>42867</v>
       </c>
@@ -14626,7 +14832,7 @@
         <v>0</v>
       </c>
       <c r="R63">
-        <f>SUM(L63:Q63)</f>
+        <f t="shared" si="184"/>
         <v>32</v>
       </c>
       <c r="T63" s="14">
@@ -14652,23 +14858,23 @@
         <v>32</v>
       </c>
       <c r="AB63" s="9">
-        <f t="shared" ref="AB63" si="234">(L63+M63)/$R63</f>
+        <f t="shared" ref="AB63" si="235">(L63+M63)/$R63</f>
         <v>0.875</v>
       </c>
       <c r="AC63" s="9">
-        <f t="shared" ref="AC63" si="235">N63/R63</f>
+        <f t="shared" ref="AC63" si="236">N63/R63</f>
         <v>6.25E-2</v>
       </c>
       <c r="AD63" s="9">
-        <f t="shared" ref="AD63" si="236">O63/R63</f>
+        <f t="shared" ref="AD63" si="237">O63/R63</f>
         <v>3.125E-2</v>
       </c>
       <c r="AE63" s="9">
-        <f t="shared" ref="AE63" si="237">P63/R63</f>
+        <f t="shared" ref="AE63" si="238">P63/R63</f>
         <v>3.125E-2</v>
       </c>
       <c r="AF63" s="9">
-        <f t="shared" ref="AF63" si="238">Q63/R63</f>
+        <f t="shared" ref="AF63" si="239">Q63/R63</f>
         <v>0</v>
       </c>
       <c r="AG63" s="9">
@@ -14679,23 +14885,23 @@
       </c>
       <c r="AI63"/>
       <c r="AJ63" s="9">
-        <f t="shared" ref="AJ63" si="239">(T63+U63)/$Z63</f>
+        <f t="shared" ref="AJ63" si="240">(T63+U63)/$Z63</f>
         <v>0.75</v>
       </c>
       <c r="AK63" s="10">
-        <f t="shared" ref="AK63" si="240">V63/$Z63</f>
+        <f t="shared" ref="AK63" si="241">V63/$Z63</f>
         <v>3.125E-2</v>
       </c>
       <c r="AL63" s="10">
-        <f t="shared" ref="AL63" si="241">W63/$Z63</f>
+        <f t="shared" ref="AL63" si="242">W63/$Z63</f>
         <v>0.125</v>
       </c>
       <c r="AM63" s="10">
-        <f t="shared" ref="AM63" si="242">X63/$Z63</f>
+        <f t="shared" ref="AM63" si="243">X63/$Z63</f>
         <v>3.125E-2</v>
       </c>
       <c r="AN63" s="10">
-        <f t="shared" ref="AN63" si="243">Y63/$Z63</f>
+        <f t="shared" ref="AN63" si="244">Y63/$Z63</f>
         <v>6.25E-2</v>
       </c>
       <c r="AO63" s="10">
@@ -14708,7 +14914,7 @@
         <v>2098019831</v>
       </c>
     </row>
-    <row r="64" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="13">
         <v>42867</v>
       </c>
@@ -14756,7 +14962,7 @@
         <v>0</v>
       </c>
       <c r="R64">
-        <f>SUM(L64:Q64)</f>
+        <f t="shared" si="184"/>
         <v>31</v>
       </c>
       <c r="T64" s="14">
@@ -14782,46 +14988,46 @@
         <v>31</v>
       </c>
       <c r="AB64" s="9">
-        <f t="shared" ref="AB64:AB65" si="244">(L64+M64)/$R64</f>
+        <f t="shared" ref="AB64:AB65" si="245">(L64+M64)/$R64</f>
         <v>0.87096774193548387</v>
       </c>
       <c r="AC64" s="9">
-        <f t="shared" ref="AC64:AC65" si="245">N64/R64</f>
+        <f t="shared" ref="AC64:AC65" si="246">N64/R64</f>
         <v>6.4516129032258063E-2</v>
       </c>
       <c r="AD64" s="9">
-        <f t="shared" ref="AD64:AD65" si="246">O64/R64</f>
+        <f t="shared" ref="AD64:AD65" si="247">O64/R64</f>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="AE64" s="9">
-        <f t="shared" ref="AE64:AE65" si="247">P64/R64</f>
+        <f t="shared" ref="AE64:AE65" si="248">P64/R64</f>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="AF64" s="9">
-        <f t="shared" ref="AF64:AF65" si="248">Q64/R64</f>
+        <f t="shared" ref="AF64:AF65" si="249">Q64/R64</f>
         <v>0</v>
       </c>
       <c r="AG64" s="9"/>
       <c r="AH64" s="20"/>
       <c r="AI64"/>
       <c r="AJ64" s="9">
-        <f t="shared" ref="AJ64:AJ65" si="249">(T64+U64)/$Z64</f>
+        <f t="shared" ref="AJ64:AJ65" si="250">(T64+U64)/$Z64</f>
         <v>0.70967741935483875</v>
       </c>
       <c r="AK64" s="10">
-        <f t="shared" ref="AK64:AK65" si="250">V64/$Z64</f>
+        <f t="shared" ref="AK64:AK65" si="251">V64/$Z64</f>
         <v>0.12903225806451613</v>
       </c>
       <c r="AL64" s="10">
-        <f t="shared" ref="AL64:AL65" si="251">W64/$Z64</f>
+        <f t="shared" ref="AL64:AL65" si="252">W64/$Z64</f>
         <v>0</v>
       </c>
       <c r="AM64" s="10">
-        <f t="shared" ref="AM64:AM65" si="252">X64/$Z64</f>
+        <f t="shared" ref="AM64:AM65" si="253">X64/$Z64</f>
         <v>0.12903225806451613</v>
       </c>
       <c r="AN64" s="10">
-        <f t="shared" ref="AN64:AN65" si="253">Y64/$Z64</f>
+        <f t="shared" ref="AN64:AN65" si="254">Y64/$Z64</f>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="AO64" s="10"/>
@@ -14830,7 +15036,7 @@
         <v>2097819226</v>
       </c>
     </row>
-    <row r="65" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" s="11" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="13">
         <v>42867</v>
       </c>
@@ -14878,7 +15084,7 @@
         <v>1</v>
       </c>
       <c r="R65">
-        <f>SUM(L65:Q65)</f>
+        <f t="shared" si="184"/>
         <v>45</v>
       </c>
       <c r="T65" s="14">
@@ -14904,46 +15110,46 @@
         <v>45</v>
       </c>
       <c r="AB65" s="9">
-        <f t="shared" si="244"/>
+        <f t="shared" si="245"/>
         <v>0.82222222222222219</v>
       </c>
       <c r="AC65" s="9">
-        <f t="shared" si="245"/>
+        <f t="shared" si="246"/>
         <v>8.8888888888888892E-2</v>
       </c>
       <c r="AD65" s="9">
-        <f t="shared" si="246"/>
+        <f t="shared" si="247"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="AE65" s="9">
-        <f t="shared" si="247"/>
+        <f t="shared" si="248"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="AF65" s="9">
-        <f t="shared" si="248"/>
+        <f t="shared" si="249"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="AG65" s="9"/>
       <c r="AH65" s="20"/>
       <c r="AI65"/>
       <c r="AJ65" s="9">
-        <f t="shared" si="249"/>
+        <f t="shared" si="250"/>
         <v>0.91111111111111109</v>
       </c>
       <c r="AK65" s="10">
-        <f t="shared" si="250"/>
+        <f t="shared" si="251"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="AL65" s="10">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>0</v>
       </c>
       <c r="AM65" s="10">
-        <f t="shared" si="252"/>
+        <f t="shared" si="253"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AN65" s="10">
-        <f t="shared" si="253"/>
+        <f t="shared" si="254"/>
         <v>0</v>
       </c>
       <c r="AO65" s="10"/>
@@ -14952,7 +15158,7 @@
         <v>2097802953</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>42866</v>
       </c>
@@ -15000,7 +15206,7 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <f>SUM(L66:Q66)</f>
+        <f t="shared" si="184"/>
         <v>39</v>
       </c>
       <c r="T66">
@@ -15051,19 +15257,19 @@
         <v>0.76923076923076927</v>
       </c>
       <c r="AK66" s="10">
-        <f t="shared" ref="AK66" si="254">V66/$Z66</f>
+        <f t="shared" ref="AK66" si="255">V66/$Z66</f>
         <v>0.10256410256410256</v>
       </c>
       <c r="AL66" s="10">
-        <f t="shared" ref="AL66" si="255">W66/$Z66</f>
+        <f t="shared" ref="AL66" si="256">W66/$Z66</f>
         <v>0.10256410256410256</v>
       </c>
       <c r="AM66" s="10">
-        <f t="shared" ref="AM66" si="256">X66/$Z66</f>
+        <f t="shared" ref="AM66" si="257">X66/$Z66</f>
         <v>0</v>
       </c>
       <c r="AN66" s="10">
-        <f t="shared" ref="AN66" si="257">Y66/$Z66</f>
+        <f t="shared" ref="AN66" si="258">Y66/$Z66</f>
         <v>2.564102564102564E-2</v>
       </c>
       <c r="AO66" s="10"/>
@@ -15072,7 +15278,7 @@
         <v>2095029579</v>
       </c>
     </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>42866</v>
       </c>
@@ -15120,7 +15326,7 @@
         <v>0</v>
       </c>
       <c r="R67">
-        <f>SUM(L67:Q67)</f>
+        <f t="shared" si="184"/>
         <v>52</v>
       </c>
       <c r="T67">
@@ -15193,7 +15399,7 @@
         <v>2095017876</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>42866</v>
       </c>
@@ -15244,7 +15450,7 @@
         <v>0</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R82" si="258">SUM(L68:Q68)</f>
+        <f t="shared" ref="R68:R82" si="259">SUM(L68:Q68)</f>
         <v>34</v>
       </c>
       <c r="T68">
@@ -15270,23 +15476,23 @@
         <v>34</v>
       </c>
       <c r="AB68" s="9">
-        <f t="shared" ref="AB68:AB131" si="259">(L68+M68)/$R68</f>
+        <f t="shared" ref="AB68:AB131" si="260">(L68+M68)/$R68</f>
         <v>0.76470588235294112</v>
       </c>
       <c r="AC68" s="10">
-        <f t="shared" ref="AC68:AC131" si="260">N68/$R68</f>
+        <f t="shared" ref="AC68:AC131" si="261">N68/$R68</f>
         <v>0.14705882352941177</v>
       </c>
       <c r="AD68" s="10">
-        <f t="shared" ref="AD68:AD131" si="261">O68/$R68</f>
+        <f t="shared" ref="AD68:AD131" si="262">O68/$R68</f>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="AE68" s="10">
-        <f t="shared" ref="AE68:AE131" si="262">P68/$R68</f>
+        <f t="shared" ref="AE68:AE131" si="263">P68/$R68</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="AF68" s="10">
-        <f t="shared" ref="AF68:AF131" si="263">Q68/$R68</f>
+        <f t="shared" ref="AF68:AF131" si="264">Q68/$R68</f>
         <v>0</v>
       </c>
       <c r="AG68" s="10"/>
@@ -15296,19 +15502,19 @@
         <v>0.91176470588235292</v>
       </c>
       <c r="AK68" s="10">
-        <f t="shared" ref="AK68:AK131" si="264">V68/$Z68</f>
+        <f t="shared" ref="AK68:AK131" si="265">V68/$Z68</f>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="AL68" s="10">
-        <f t="shared" ref="AL68:AL131" si="265">W68/$Z68</f>
+        <f t="shared" ref="AL68:AL131" si="266">W68/$Z68</f>
         <v>0</v>
       </c>
       <c r="AM68" s="10">
-        <f t="shared" ref="AM68:AM131" si="266">X68/$Z68</f>
+        <f t="shared" ref="AM68:AM131" si="267">X68/$Z68</f>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="AN68" s="10">
-        <f t="shared" ref="AN68:AN131" si="267">Y68/$Z68</f>
+        <f t="shared" ref="AN68:AN131" si="268">Y68/$Z68</f>
         <v>0</v>
       </c>
       <c r="AO68" s="10"/>
@@ -15317,7 +15523,7 @@
         <v>2095011186</v>
       </c>
     </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>42866</v>
       </c>
@@ -15365,7 +15571,7 @@
         <v>1</v>
       </c>
       <c r="R69">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>62</v>
       </c>
       <c r="T69">
@@ -15391,45 +15597,45 @@
         <v>63</v>
       </c>
       <c r="AB69" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.90322580645161288</v>
       </c>
       <c r="AC69" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>4.8387096774193547E-2</v>
       </c>
       <c r="AD69" s="10">
-        <f t="shared" si="261"/>
-        <v>1.6129032258064516E-2</v>
-      </c>
-      <c r="AE69" s="10">
         <f t="shared" si="262"/>
         <v>1.6129032258064516E-2</v>
       </c>
+      <c r="AE69" s="10">
+        <f t="shared" si="263"/>
+        <v>1.6129032258064516E-2</v>
+      </c>
       <c r="AF69" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="AG69" s="10"/>
       <c r="AH69" s="22"/>
       <c r="AJ69" s="9">
-        <f t="shared" ref="AJ68:AJ131" si="268">(T69+U69)/$Z69</f>
+        <f t="shared" ref="AJ69:AJ131" si="269">(T69+U69)/$Z69</f>
         <v>0.96825396825396826</v>
       </c>
       <c r="AK69" s="10">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>3.1746031746031744E-2</v>
       </c>
       <c r="AL69" s="10">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>0</v>
       </c>
       <c r="AM69" s="10">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AN69" s="10">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="AO69" s="10"/>
@@ -15441,7 +15647,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>42865</v>
       </c>
@@ -15489,7 +15695,7 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>39</v>
       </c>
       <c r="T70">
@@ -15511,49 +15717,49 @@
         <v>0</v>
       </c>
       <c r="Z70">
-        <f t="shared" ref="Z70:Z132" si="269">SUM(T70:Y70)</f>
+        <f t="shared" ref="Z70:Z132" si="270">SUM(T70:Y70)</f>
         <v>38</v>
       </c>
       <c r="AB70" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.87179487179487181</v>
       </c>
       <c r="AC70" s="10">
-        <f t="shared" si="260"/>
-        <v>2.564102564102564E-2</v>
-      </c>
-      <c r="AD70" s="10">
         <f t="shared" si="261"/>
         <v>2.564102564102564E-2</v>
       </c>
+      <c r="AD70" s="10">
+        <f t="shared" si="262"/>
+        <v>2.564102564102564E-2</v>
+      </c>
       <c r="AE70" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="AF70" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG70" s="10"/>
       <c r="AH70" s="22"/>
       <c r="AJ70" s="9">
+        <f t="shared" si="269"/>
+        <v>0.81578947368421051</v>
+      </c>
+      <c r="AK70" s="10">
+        <f t="shared" si="265"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="AL70" s="10">
+        <f t="shared" si="266"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="AM70" s="10">
+        <f t="shared" si="267"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="AN70" s="10">
         <f t="shared" si="268"/>
-        <v>0.81578947368421051</v>
-      </c>
-      <c r="AK70" s="10">
-        <f t="shared" si="264"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="AL70" s="10">
-        <f t="shared" si="265"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="AM70" s="10">
-        <f t="shared" si="266"/>
-        <v>2.6315789473684209E-2</v>
-      </c>
-      <c r="AN70" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO70" s="10"/>
@@ -15562,7 +15768,7 @@
         <v>2094920808</v>
       </c>
     </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>42865</v>
       </c>
@@ -15610,7 +15816,7 @@
         <v>1</v>
       </c>
       <c r="R71">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>24</v>
       </c>
       <c r="T71">
@@ -15632,49 +15838,49 @@
         <v>0</v>
       </c>
       <c r="Z71">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>24</v>
       </c>
       <c r="AB71" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.75</v>
       </c>
       <c r="AC71" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.125</v>
       </c>
       <c r="AD71" s="10">
-        <f t="shared" si="261"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AE71" s="10">
         <f t="shared" si="262"/>
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="AE71" s="10">
+        <f t="shared" si="263"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AF71" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AG71" s="10"/>
       <c r="AH71" s="22"/>
       <c r="AJ71" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.70833333333333337</v>
       </c>
       <c r="AK71" s="10">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0.125</v>
       </c>
       <c r="AL71" s="10">
-        <f t="shared" si="265"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AM71" s="10">
         <f t="shared" si="266"/>
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="AM71" s="10">
+        <f t="shared" si="267"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="AN71" s="10">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="AO71" s="10"/>
@@ -15683,7 +15889,7 @@
         <v>2094215113</v>
       </c>
     </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>42865</v>
       </c>
@@ -15731,7 +15937,7 @@
         <v>0</v>
       </c>
       <c r="R72">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>16</v>
       </c>
       <c r="T72">
@@ -15753,49 +15959,49 @@
         <v>0</v>
       </c>
       <c r="Z72">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>16</v>
       </c>
       <c r="AB72" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.5</v>
       </c>
       <c r="AC72" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.1875</v>
       </c>
       <c r="AD72" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>6.25E-2</v>
       </c>
       <c r="AE72" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0.25</v>
       </c>
       <c r="AF72" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG72" s="10"/>
       <c r="AH72" s="22"/>
       <c r="AJ72" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.5625</v>
       </c>
       <c r="AK72" s="10">
-        <f t="shared" si="264"/>
-        <v>0.125</v>
-      </c>
-      <c r="AL72" s="10">
         <f t="shared" si="265"/>
         <v>0.125</v>
       </c>
+      <c r="AL72" s="10">
+        <f t="shared" si="266"/>
+        <v>0.125</v>
+      </c>
       <c r="AM72" s="10">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>0.1875</v>
       </c>
       <c r="AN72" s="10">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="AO72" s="10"/>
@@ -15804,7 +16010,7 @@
         <v>2094202885</v>
       </c>
     </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>42865</v>
       </c>
@@ -15852,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="R73">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>14</v>
       </c>
       <c r="T73">
@@ -15874,49 +16080,49 @@
         <v>0</v>
       </c>
       <c r="Z73">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>15</v>
       </c>
       <c r="AB73" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="AC73" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="AD73" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="AE73" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0</v>
       </c>
       <c r="AF73" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG73" s="10"/>
       <c r="AH73" s="22"/>
       <c r="AJ73" s="9">
+        <f t="shared" si="269"/>
+        <v>0.6</v>
+      </c>
+      <c r="AK73" s="10">
+        <f t="shared" si="265"/>
+        <v>0.4</v>
+      </c>
+      <c r="AL73" s="10">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+      <c r="AM73" s="10">
+        <f t="shared" si="267"/>
+        <v>0</v>
+      </c>
+      <c r="AN73" s="10">
         <f t="shared" si="268"/>
-        <v>0.6</v>
-      </c>
-      <c r="AK73" s="10">
-        <f t="shared" si="264"/>
-        <v>0.4</v>
-      </c>
-      <c r="AL73" s="10">
-        <f t="shared" si="265"/>
-        <v>0</v>
-      </c>
-      <c r="AM73" s="10">
-        <f t="shared" si="266"/>
-        <v>0</v>
-      </c>
-      <c r="AN73" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO73" s="10"/>
@@ -15925,7 +16131,7 @@
         <v>2094196615</v>
       </c>
     </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>42864</v>
       </c>
@@ -15973,7 +16179,7 @@
         <v>0</v>
       </c>
       <c r="R74">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>31</v>
       </c>
       <c r="T74">
@@ -15995,49 +16201,49 @@
         <v>0</v>
       </c>
       <c r="Z74">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>30</v>
       </c>
       <c r="AB74" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.80645161290322576</v>
       </c>
       <c r="AC74" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.12903225806451613</v>
       </c>
       <c r="AD74" s="10">
-        <f t="shared" si="261"/>
-        <v>3.2258064516129031E-2</v>
-      </c>
-      <c r="AE74" s="10">
         <f t="shared" si="262"/>
         <v>3.2258064516129031E-2</v>
       </c>
+      <c r="AE74" s="10">
+        <f t="shared" si="263"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
       <c r="AF74" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG74" s="10"/>
       <c r="AH74" s="22"/>
       <c r="AJ74" s="9">
+        <f t="shared" si="269"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AK74" s="10">
+        <f t="shared" si="265"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="AL74" s="10">
+        <f t="shared" si="266"/>
+        <v>0.1</v>
+      </c>
+      <c r="AM74" s="10">
+        <f t="shared" si="267"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="AN74" s="10">
         <f t="shared" si="268"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="AK74" s="10">
-        <f t="shared" si="264"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="AL74" s="10">
-        <f t="shared" si="265"/>
-        <v>0.1</v>
-      </c>
-      <c r="AM74" s="10">
-        <f t="shared" si="266"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="AN74" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO74" s="10"/>
@@ -16046,7 +16252,7 @@
         <v>2091603758</v>
       </c>
     </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>42864</v>
       </c>
@@ -16094,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="R75">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>25</v>
       </c>
       <c r="T75">
@@ -16116,49 +16322,49 @@
         <v>0</v>
       </c>
       <c r="Z75">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>24</v>
       </c>
       <c r="AB75" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.92</v>
       </c>
       <c r="AC75" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.08</v>
       </c>
       <c r="AD75" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="AE75" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0</v>
       </c>
       <c r="AF75" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG75" s="10"/>
       <c r="AH75" s="22"/>
       <c r="AJ75" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.75</v>
       </c>
       <c r="AK75" s="10">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AL75" s="10">
-        <f t="shared" si="265"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AM75" s="10">
         <f t="shared" si="266"/>
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="AM75" s="10">
+        <f t="shared" si="267"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AN75" s="10">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="AO75" s="10"/>
@@ -16167,7 +16373,7 @@
         <v>2091595032</v>
       </c>
     </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>42864</v>
       </c>
@@ -16215,7 +16421,7 @@
         <v>0</v>
       </c>
       <c r="R76">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>26</v>
       </c>
       <c r="T76">
@@ -16237,49 +16443,49 @@
         <v>0</v>
       </c>
       <c r="Z76">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>26</v>
       </c>
       <c r="AB76" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.65384615384615385</v>
       </c>
       <c r="AC76" s="10">
-        <f t="shared" si="260"/>
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="AD76" s="10">
         <f t="shared" si="261"/>
         <v>0.11538461538461539</v>
       </c>
-      <c r="AE76" s="10">
+      <c r="AD76" s="10">
         <f t="shared" si="262"/>
         <v>0.11538461538461539</v>
       </c>
+      <c r="AE76" s="10">
+        <f t="shared" si="263"/>
+        <v>0.11538461538461539</v>
+      </c>
       <c r="AF76" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG76" s="10"/>
       <c r="AH76" s="22"/>
       <c r="AJ76" s="9">
+        <f t="shared" si="269"/>
+        <v>0.61538461538461542</v>
+      </c>
+      <c r="AK76" s="10">
+        <f t="shared" si="265"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="AL76" s="10">
+        <f t="shared" si="266"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="AM76" s="10">
+        <f t="shared" si="267"/>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="AN76" s="10">
         <f t="shared" si="268"/>
-        <v>0.61538461538461542</v>
-      </c>
-      <c r="AK76" s="10">
-        <f t="shared" si="264"/>
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="AL76" s="10">
-        <f t="shared" si="265"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="AM76" s="10">
-        <f t="shared" si="266"/>
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="AN76" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO76" s="10"/>
@@ -16288,7 +16494,7 @@
         <v>2091579371</v>
       </c>
     </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>42863</v>
       </c>
@@ -16336,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="R77">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>35</v>
       </c>
       <c r="T77">
@@ -16358,49 +16564,49 @@
         <v>0</v>
       </c>
       <c r="Z77">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>34</v>
       </c>
       <c r="AB77" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.82857142857142863</v>
       </c>
       <c r="AC77" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AD77" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="AE77" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0</v>
       </c>
       <c r="AF77" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG77" s="10"/>
       <c r="AH77" s="22"/>
       <c r="AJ77" s="9">
+        <f t="shared" si="269"/>
+        <v>0.88235294117647056</v>
+      </c>
+      <c r="AK77" s="10">
+        <f t="shared" si="265"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="AL77" s="10">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+      <c r="AM77" s="10">
+        <f t="shared" si="267"/>
+        <v>0</v>
+      </c>
+      <c r="AN77" s="10">
         <f t="shared" si="268"/>
-        <v>0.88235294117647056</v>
-      </c>
-      <c r="AK77" s="10">
-        <f t="shared" si="264"/>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="AL77" s="10">
-        <f t="shared" si="265"/>
-        <v>0</v>
-      </c>
-      <c r="AM77" s="10">
-        <f t="shared" si="266"/>
-        <v>0</v>
-      </c>
-      <c r="AN77" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO77" s="10"/>
@@ -16409,7 +16615,7 @@
         <v>2091398028</v>
       </c>
     </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>42863</v>
       </c>
@@ -16457,7 +16663,7 @@
         <v>0</v>
       </c>
       <c r="R78">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>14</v>
       </c>
       <c r="T78">
@@ -16479,49 +16685,49 @@
         <v>0</v>
       </c>
       <c r="Z78">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>15</v>
       </c>
       <c r="AB78" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="AC78" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AD78" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="AE78" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0</v>
       </c>
       <c r="AF78" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG78" s="10"/>
       <c r="AH78" s="22"/>
       <c r="AJ78" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.8</v>
       </c>
       <c r="AK78" s="10">
-        <f t="shared" si="264"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="AL78" s="10">
         <f t="shared" si="265"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="AM78" s="10">
+      <c r="AL78" s="10">
         <f t="shared" si="266"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AM78" s="10">
+        <f t="shared" si="267"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
       <c r="AN78" s="10">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="AO78" s="10"/>
@@ -16533,7 +16739,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>42862</v>
       </c>
@@ -16581,7 +16787,7 @@
         <v>1</v>
       </c>
       <c r="R79">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>32</v>
       </c>
       <c r="T79">
@@ -16603,49 +16809,49 @@
         <v>1</v>
       </c>
       <c r="Z79">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>32</v>
       </c>
       <c r="AB79" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.8125</v>
       </c>
       <c r="AC79" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.125</v>
       </c>
       <c r="AD79" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="AE79" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>3.125E-2</v>
       </c>
       <c r="AF79" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>3.125E-2</v>
       </c>
       <c r="AG79" s="10"/>
       <c r="AH79" s="22"/>
       <c r="AJ79" s="9">
+        <f t="shared" si="269"/>
+        <v>0.8125</v>
+      </c>
+      <c r="AK79" s="10">
+        <f t="shared" si="265"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AL79" s="10">
+        <f t="shared" si="266"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="AM79" s="10">
+        <f t="shared" si="267"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AN79" s="10">
         <f t="shared" si="268"/>
-        <v>0.8125</v>
-      </c>
-      <c r="AK79" s="10">
-        <f t="shared" si="264"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="AL79" s="10">
-        <f t="shared" si="265"/>
-        <v>3.125E-2</v>
-      </c>
-      <c r="AM79" s="10">
-        <f t="shared" si="266"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="AN79" s="10">
-        <f t="shared" si="267"/>
         <v>3.125E-2</v>
       </c>
       <c r="AO79" s="10"/>
@@ -16654,7 +16860,7 @@
         <v>2089406792</v>
       </c>
     </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>42861</v>
       </c>
@@ -16702,7 +16908,7 @@
         <v>0</v>
       </c>
       <c r="R80">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>71</v>
       </c>
       <c r="T80">
@@ -16724,49 +16930,49 @@
         <v>2</v>
       </c>
       <c r="Z80">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>71</v>
       </c>
       <c r="AB80" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.90140845070422537</v>
       </c>
       <c r="AC80" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>4.2253521126760563E-2</v>
       </c>
       <c r="AD80" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>1.4084507042253521E-2</v>
       </c>
       <c r="AE80" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>4.2253521126760563E-2</v>
       </c>
       <c r="AF80" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG80" s="10"/>
       <c r="AH80" s="22"/>
       <c r="AJ80" s="9">
+        <f t="shared" si="269"/>
+        <v>0.84507042253521125</v>
+      </c>
+      <c r="AK80" s="10">
+        <f t="shared" si="265"/>
+        <v>7.0422535211267609E-2</v>
+      </c>
+      <c r="AL80" s="10">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+      <c r="AM80" s="10">
+        <f t="shared" si="267"/>
+        <v>5.6338028169014086E-2</v>
+      </c>
+      <c r="AN80" s="10">
         <f t="shared" si="268"/>
-        <v>0.84507042253521125</v>
-      </c>
-      <c r="AK80" s="10">
-        <f t="shared" si="264"/>
-        <v>7.0422535211267609E-2</v>
-      </c>
-      <c r="AL80" s="10">
-        <f t="shared" si="265"/>
-        <v>0</v>
-      </c>
-      <c r="AM80" s="10">
-        <f t="shared" si="266"/>
-        <v>5.6338028169014086E-2</v>
-      </c>
-      <c r="AN80" s="10">
-        <f t="shared" si="267"/>
         <v>2.8169014084507043E-2</v>
       </c>
       <c r="AO80" s="10"/>
@@ -16778,7 +16984,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>42861</v>
       </c>
@@ -16826,7 +17032,7 @@
         <v>0</v>
       </c>
       <c r="R81">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>39</v>
       </c>
       <c r="T81">
@@ -16848,49 +17054,49 @@
         <v>0</v>
       </c>
       <c r="Z81">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>38</v>
       </c>
       <c r="AB81" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.89743589743589747</v>
       </c>
       <c r="AC81" s="10">
-        <f t="shared" si="260"/>
-        <v>2.564102564102564E-2</v>
-      </c>
-      <c r="AD81" s="10">
         <f t="shared" si="261"/>
         <v>2.564102564102564E-2</v>
       </c>
+      <c r="AD81" s="10">
+        <f t="shared" si="262"/>
+        <v>2.564102564102564E-2</v>
+      </c>
       <c r="AE81" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>5.128205128205128E-2</v>
       </c>
       <c r="AF81" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG81" s="10"/>
       <c r="AH81" s="22"/>
       <c r="AJ81" s="9">
+        <f t="shared" si="269"/>
+        <v>0.86842105263157898</v>
+      </c>
+      <c r="AK81" s="10">
+        <f t="shared" si="265"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="AL81" s="10">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+      <c r="AM81" s="10">
+        <f t="shared" si="267"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="AN81" s="10">
         <f t="shared" si="268"/>
-        <v>0.86842105263157898</v>
-      </c>
-      <c r="AK81" s="10">
-        <f t="shared" si="264"/>
-        <v>7.8947368421052627E-2</v>
-      </c>
-      <c r="AL81" s="10">
-        <f t="shared" si="265"/>
-        <v>0</v>
-      </c>
-      <c r="AM81" s="10">
-        <f t="shared" si="266"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="AN81" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO81" s="10"/>
@@ -16902,7 +17108,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>42861</v>
       </c>
@@ -16953,7 +17159,7 @@
         <v>0</v>
       </c>
       <c r="R82">
-        <f t="shared" si="258"/>
+        <f t="shared" si="259"/>
         <v>29</v>
       </c>
       <c r="T82">
@@ -16975,49 +17181,49 @@
         <v>0</v>
       </c>
       <c r="Z82">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>30</v>
       </c>
       <c r="AB82" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.65517241379310343</v>
       </c>
       <c r="AC82" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.17241379310344829</v>
       </c>
       <c r="AD82" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.13793103448275862</v>
       </c>
       <c r="AE82" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="AF82" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG82" s="10"/>
       <c r="AH82" s="22"/>
       <c r="AJ82" s="9">
+        <f t="shared" si="269"/>
+        <v>0.7</v>
+      </c>
+      <c r="AK82" s="10">
+        <f t="shared" si="265"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AL82" s="10">
+        <f t="shared" si="266"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="AM82" s="10">
+        <f t="shared" si="267"/>
+        <v>0.1</v>
+      </c>
+      <c r="AN82" s="10">
         <f t="shared" si="268"/>
-        <v>0.7</v>
-      </c>
-      <c r="AK82" s="10">
-        <f t="shared" si="264"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AL82" s="10">
-        <f t="shared" si="265"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="AM82" s="10">
-        <f t="shared" si="266"/>
-        <v>0.1</v>
-      </c>
-      <c r="AN82" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO82" s="10"/>
@@ -17029,7 +17235,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>42861</v>
       </c>
@@ -17080,7 +17286,7 @@
         <v>0</v>
       </c>
       <c r="R83">
-        <f t="shared" ref="R83:R85" si="270">SUM(L83:Q83)</f>
+        <f t="shared" ref="R83:R85" si="271">SUM(L83:Q83)</f>
         <v>34</v>
       </c>
       <c r="T83">
@@ -17102,49 +17308,49 @@
         <v>2</v>
       </c>
       <c r="Z83">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>34</v>
       </c>
       <c r="AB83" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.88235294117647056</v>
       </c>
       <c r="AC83" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="AD83" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="AE83" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0</v>
       </c>
       <c r="AF83" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG83" s="10"/>
       <c r="AH83" s="22"/>
       <c r="AJ83" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AK83" s="10">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="AL83" s="10">
-        <f t="shared" si="265"/>
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="AM83" s="10">
         <f t="shared" si="266"/>
         <v>2.9411764705882353E-2</v>
       </c>
+      <c r="AM83" s="10">
+        <f t="shared" si="267"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
       <c r="AN83" s="10">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="AO83" s="10"/>
@@ -17153,7 +17359,7 @@
         <v>2087942644</v>
       </c>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>42861</v>
       </c>
@@ -17201,7 +17407,7 @@
         <v>0</v>
       </c>
       <c r="R84">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>4</v>
       </c>
       <c r="T84">
@@ -17223,49 +17429,49 @@
         <v>0</v>
       </c>
       <c r="Z84">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>5</v>
       </c>
       <c r="AB84" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.75</v>
       </c>
       <c r="AC84" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0</v>
       </c>
       <c r="AD84" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="AE84" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0.25</v>
       </c>
       <c r="AF84" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG84" s="10"/>
       <c r="AH84" s="22"/>
       <c r="AJ84" s="9">
+        <f t="shared" si="269"/>
+        <v>1</v>
+      </c>
+      <c r="AK84" s="10">
+        <f t="shared" si="265"/>
+        <v>0</v>
+      </c>
+      <c r="AL84" s="10">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+      <c r="AM84" s="10">
+        <f t="shared" si="267"/>
+        <v>0</v>
+      </c>
+      <c r="AN84" s="10">
         <f t="shared" si="268"/>
-        <v>1</v>
-      </c>
-      <c r="AK84" s="10">
-        <f t="shared" si="264"/>
-        <v>0</v>
-      </c>
-      <c r="AL84" s="10">
-        <f t="shared" si="265"/>
-        <v>0</v>
-      </c>
-      <c r="AM84" s="10">
-        <f t="shared" si="266"/>
-        <v>0</v>
-      </c>
-      <c r="AN84" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO84" s="10"/>
@@ -17277,7 +17483,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>42861</v>
       </c>
@@ -17325,7 +17531,7 @@
         <v>1</v>
       </c>
       <c r="R85">
-        <f t="shared" si="270"/>
+        <f t="shared" si="271"/>
         <v>30</v>
       </c>
       <c r="T85">
@@ -17347,49 +17553,49 @@
         <v>0</v>
       </c>
       <c r="Z85">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>29</v>
       </c>
       <c r="AB85" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AC85" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="AD85" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.1</v>
       </c>
       <c r="AE85" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF85" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="AG85" s="10"/>
       <c r="AH85" s="22"/>
       <c r="AJ85" s="9">
+        <f t="shared" si="269"/>
+        <v>0.86206896551724133</v>
+      </c>
+      <c r="AK85" s="10">
+        <f t="shared" si="265"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="AL85" s="10">
+        <f t="shared" si="266"/>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="AM85" s="10">
+        <f t="shared" si="267"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="AN85" s="10">
         <f t="shared" si="268"/>
-        <v>0.86206896551724133</v>
-      </c>
-      <c r="AK85" s="10">
-        <f t="shared" si="264"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="AL85" s="10">
-        <f t="shared" si="265"/>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="AM85" s="10">
-        <f t="shared" si="266"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="AN85" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO85" s="10"/>
@@ -17398,7 +17604,7 @@
         <v>2087672258</v>
       </c>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>42861</v>
       </c>
@@ -17446,7 +17652,7 @@
         <v>0</v>
       </c>
       <c r="R86">
-        <f t="shared" ref="R86:R90" si="271">SUM(L86:Q86)</f>
+        <f t="shared" ref="R86:R90" si="272">SUM(L86:Q86)</f>
         <v>36</v>
       </c>
       <c r="T86">
@@ -17468,49 +17674,49 @@
         <v>0</v>
       </c>
       <c r="Z86">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>36</v>
       </c>
       <c r="AB86" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="AC86" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="AD86" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="AE86" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0</v>
       </c>
       <c r="AF86" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG86" s="10"/>
       <c r="AH86" s="22"/>
       <c r="AJ86" s="9">
+        <f t="shared" si="269"/>
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="AK86" s="10">
+        <f t="shared" si="265"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="AL86" s="10">
+        <f t="shared" si="266"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AM86" s="10">
+        <f t="shared" si="267"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="AN86" s="10">
         <f t="shared" si="268"/>
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="AK86" s="10">
-        <f t="shared" si="264"/>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="AL86" s="10">
-        <f t="shared" si="265"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AM86" s="10">
-        <f t="shared" si="266"/>
-        <v>2.7777777777777776E-2</v>
-      </c>
-      <c r="AN86" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO86" s="10"/>
@@ -17519,7 +17725,7 @@
         <v>2087660333</v>
       </c>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>42861</v>
       </c>
@@ -17567,7 +17773,7 @@
         <v>0</v>
       </c>
       <c r="R87">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>30</v>
       </c>
       <c r="T87">
@@ -17589,49 +17795,49 @@
         <v>1</v>
       </c>
       <c r="Z87">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>29</v>
       </c>
       <c r="AB87" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.73333333333333328</v>
       </c>
       <c r="AC87" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="AD87" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AE87" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AF87" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG87" s="10"/>
       <c r="AH87" s="22"/>
       <c r="AJ87" s="9">
+        <f t="shared" si="269"/>
+        <v>0.62068965517241381</v>
+      </c>
+      <c r="AK87" s="10">
+        <f t="shared" si="265"/>
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="AL87" s="10">
+        <f t="shared" si="266"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="AM87" s="10">
+        <f t="shared" si="267"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="AN87" s="10">
         <f t="shared" si="268"/>
-        <v>0.62068965517241381</v>
-      </c>
-      <c r="AK87" s="10">
-        <f t="shared" si="264"/>
-        <v>0.20689655172413793</v>
-      </c>
-      <c r="AL87" s="10">
-        <f t="shared" si="265"/>
-        <v>0.10344827586206896</v>
-      </c>
-      <c r="AM87" s="10">
-        <f t="shared" si="266"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="AN87" s="10">
-        <f t="shared" si="267"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="AO87" s="10"/>
@@ -17640,7 +17846,7 @@
         <v>2087647221</v>
       </c>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>42861</v>
       </c>
@@ -17688,7 +17894,7 @@
         <v>0</v>
       </c>
       <c r="R88">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>52</v>
       </c>
       <c r="T88">
@@ -17710,49 +17916,49 @@
         <v>1</v>
       </c>
       <c r="Z88">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>52</v>
       </c>
       <c r="AB88" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.86538461538461542</v>
       </c>
       <c r="AC88" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="AD88" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>1.9230769230769232E-2</v>
       </c>
       <c r="AE88" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="AF88" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG88" s="10"/>
       <c r="AH88" s="22"/>
       <c r="AJ88" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.86538461538461542</v>
       </c>
       <c r="AK88" s="10">
-        <f t="shared" si="264"/>
-        <v>1.9230769230769232E-2</v>
-      </c>
-      <c r="AL88" s="10">
         <f t="shared" si="265"/>
         <v>1.9230769230769232E-2</v>
       </c>
+      <c r="AL88" s="10">
+        <f t="shared" si="266"/>
+        <v>1.9230769230769232E-2</v>
+      </c>
       <c r="AM88" s="10">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="AN88" s="10">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>1.9230769230769232E-2</v>
       </c>
       <c r="AO88" s="10"/>
@@ -17761,7 +17967,7 @@
         <v>2087634899</v>
       </c>
     </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>42861</v>
       </c>
@@ -17809,7 +18015,7 @@
         <v>0</v>
       </c>
       <c r="R89">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>26</v>
       </c>
       <c r="T89">
@@ -17831,49 +18037,49 @@
         <v>0</v>
       </c>
       <c r="Z89">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>26</v>
       </c>
       <c r="AB89" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="AC89" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="AD89" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.11538461538461539</v>
       </c>
       <c r="AE89" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="AF89" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG89" s="10"/>
       <c r="AH89" s="22"/>
       <c r="AJ89" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.76923076923076927</v>
       </c>
       <c r="AK89" s="10">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="AL89" s="10">
-        <f t="shared" si="265"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="AM89" s="10">
         <f t="shared" si="266"/>
         <v>3.8461538461538464E-2</v>
       </c>
+      <c r="AM89" s="10">
+        <f t="shared" si="267"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
       <c r="AN89" s="10">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="AO89" s="10"/>
@@ -17882,7 +18088,7 @@
         <v>2087622277</v>
       </c>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>42861</v>
       </c>
@@ -17930,7 +18136,7 @@
         <v>0</v>
       </c>
       <c r="R90">
-        <f t="shared" si="271"/>
+        <f t="shared" si="272"/>
         <v>26</v>
       </c>
       <c r="T90">
@@ -17952,49 +18158,49 @@
         <v>0</v>
       </c>
       <c r="Z90">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>27</v>
       </c>
       <c r="AB90" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="AC90" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.19230769230769232</v>
       </c>
       <c r="AD90" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.11538461538461539</v>
       </c>
       <c r="AE90" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0</v>
       </c>
       <c r="AF90" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG90" s="10"/>
       <c r="AH90" s="22"/>
       <c r="AJ90" s="9">
+        <f t="shared" si="269"/>
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="AK90" s="10">
+        <f t="shared" si="265"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="AL90" s="10">
+        <f t="shared" si="266"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AM90" s="10">
+        <f t="shared" si="267"/>
+        <v>0</v>
+      </c>
+      <c r="AN90" s="10">
         <f t="shared" si="268"/>
-        <v>0.85185185185185186</v>
-      </c>
-      <c r="AK90" s="10">
-        <f t="shared" si="264"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="AL90" s="10">
-        <f t="shared" si="265"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="AM90" s="10">
-        <f t="shared" si="266"/>
-        <v>0</v>
-      </c>
-      <c r="AN90" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO90" s="10"/>
@@ -18003,7 +18209,7 @@
         <v>2087608437</v>
       </c>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>42861</v>
       </c>
@@ -18051,7 +18257,7 @@
         <v>2</v>
       </c>
       <c r="R91">
-        <f t="shared" ref="R91:R97" si="272">SUM(L91:Q91)</f>
+        <f t="shared" ref="R91:R97" si="273">SUM(L91:Q91)</f>
         <v>39</v>
       </c>
       <c r="T91">
@@ -18073,49 +18279,49 @@
         <v>1</v>
       </c>
       <c r="Z91">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>40</v>
       </c>
       <c r="AB91" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AC91" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>2.564102564102564E-2</v>
       </c>
       <c r="AD91" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="AE91" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0.17948717948717949</v>
       </c>
       <c r="AF91" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>5.128205128205128E-2</v>
       </c>
       <c r="AG91" s="10"/>
       <c r="AH91" s="22"/>
       <c r="AJ91" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.72499999999999998</v>
       </c>
       <c r="AK91" s="10">
-        <f t="shared" si="264"/>
-        <v>0.1</v>
-      </c>
-      <c r="AL91" s="10">
         <f t="shared" si="265"/>
         <v>0.1</v>
       </c>
+      <c r="AL91" s="10">
+        <f t="shared" si="266"/>
+        <v>0.1</v>
+      </c>
       <c r="AM91" s="10">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>0.05</v>
       </c>
       <c r="AN91" s="10">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AO91" s="10"/>
@@ -18127,7 +18333,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>42861</v>
       </c>
@@ -18175,7 +18381,7 @@
         <v>0</v>
       </c>
       <c r="R92">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>30</v>
       </c>
       <c r="T92">
@@ -18197,49 +18403,49 @@
         <v>0</v>
       </c>
       <c r="Z92">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>29</v>
       </c>
       <c r="AB92" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.76666666666666672</v>
       </c>
       <c r="AC92" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="AD92" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="AE92" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0.2</v>
       </c>
       <c r="AF92" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG92" s="10"/>
       <c r="AH92" s="22"/>
       <c r="AJ92" s="9">
+        <f t="shared" si="269"/>
+        <v>0.68965517241379315</v>
+      </c>
+      <c r="AK92" s="10">
+        <f t="shared" si="265"/>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="AL92" s="10">
+        <f t="shared" si="266"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="AM92" s="10">
+        <f t="shared" si="267"/>
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="AN92" s="10">
         <f t="shared" si="268"/>
-        <v>0.68965517241379315</v>
-      </c>
-      <c r="AK92" s="10">
-        <f t="shared" si="264"/>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="AL92" s="10">
-        <f t="shared" si="265"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="AM92" s="10">
-        <f t="shared" si="266"/>
-        <v>0.20689655172413793</v>
-      </c>
-      <c r="AN92" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO92" s="10"/>
@@ -18248,7 +18454,7 @@
         <v>2087229976</v>
       </c>
     </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>42861</v>
       </c>
@@ -18296,7 +18502,7 @@
         <v>0</v>
       </c>
       <c r="R93">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>35</v>
       </c>
       <c r="T93">
@@ -18318,49 +18524,49 @@
         <v>0</v>
       </c>
       <c r="Z93">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>36</v>
       </c>
       <c r="AB93" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.48571428571428571</v>
       </c>
       <c r="AC93" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.34285714285714286</v>
       </c>
       <c r="AD93" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="AE93" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0.11428571428571428</v>
       </c>
       <c r="AF93" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG93" s="10"/>
       <c r="AH93" s="22"/>
       <c r="AJ93" s="9">
+        <f t="shared" si="269"/>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="AK93" s="10">
+        <f t="shared" si="265"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="AL93" s="10">
+        <f t="shared" si="266"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AM93" s="10">
+        <f t="shared" si="267"/>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="AN93" s="10">
         <f t="shared" si="268"/>
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="AK93" s="10">
-        <f t="shared" si="264"/>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="AL93" s="10">
-        <f t="shared" si="265"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AM93" s="10">
-        <f t="shared" si="266"/>
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="AN93" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO93" s="10"/>
@@ -18372,7 +18578,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>42861</v>
       </c>
@@ -18423,7 +18629,7 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>38</v>
       </c>
       <c r="T94">
@@ -18445,49 +18651,49 @@
         <v>2</v>
       </c>
       <c r="Z94">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>38</v>
       </c>
       <c r="AB94" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.60526315789473684</v>
       </c>
       <c r="AC94" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="AD94" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.13157894736842105</v>
       </c>
       <c r="AE94" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0.18421052631578946</v>
       </c>
       <c r="AF94" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG94" s="10"/>
       <c r="AH94" s="22"/>
       <c r="AJ94" s="9">
+        <f t="shared" si="269"/>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="AK94" s="10">
+        <f t="shared" si="265"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="AL94" s="10">
+        <f t="shared" si="266"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="AM94" s="10">
+        <f t="shared" si="267"/>
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="AN94" s="10">
         <f t="shared" si="268"/>
-        <v>0.57894736842105265</v>
-      </c>
-      <c r="AK94" s="10">
-        <f t="shared" si="264"/>
-        <v>7.8947368421052627E-2</v>
-      </c>
-      <c r="AL94" s="10">
-        <f t="shared" si="265"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="AM94" s="10">
-        <f t="shared" si="266"/>
-        <v>0.18421052631578946</v>
-      </c>
-      <c r="AN94" s="10">
-        <f t="shared" si="267"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="AO94" s="10"/>
@@ -18496,7 +18702,7 @@
         <v>2087175478</v>
       </c>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>42861</v>
       </c>
@@ -18544,7 +18750,7 @@
         <v>2</v>
       </c>
       <c r="R95">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>74</v>
       </c>
       <c r="T95">
@@ -18566,49 +18772,49 @@
         <v>0</v>
       </c>
       <c r="Z95">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>75</v>
       </c>
       <c r="AB95" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.81081081081081086</v>
       </c>
       <c r="AC95" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>6.7567567567567571E-2</v>
       </c>
       <c r="AD95" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="AE95" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>9.45945945945946E-2</v>
       </c>
       <c r="AF95" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>2.7027027027027029E-2</v>
       </c>
       <c r="AG95" s="10"/>
       <c r="AH95" s="22"/>
       <c r="AJ95" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.84</v>
       </c>
       <c r="AK95" s="10">
-        <f t="shared" si="264"/>
-        <v>0.04</v>
-      </c>
-      <c r="AL95" s="10">
         <f t="shared" si="265"/>
         <v>0.04</v>
       </c>
+      <c r="AL95" s="10">
+        <f t="shared" si="266"/>
+        <v>0.04</v>
+      </c>
       <c r="AM95" s="10">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>0.08</v>
       </c>
       <c r="AN95" s="10">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="AO95" s="10"/>
@@ -18620,7 +18826,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>42861</v>
       </c>
@@ -18668,7 +18874,7 @@
         <v>0</v>
       </c>
       <c r="R96">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>24</v>
       </c>
       <c r="T96">
@@ -18690,49 +18896,49 @@
         <v>0</v>
       </c>
       <c r="Z96">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>23</v>
       </c>
       <c r="AB96" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.70833333333333337</v>
       </c>
       <c r="AC96" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AD96" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE96" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="AF96" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG96" s="10"/>
       <c r="AH96" s="22"/>
       <c r="AJ96" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="AK96" s="10">
-        <f t="shared" si="264"/>
-        <v>0.13043478260869565</v>
-      </c>
-      <c r="AL96" s="10">
         <f t="shared" si="265"/>
         <v>0.13043478260869565</v>
       </c>
+      <c r="AL96" s="10">
+        <f t="shared" si="266"/>
+        <v>0.13043478260869565</v>
+      </c>
       <c r="AM96" s="10">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="AN96" s="10">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="AO96" s="10"/>
@@ -18744,7 +18950,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>42861</v>
       </c>
@@ -18792,7 +18998,7 @@
         <v>0</v>
       </c>
       <c r="R97">
-        <f t="shared" si="272"/>
+        <f t="shared" si="273"/>
         <v>28</v>
       </c>
       <c r="T97">
@@ -18814,49 +19020,49 @@
         <v>0</v>
       </c>
       <c r="Z97">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>29</v>
       </c>
       <c r="AB97" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.75</v>
       </c>
       <c r="AC97" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="AD97" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AE97" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="AF97" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG97" s="10"/>
       <c r="AH97" s="22"/>
       <c r="AJ97" s="9">
+        <f t="shared" si="269"/>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="AK97" s="10">
+        <f t="shared" si="265"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="AL97" s="10">
+        <f t="shared" si="266"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="AM97" s="10">
+        <f t="shared" si="267"/>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="AN97" s="10">
         <f t="shared" si="268"/>
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="AK97" s="10">
-        <f t="shared" si="264"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="AL97" s="10">
-        <f t="shared" si="265"/>
-        <v>0.10344827586206896</v>
-      </c>
-      <c r="AM97" s="10">
-        <f t="shared" si="266"/>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="AN97" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO97" s="10"/>
@@ -18865,7 +19071,7 @@
         <v>2087123228</v>
       </c>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>42860</v>
       </c>
@@ -18913,7 +19119,7 @@
         <v>0</v>
       </c>
       <c r="R98">
-        <f t="shared" ref="R98:R115" si="273">SUM(L98:Q98)</f>
+        <f t="shared" ref="R98:R115" si="274">SUM(L98:Q98)</f>
         <v>54</v>
       </c>
       <c r="T98">
@@ -18935,49 +19141,49 @@
         <v>0</v>
       </c>
       <c r="Z98">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>53</v>
       </c>
       <c r="AB98" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.7592592592592593</v>
       </c>
       <c r="AC98" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.14814814814814814</v>
       </c>
       <c r="AD98" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="AE98" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>1.8518518518518517E-2</v>
       </c>
       <c r="AF98" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG98" s="10"/>
       <c r="AH98" s="22"/>
       <c r="AJ98" s="9">
+        <f t="shared" si="269"/>
+        <v>0.84905660377358494</v>
+      </c>
+      <c r="AK98" s="10">
+        <f t="shared" si="265"/>
+        <v>0.11320754716981132</v>
+      </c>
+      <c r="AL98" s="10">
+        <f t="shared" si="266"/>
+        <v>3.7735849056603772E-2</v>
+      </c>
+      <c r="AM98" s="10">
+        <f t="shared" si="267"/>
+        <v>0</v>
+      </c>
+      <c r="AN98" s="10">
         <f t="shared" si="268"/>
-        <v>0.84905660377358494</v>
-      </c>
-      <c r="AK98" s="10">
-        <f t="shared" si="264"/>
-        <v>0.11320754716981132</v>
-      </c>
-      <c r="AL98" s="10">
-        <f t="shared" si="265"/>
-        <v>3.7735849056603772E-2</v>
-      </c>
-      <c r="AM98" s="10">
-        <f t="shared" si="266"/>
-        <v>0</v>
-      </c>
-      <c r="AN98" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO98" s="10"/>
@@ -18986,7 +19192,7 @@
         <v>2086294258</v>
       </c>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>42860</v>
       </c>
@@ -19034,7 +19240,7 @@
         <v>0</v>
       </c>
       <c r="R99">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>15</v>
       </c>
       <c r="T99">
@@ -19056,49 +19262,49 @@
         <v>0</v>
       </c>
       <c r="Z99">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>15</v>
       </c>
       <c r="AB99" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="AC99" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AD99" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0</v>
       </c>
       <c r="AE99" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0</v>
       </c>
       <c r="AF99" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG99" s="10"/>
       <c r="AH99" s="22"/>
       <c r="AJ99" s="9">
+        <f t="shared" si="269"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="AK99" s="10">
+        <f t="shared" si="265"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AL99" s="10">
+        <f t="shared" si="266"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="AM99" s="10">
+        <f t="shared" si="267"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AN99" s="10">
         <f t="shared" si="268"/>
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="AK99" s="10">
-        <f t="shared" si="264"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="AL99" s="10">
-        <f t="shared" si="265"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="AM99" s="10">
-        <f t="shared" si="266"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="AN99" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO99" s="10"/>
@@ -19107,7 +19313,7 @@
         <v>2086292539</v>
       </c>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>42860</v>
       </c>
@@ -19155,7 +19361,7 @@
         <v>0</v>
       </c>
       <c r="R100">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>40</v>
       </c>
       <c r="T100">
@@ -19177,49 +19383,49 @@
         <v>1</v>
       </c>
       <c r="Z100">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>39</v>
       </c>
       <c r="AB100" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.75</v>
       </c>
       <c r="AC100" s="10">
-        <f t="shared" si="260"/>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="AD100" s="10">
         <f t="shared" si="261"/>
         <v>7.4999999999999997E-2</v>
       </c>
+      <c r="AD100" s="10">
+        <f t="shared" si="262"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="AE100" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0.1</v>
       </c>
       <c r="AF100" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG100" s="10"/>
       <c r="AH100" s="22"/>
       <c r="AJ100" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.71794871794871795</v>
       </c>
       <c r="AK100" s="10">
-        <f t="shared" si="264"/>
-        <v>0.10256410256410256</v>
-      </c>
-      <c r="AL100" s="10">
         <f t="shared" si="265"/>
         <v>0.10256410256410256</v>
       </c>
+      <c r="AL100" s="10">
+        <f t="shared" si="266"/>
+        <v>0.10256410256410256</v>
+      </c>
       <c r="AM100" s="10">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>5.128205128205128E-2</v>
       </c>
       <c r="AN100" s="10">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>2.564102564102564E-2</v>
       </c>
       <c r="AO100" s="10"/>
@@ -19228,7 +19434,7 @@
         <v>2086286213</v>
       </c>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>42860</v>
       </c>
@@ -19276,7 +19482,7 @@
         <v>0</v>
       </c>
       <c r="R101">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>38</v>
       </c>
       <c r="T101">
@@ -19298,49 +19504,49 @@
         <v>0</v>
       </c>
       <c r="Z101">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>38</v>
       </c>
       <c r="AB101" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.86842105263157898</v>
       </c>
       <c r="AC101" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>2.6315789473684209E-2</v>
       </c>
       <c r="AD101" s="10">
-        <f t="shared" si="261"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="AE101" s="10">
         <f t="shared" si="262"/>
         <v>5.2631578947368418E-2</v>
       </c>
+      <c r="AE101" s="10">
+        <f t="shared" si="263"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
       <c r="AF101" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG101" s="10"/>
       <c r="AH101" s="22"/>
       <c r="AJ101" s="9">
+        <f t="shared" si="269"/>
+        <v>0.81578947368421051</v>
+      </c>
+      <c r="AK101" s="10">
+        <f t="shared" si="265"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="AL101" s="10">
+        <f t="shared" si="266"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="AM101" s="10">
+        <f t="shared" si="267"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="AN101" s="10">
         <f t="shared" si="268"/>
-        <v>0.81578947368421051</v>
-      </c>
-      <c r="AK101" s="10">
-        <f t="shared" si="264"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="AL101" s="10">
-        <f t="shared" si="265"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="AM101" s="10">
-        <f t="shared" si="266"/>
-        <v>2.6315789473684209E-2</v>
-      </c>
-      <c r="AN101" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO101" s="10"/>
@@ -19349,7 +19555,7 @@
         <v>2086279901</v>
       </c>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>42860</v>
       </c>
@@ -19397,7 +19603,7 @@
         <v>0</v>
       </c>
       <c r="R102">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>12</v>
       </c>
       <c r="T102">
@@ -19419,49 +19625,49 @@
         <v>0</v>
       </c>
       <c r="Z102">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>11</v>
       </c>
       <c r="AB102" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="AC102" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0</v>
       </c>
       <c r="AD102" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="AE102" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0</v>
       </c>
       <c r="AF102" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG102" s="10"/>
       <c r="AH102" s="22"/>
       <c r="AJ102" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.45454545454545453</v>
       </c>
       <c r="AK102" s="10">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="AL102" s="10">
-        <f t="shared" si="265"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="AM102" s="10">
         <f t="shared" si="266"/>
         <v>9.0909090909090912E-2</v>
       </c>
+      <c r="AM102" s="10">
+        <f t="shared" si="267"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
       <c r="AN102" s="10">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>0</v>
       </c>
       <c r="AO102" s="10"/>
@@ -19470,7 +19676,7 @@
         <v>2086278257</v>
       </c>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>42860</v>
       </c>
@@ -19521,7 +19727,7 @@
         <v>0</v>
       </c>
       <c r="R103">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>18</v>
       </c>
       <c r="T103">
@@ -19543,49 +19749,49 @@
         <v>0</v>
       </c>
       <c r="Z103">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>19</v>
       </c>
       <c r="AB103" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.5</v>
       </c>
       <c r="AC103" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AD103" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="AE103" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="AF103" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG103" s="10"/>
       <c r="AH103" s="22"/>
       <c r="AJ103" s="9">
+        <f t="shared" si="269"/>
+        <v>0.68421052631578949</v>
+      </c>
+      <c r="AK103" s="10">
+        <f t="shared" si="265"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="AL103" s="10">
+        <f t="shared" si="266"/>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="AM103" s="10">
+        <f t="shared" si="267"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="AN103" s="10">
         <f t="shared" si="268"/>
-        <v>0.68421052631578949</v>
-      </c>
-      <c r="AK103" s="10">
-        <f t="shared" si="264"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="AL103" s="10">
-        <f t="shared" si="265"/>
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="AM103" s="10">
-        <f t="shared" si="266"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="AN103" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO103" s="10"/>
@@ -19594,7 +19800,7 @@
         <v>2086275180</v>
       </c>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>42860</v>
       </c>
@@ -19642,7 +19848,7 @@
         <v>0</v>
       </c>
       <c r="R104">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>23</v>
       </c>
       <c r="T104">
@@ -19664,49 +19870,49 @@
         <v>2</v>
       </c>
       <c r="Z104">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>22</v>
       </c>
       <c r="AB104" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.65217391304347827</v>
       </c>
       <c r="AC104" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.17391304347826086</v>
       </c>
       <c r="AD104" s="10">
-        <f t="shared" si="261"/>
-        <v>8.6956521739130432E-2</v>
-      </c>
-      <c r="AE104" s="10">
         <f t="shared" si="262"/>
         <v>8.6956521739130432E-2</v>
       </c>
+      <c r="AE104" s="10">
+        <f t="shared" si="263"/>
+        <v>8.6956521739130432E-2</v>
+      </c>
       <c r="AF104" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG104" s="10"/>
       <c r="AH104" s="22"/>
       <c r="AJ104" s="9">
+        <f t="shared" si="269"/>
+        <v>0.68181818181818177</v>
+      </c>
+      <c r="AK104" s="10">
+        <f t="shared" si="265"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AL104" s="10">
+        <f t="shared" si="266"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="AM104" s="10">
+        <f t="shared" si="267"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AN104" s="10">
         <f t="shared" si="268"/>
-        <v>0.68181818181818177</v>
-      </c>
-      <c r="AK104" s="10">
-        <f t="shared" si="264"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="AL104" s="10">
-        <f t="shared" si="265"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="AM104" s="10">
-        <f t="shared" si="266"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="AN104" s="10">
-        <f t="shared" si="267"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="AO104" s="10"/>
@@ -19715,7 +19921,7 @@
         <v>2086262571</v>
       </c>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>42860</v>
       </c>
@@ -19763,7 +19969,7 @@
         <v>0</v>
       </c>
       <c r="R105">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>35</v>
       </c>
       <c r="T105">
@@ -19785,49 +19991,49 @@
         <v>0</v>
       </c>
       <c r="Z105">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>35</v>
       </c>
       <c r="AB105" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="AC105" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>8.5714285714285715E-2</v>
       </c>
       <c r="AD105" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.17142857142857143</v>
       </c>
       <c r="AE105" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="AF105" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0</v>
       </c>
       <c r="AG105" s="10"/>
       <c r="AH105" s="22"/>
       <c r="AJ105" s="9">
+        <f t="shared" si="269"/>
+        <v>0.77142857142857146</v>
+      </c>
+      <c r="AK105" s="10">
+        <f t="shared" si="265"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="AL105" s="10">
+        <f t="shared" si="266"/>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="AM105" s="10">
+        <f t="shared" si="267"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="AN105" s="10">
         <f t="shared" si="268"/>
-        <v>0.77142857142857146</v>
-      </c>
-      <c r="AK105" s="10">
-        <f t="shared" si="264"/>
-        <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="AL105" s="10">
-        <f t="shared" si="265"/>
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="AM105" s="10">
-        <f t="shared" si="266"/>
-        <v>8.5714285714285715E-2</v>
-      </c>
-      <c r="AN105" s="10">
-        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AO105" s="10"/>
@@ -19836,7 +20042,7 @@
         <v>2086246305</v>
       </c>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>42860</v>
       </c>
@@ -19884,7 +20090,7 @@
         <v>0</v>
       </c>
       <c r="R106">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>38</v>
       </c>
       <c r="T106">
@@ -19906,58 +20112,66 @@
         <v>0</v>
       </c>
       <c r="Z106">
+        <f t="shared" si="270"/>
+        <v>37</v>
+      </c>
+      <c r="AB106" s="9">
+        <f t="shared" si="260"/>
+        <v>0.81578947368421051</v>
+      </c>
+      <c r="AC106" s="10">
+        <f t="shared" si="261"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="AD106" s="10">
+        <f t="shared" si="262"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="AE106" s="10">
+        <f t="shared" si="263"/>
+        <v>7.8947368421052627E-2</v>
+      </c>
+      <c r="AF106" s="10">
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG106" s="10">
+        <v>0.371</v>
+      </c>
+      <c r="AH106" s="22">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AJ106" s="9">
         <f t="shared" si="269"/>
-        <v>37</v>
-      </c>
-      <c r="AB106" s="9">
-        <f t="shared" si="259"/>
-        <v>0.81578947368421051</v>
-      </c>
-      <c r="AC106" s="10">
-        <f t="shared" si="260"/>
-        <v>7.8947368421052627E-2</v>
-      </c>
-      <c r="AD106" s="10">
-        <f t="shared" si="261"/>
-        <v>2.6315789473684209E-2</v>
-      </c>
-      <c r="AE106" s="10">
-        <f t="shared" si="262"/>
-        <v>7.8947368421052627E-2</v>
-      </c>
-      <c r="AF106" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG106" s="10"/>
-      <c r="AH106" s="22"/>
-      <c r="AJ106" s="9">
+        <v>0.7567567567567568</v>
+      </c>
+      <c r="AK106" s="10">
+        <f t="shared" si="265"/>
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="AL106" s="10">
+        <f t="shared" si="266"/>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="AM106" s="10">
+        <f t="shared" si="267"/>
+        <v>0</v>
+      </c>
+      <c r="AN106" s="10">
         <f t="shared" si="268"/>
-        <v>0.7567567567567568</v>
-      </c>
-      <c r="AK106" s="10">
-        <f t="shared" si="264"/>
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="AL106" s="10">
-        <f t="shared" si="265"/>
-        <v>0.10810810810810811</v>
-      </c>
-      <c r="AM106" s="10">
-        <f t="shared" si="266"/>
-        <v>0</v>
-      </c>
-      <c r="AN106" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO106" s="10"/>
-      <c r="AP106" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO106" s="10">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="AP106" s="22">
+        <v>1.42</v>
+      </c>
       <c r="AR106">
         <v>2086230757</v>
       </c>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>42860</v>
       </c>
@@ -20008,7 +20222,7 @@
         <v>0</v>
       </c>
       <c r="R107">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>24</v>
       </c>
       <c r="T107">
@@ -20030,53 +20244,61 @@
         <v>0</v>
       </c>
       <c r="Z107">
+        <f t="shared" si="270"/>
+        <v>25</v>
+      </c>
+      <c r="AB107" s="9">
+        <f t="shared" si="260"/>
+        <v>0.875</v>
+      </c>
+      <c r="AC107" s="10">
+        <f t="shared" si="261"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AD107" s="10">
+        <f t="shared" si="262"/>
+        <v>0</v>
+      </c>
+      <c r="AE107" s="10">
+        <f t="shared" si="263"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AF107" s="10">
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG107" s="10">
+        <v>0.318</v>
+      </c>
+      <c r="AH107" s="22">
+        <v>0.79</v>
+      </c>
+      <c r="AJ107" s="9">
         <f t="shared" si="269"/>
-        <v>25</v>
-      </c>
-      <c r="AB107" s="9">
-        <f t="shared" si="259"/>
-        <v>0.875</v>
-      </c>
-      <c r="AC107" s="10">
-        <f t="shared" si="260"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AD107" s="10">
-        <f t="shared" si="261"/>
-        <v>0</v>
-      </c>
-      <c r="AE107" s="10">
-        <f t="shared" si="262"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AF107" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG107" s="10"/>
-      <c r="AH107" s="22"/>
-      <c r="AJ107" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="AK107" s="10">
+        <f t="shared" si="265"/>
+        <v>0</v>
+      </c>
+      <c r="AL107" s="10">
+        <f t="shared" si="266"/>
+        <v>0.04</v>
+      </c>
+      <c r="AM107" s="10">
+        <f t="shared" si="267"/>
+        <v>0</v>
+      </c>
+      <c r="AN107" s="10">
         <f t="shared" si="268"/>
-        <v>0.96</v>
-      </c>
-      <c r="AK107" s="10">
-        <f t="shared" si="264"/>
-        <v>0</v>
-      </c>
-      <c r="AL107" s="10">
-        <f t="shared" si="265"/>
-        <v>0.04</v>
-      </c>
-      <c r="AM107" s="10">
-        <f t="shared" si="266"/>
-        <v>0</v>
-      </c>
-      <c r="AN107" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO107" s="10"/>
-      <c r="AP107" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO107" s="10">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="AP107" s="22">
+        <v>0.15</v>
+      </c>
       <c r="AR107">
         <v>2086219665</v>
       </c>
@@ -20084,7 +20306,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>42860</v>
       </c>
@@ -20132,7 +20354,7 @@
         <v>0</v>
       </c>
       <c r="R108">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>28</v>
       </c>
       <c r="T108">
@@ -20154,58 +20376,66 @@
         <v>1</v>
       </c>
       <c r="Z108">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>27</v>
       </c>
       <c r="AB108" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="AC108" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0</v>
       </c>
       <c r="AD108" s="10">
-        <f t="shared" si="261"/>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="AE108" s="10">
         <f t="shared" si="262"/>
         <v>7.1428571428571425E-2</v>
       </c>
+      <c r="AE108" s="10">
+        <f t="shared" si="263"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
       <c r="AF108" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG108" s="10"/>
-      <c r="AH108" s="22"/>
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG108" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="AH108" s="22">
+        <v>1.1399999999999999</v>
+      </c>
       <c r="AJ108" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.59259259259259256</v>
       </c>
       <c r="AK108" s="10">
-        <f t="shared" si="264"/>
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="AL108" s="10">
         <f t="shared" si="265"/>
         <v>0.14814814814814814</v>
       </c>
+      <c r="AL108" s="10">
+        <f t="shared" si="266"/>
+        <v>0.14814814814814814</v>
+      </c>
       <c r="AM108" s="10">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="AN108" s="10">
-        <f t="shared" si="267"/>
+        <f t="shared" si="268"/>
         <v>3.7037037037037035E-2</v>
       </c>
-      <c r="AO108" s="10"/>
-      <c r="AP108" s="22"/>
+      <c r="AO108" s="10">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AP108" s="22">
+        <v>2.35</v>
+      </c>
       <c r="AR108">
         <v>2086208385</v>
       </c>
     </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>42860</v>
       </c>
@@ -20253,7 +20483,7 @@
         <v>0</v>
       </c>
       <c r="R109">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>26</v>
       </c>
       <c r="T109">
@@ -20275,53 +20505,61 @@
         <v>0</v>
       </c>
       <c r="Z109">
+        <f t="shared" si="270"/>
+        <v>27</v>
+      </c>
+      <c r="AB109" s="9">
+        <f t="shared" si="260"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="AC109" s="10">
+        <f t="shared" si="261"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="AD109" s="10">
+        <f t="shared" si="262"/>
+        <v>0</v>
+      </c>
+      <c r="AE109" s="10">
+        <f t="shared" si="263"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AF109" s="10">
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG109" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="AH109" s="22">
+        <v>0.92</v>
+      </c>
+      <c r="AJ109" s="9">
         <f t="shared" si="269"/>
-        <v>27</v>
-      </c>
-      <c r="AB109" s="9">
-        <f t="shared" si="259"/>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="AC109" s="10">
-        <f t="shared" si="260"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="AD109" s="10">
-        <f t="shared" si="261"/>
-        <v>0</v>
-      </c>
-      <c r="AE109" s="10">
-        <f t="shared" si="262"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="AF109" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG109" s="10"/>
-      <c r="AH109" s="22"/>
-      <c r="AJ109" s="9">
-        <f t="shared" si="268"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="AK109" s="10">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0.14814814814814814</v>
       </c>
       <c r="AL109" s="10">
-        <f t="shared" si="265"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="AM109" s="10">
         <f t="shared" si="266"/>
         <v>3.7037037037037035E-2</v>
       </c>
+      <c r="AM109" s="10">
+        <f t="shared" si="267"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
       <c r="AN109" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO109" s="10"/>
-      <c r="AP109" s="22"/>
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="AO109" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AP109" s="22">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="AR109">
         <v>2086199647</v>
       </c>
@@ -20329,7 +20567,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>42860</v>
       </c>
@@ -20377,7 +20615,7 @@
         <v>0</v>
       </c>
       <c r="R110">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>36</v>
       </c>
       <c r="T110">
@@ -20399,58 +20637,66 @@
         <v>3</v>
       </c>
       <c r="Z110">
+        <f t="shared" si="270"/>
+        <v>35</v>
+      </c>
+      <c r="AB110" s="9">
+        <f t="shared" si="260"/>
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="AC110" s="10">
+        <f t="shared" si="261"/>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="AD110" s="10">
+        <f t="shared" si="262"/>
+        <v>0</v>
+      </c>
+      <c r="AE110" s="10">
+        <f t="shared" si="263"/>
+        <v>0</v>
+      </c>
+      <c r="AF110" s="10">
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG110" s="10">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="AH110" s="22">
+        <v>1.55</v>
+      </c>
+      <c r="AJ110" s="9">
         <f t="shared" si="269"/>
-        <v>35</v>
-      </c>
-      <c r="AB110" s="9">
-        <f t="shared" si="259"/>
-        <v>0.86111111111111116</v>
-      </c>
-      <c r="AC110" s="10">
-        <f t="shared" si="260"/>
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="AD110" s="10">
-        <f t="shared" si="261"/>
-        <v>0</v>
-      </c>
-      <c r="AE110" s="10">
-        <f t="shared" si="262"/>
-        <v>0</v>
-      </c>
-      <c r="AF110" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG110" s="10"/>
-      <c r="AH110" s="22"/>
-      <c r="AJ110" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="AK110" s="10">
+        <f t="shared" si="265"/>
+        <v>0</v>
+      </c>
+      <c r="AL110" s="10">
+        <f t="shared" si="266"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="AM110" s="10">
+        <f t="shared" si="267"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="AN110" s="10">
         <f t="shared" si="268"/>
-        <v>0.8</v>
-      </c>
-      <c r="AK110" s="10">
-        <f t="shared" si="264"/>
-        <v>0</v>
-      </c>
-      <c r="AL110" s="10">
-        <f t="shared" si="265"/>
         <v>8.5714285714285715E-2</v>
       </c>
-      <c r="AM110" s="10">
-        <f t="shared" si="266"/>
-        <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="AN110" s="10">
-        <f t="shared" si="267"/>
-        <v>8.5714285714285715E-2</v>
-      </c>
-      <c r="AO110" s="10"/>
-      <c r="AP110" s="22"/>
+      <c r="AO110" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="AP110" s="22">
+        <v>1.95</v>
+      </c>
       <c r="AR110">
         <v>2086191639</v>
       </c>
     </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>42860</v>
       </c>
@@ -20498,7 +20744,7 @@
         <v>0</v>
       </c>
       <c r="R111">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>26</v>
       </c>
       <c r="T111">
@@ -20520,58 +20766,66 @@
         <v>3</v>
       </c>
       <c r="Z111">
+        <f t="shared" si="270"/>
+        <v>26</v>
+      </c>
+      <c r="AB111" s="9">
+        <f t="shared" si="260"/>
+        <v>0.65384615384615385</v>
+      </c>
+      <c r="AC111" s="10">
+        <f t="shared" si="261"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="AD111" s="10">
+        <f t="shared" si="262"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="AE111" s="10">
+        <f t="shared" si="263"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AF111" s="10">
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG111" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="AH111" s="22">
+        <v>3.45</v>
+      </c>
+      <c r="AJ111" s="9">
         <f t="shared" si="269"/>
-        <v>26</v>
-      </c>
-      <c r="AB111" s="9">
-        <f t="shared" si="259"/>
-        <v>0.65384615384615385</v>
-      </c>
-      <c r="AC111" s="10">
-        <f t="shared" si="260"/>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="AD111" s="10">
-        <f t="shared" si="261"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK111" s="10">
+        <f t="shared" si="265"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="AL111" s="10">
+        <f t="shared" si="266"/>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="AM111" s="10">
+        <f t="shared" si="267"/>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="AE111" s="10">
-        <f t="shared" si="262"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="AF111" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG111" s="10"/>
-      <c r="AH111" s="22"/>
-      <c r="AJ111" s="9">
+      <c r="AN111" s="10">
         <f t="shared" si="268"/>
-        <v>0.5</v>
-      </c>
-      <c r="AK111" s="10">
-        <f t="shared" si="264"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="AL111" s="10">
-        <f t="shared" si="265"/>
-        <v>0.19230769230769232</v>
-      </c>
-      <c r="AM111" s="10">
-        <f t="shared" si="266"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="AN111" s="10">
-        <f t="shared" si="267"/>
         <v>0.11538461538461539</v>
       </c>
-      <c r="AO111" s="10"/>
-      <c r="AP111" s="22"/>
+      <c r="AO111" s="10">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AP111" s="22">
+        <v>4.1399999999999997</v>
+      </c>
       <c r="AR111">
         <v>2086186407</v>
       </c>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>42860</v>
       </c>
@@ -20619,7 +20873,7 @@
         <v>0</v>
       </c>
       <c r="R112">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>26</v>
       </c>
       <c r="T112">
@@ -20641,58 +20895,66 @@
         <v>0</v>
       </c>
       <c r="Z112">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>25</v>
       </c>
       <c r="AB112" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.92307692307692313</v>
       </c>
       <c r="AC112" s="10">
-        <f t="shared" si="260"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="AD112" s="10">
         <f t="shared" si="261"/>
         <v>3.8461538461538464E-2</v>
       </c>
+      <c r="AD112" s="10">
+        <f t="shared" si="262"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
       <c r="AE112" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0</v>
       </c>
       <c r="AF112" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG112" s="10"/>
-      <c r="AH112" s="22"/>
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG112" s="10">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="AH112" s="22">
+        <v>1.6</v>
+      </c>
       <c r="AJ112" s="9">
+        <f t="shared" si="269"/>
+        <v>0.72</v>
+      </c>
+      <c r="AK112" s="10">
+        <f t="shared" si="265"/>
+        <v>0.08</v>
+      </c>
+      <c r="AL112" s="10">
+        <f t="shared" si="266"/>
+        <v>0.16</v>
+      </c>
+      <c r="AM112" s="10">
+        <f t="shared" si="267"/>
+        <v>0.04</v>
+      </c>
+      <c r="AN112" s="10">
         <f t="shared" si="268"/>
-        <v>0.72</v>
-      </c>
-      <c r="AK112" s="10">
-        <f t="shared" si="264"/>
-        <v>0.08</v>
-      </c>
-      <c r="AL112" s="10">
-        <f t="shared" si="265"/>
-        <v>0.16</v>
-      </c>
-      <c r="AM112" s="10">
-        <f t="shared" si="266"/>
-        <v>0.04</v>
-      </c>
-      <c r="AN112" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO112" s="10"/>
-      <c r="AP112" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO112" s="10">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="AP112" s="22">
+        <v>3.01</v>
+      </c>
       <c r="AR112">
         <v>2086175926</v>
       </c>
     </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>42697</v>
       </c>
@@ -20740,7 +21002,7 @@
         <v>0</v>
       </c>
       <c r="R113">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>6</v>
       </c>
       <c r="T113">
@@ -20762,58 +21024,66 @@
         <v>0</v>
       </c>
       <c r="Z113">
+        <f t="shared" si="270"/>
+        <v>7</v>
+      </c>
+      <c r="AB113" s="9">
+        <f t="shared" si="260"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AC113" s="10">
+        <f t="shared" si="261"/>
+        <v>0</v>
+      </c>
+      <c r="AD113" s="10">
+        <f t="shared" si="262"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AE113" s="10">
+        <f t="shared" si="263"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF113" s="10">
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG113" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH113" s="22">
+        <v>4.55</v>
+      </c>
+      <c r="AJ113" s="9">
         <f t="shared" si="269"/>
-        <v>7</v>
-      </c>
-      <c r="AB113" s="9">
-        <f t="shared" si="259"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AC113" s="10">
-        <f t="shared" si="260"/>
-        <v>0</v>
-      </c>
-      <c r="AD113" s="10">
-        <f t="shared" si="261"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AE113" s="10">
-        <f t="shared" si="262"/>
-        <v>0.5</v>
-      </c>
-      <c r="AF113" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG113" s="10"/>
-      <c r="AH113" s="22"/>
-      <c r="AJ113" s="9">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="AK113" s="10">
+        <f t="shared" si="265"/>
+        <v>0</v>
+      </c>
+      <c r="AL113" s="10">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+      <c r="AM113" s="10">
+        <f t="shared" si="267"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AN113" s="10">
         <f t="shared" si="268"/>
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="AK113" s="10">
-        <f t="shared" si="264"/>
-        <v>0</v>
-      </c>
-      <c r="AL113" s="10">
-        <f t="shared" si="265"/>
-        <v>0</v>
-      </c>
-      <c r="AM113" s="10">
-        <f t="shared" si="266"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="AN113" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO113" s="10"/>
-      <c r="AP113" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO113" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="AP113" s="22">
+        <v>2.09</v>
+      </c>
       <c r="AR113">
         <v>1823027183</v>
       </c>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>42697</v>
       </c>
@@ -20861,7 +21131,7 @@
         <v>1</v>
       </c>
       <c r="R114">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>30</v>
       </c>
       <c r="T114">
@@ -20883,53 +21153,61 @@
         <v>0</v>
       </c>
       <c r="Z114">
+        <f t="shared" si="270"/>
+        <v>30</v>
+      </c>
+      <c r="AB114" s="9">
+        <f t="shared" si="260"/>
+        <v>0.6</v>
+      </c>
+      <c r="AC114" s="10">
+        <f t="shared" si="261"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AD114" s="10">
+        <f t="shared" si="262"/>
+        <v>0.1</v>
+      </c>
+      <c r="AE114" s="10">
+        <f t="shared" si="263"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF114" s="10">
+        <f t="shared" si="264"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="AG114" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="AH114" s="22">
+        <v>2.62</v>
+      </c>
+      <c r="AJ114" s="9">
         <f t="shared" si="269"/>
-        <v>30</v>
-      </c>
-      <c r="AB114" s="9">
-        <f t="shared" si="259"/>
-        <v>0.6</v>
-      </c>
-      <c r="AC114" s="10">
-        <f t="shared" si="260"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="AD114" s="10">
-        <f t="shared" si="261"/>
-        <v>0.1</v>
-      </c>
-      <c r="AE114" s="10">
-        <f t="shared" si="262"/>
-        <v>0.2</v>
-      </c>
-      <c r="AF114" s="10">
-        <f t="shared" si="263"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="AG114" s="10"/>
-      <c r="AH114" s="22"/>
-      <c r="AJ114" s="9">
-        <f t="shared" si="268"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AK114" s="10">
-        <f t="shared" si="264"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="AL114" s="10">
         <f t="shared" si="265"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="AL114" s="10">
+        <f t="shared" si="266"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
       <c r="AM114" s="10">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>0.2</v>
       </c>
       <c r="AN114" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO114" s="10"/>
-      <c r="AP114" s="22"/>
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="AO114" s="10">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="AP114" s="22">
+        <v>2.3199999999999998</v>
+      </c>
       <c r="AR114">
         <v>1823016455</v>
       </c>
@@ -20937,7 +21215,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>42696</v>
       </c>
@@ -20985,7 +21263,7 @@
         <v>0</v>
       </c>
       <c r="R115">
-        <f t="shared" si="273"/>
+        <f t="shared" si="274"/>
         <v>20</v>
       </c>
       <c r="T115">
@@ -21007,58 +21285,66 @@
         <v>2</v>
       </c>
       <c r="Z115">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>21</v>
       </c>
       <c r="AB115" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.7</v>
       </c>
       <c r="AC115" s="10">
-        <f t="shared" si="260"/>
-        <v>0.1</v>
-      </c>
-      <c r="AD115" s="10">
         <f t="shared" si="261"/>
         <v>0.1</v>
       </c>
-      <c r="AE115" s="10">
+      <c r="AD115" s="10">
         <f t="shared" si="262"/>
         <v>0.1</v>
       </c>
+      <c r="AE115" s="10">
+        <f t="shared" si="263"/>
+        <v>0.1</v>
+      </c>
       <c r="AF115" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG115" s="10"/>
-      <c r="AH115" s="22"/>
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG115" s="10">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="AH115" s="22">
+        <v>1.39</v>
+      </c>
       <c r="AJ115" s="9">
+        <f t="shared" si="269"/>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="AK115" s="10">
+        <f t="shared" si="265"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AL115" s="10">
+        <f t="shared" si="266"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AM115" s="10">
+        <f t="shared" si="267"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AN115" s="10">
         <f t="shared" si="268"/>
-        <v>0.52380952380952384</v>
-      </c>
-      <c r="AK115" s="10">
-        <f t="shared" si="264"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AL115" s="10">
-        <f t="shared" si="265"/>
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="AM115" s="10">
-        <f t="shared" si="266"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AN115" s="10">
-        <f t="shared" si="267"/>
-        <v>9.5238095238095233E-2</v>
-      </c>
-      <c r="AO115" s="10"/>
-      <c r="AP115" s="22"/>
+      <c r="AO115" s="10">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AP115" s="22">
+        <v>1.37</v>
+      </c>
       <c r="AR115">
         <v>1821145626</v>
       </c>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>42696</v>
       </c>
@@ -21106,7 +21392,7 @@
         <v>0</v>
       </c>
       <c r="R116">
-        <f t="shared" ref="R116:R131" si="274">SUM(L116:Q116)</f>
+        <f t="shared" ref="R116:R131" si="275">SUM(L116:Q116)</f>
         <v>19</v>
       </c>
       <c r="T116">
@@ -21128,53 +21414,61 @@
         <v>0</v>
       </c>
       <c r="Z116">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>18</v>
       </c>
       <c r="AB116" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.78947368421052633</v>
       </c>
       <c r="AC116" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0</v>
       </c>
       <c r="AD116" s="10">
-        <f t="shared" si="261"/>
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="AE116" s="10">
         <f t="shared" si="262"/>
         <v>0.10526315789473684</v>
       </c>
+      <c r="AE116" s="10">
+        <f t="shared" si="263"/>
+        <v>0.10526315789473684</v>
+      </c>
       <c r="AF116" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG116" s="10"/>
-      <c r="AH116" s="22"/>
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG116" s="10">
+        <v>0.214</v>
+      </c>
+      <c r="AH116" s="22">
+        <v>1.51</v>
+      </c>
       <c r="AJ116" s="9">
+        <f t="shared" si="269"/>
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="AK116" s="10">
+        <f t="shared" si="265"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AL116" s="10">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+      <c r="AM116" s="10">
+        <f t="shared" si="267"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AN116" s="10">
         <f t="shared" si="268"/>
-        <v>0.72222222222222221</v>
-      </c>
-      <c r="AK116" s="10">
-        <f t="shared" si="264"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="AL116" s="10">
-        <f t="shared" si="265"/>
-        <v>0</v>
-      </c>
-      <c r="AM116" s="10">
-        <f t="shared" si="266"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AN116" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO116" s="10"/>
-      <c r="AP116" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO116" s="10">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="AP116" s="22">
+        <v>1.89</v>
+      </c>
       <c r="AR116">
         <v>1821135770</v>
       </c>
@@ -21182,7 +21476,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>42693</v>
       </c>
@@ -21230,7 +21524,7 @@
         <v>0</v>
       </c>
       <c r="R117">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>43</v>
       </c>
       <c r="T117">
@@ -21252,58 +21546,66 @@
         <v>0</v>
       </c>
       <c r="Z117">
+        <f t="shared" si="270"/>
+        <v>44</v>
+      </c>
+      <c r="AB117" s="9">
+        <f t="shared" si="260"/>
+        <v>0.81395348837209303</v>
+      </c>
+      <c r="AC117" s="10">
+        <f t="shared" si="261"/>
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="AD117" s="10">
+        <f t="shared" si="262"/>
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="AE117" s="10">
+        <f t="shared" si="263"/>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="AF117" s="10">
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG117" s="10">
+        <v>0.439</v>
+      </c>
+      <c r="AH117" s="22">
+        <v>1.26</v>
+      </c>
+      <c r="AJ117" s="9">
         <f t="shared" si="269"/>
-        <v>44</v>
-      </c>
-      <c r="AB117" s="9">
-        <f t="shared" si="259"/>
-        <v>0.81395348837209303</v>
-      </c>
-      <c r="AC117" s="10">
-        <f t="shared" si="260"/>
-        <v>9.3023255813953487E-2</v>
-      </c>
-      <c r="AD117" s="10">
-        <f t="shared" si="261"/>
-        <v>6.9767441860465115E-2</v>
-      </c>
-      <c r="AE117" s="10">
-        <f t="shared" si="262"/>
-        <v>2.3255813953488372E-2</v>
-      </c>
-      <c r="AF117" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG117" s="10"/>
-      <c r="AH117" s="22"/>
-      <c r="AJ117" s="9">
-        <f t="shared" si="268"/>
         <v>0.79545454545454541</v>
       </c>
       <c r="AK117" s="10">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>0.11363636363636363</v>
       </c>
       <c r="AL117" s="10">
-        <f t="shared" si="265"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="AM117" s="10">
         <f t="shared" si="266"/>
         <v>4.5454545454545456E-2</v>
       </c>
+      <c r="AM117" s="10">
+        <f t="shared" si="267"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
       <c r="AN117" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO117" s="10"/>
-      <c r="AP117" s="22"/>
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="AO117" s="10">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="AP117" s="22">
+        <v>1.38</v>
+      </c>
       <c r="AR117">
         <v>1817292557</v>
       </c>
     </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>42693</v>
       </c>
@@ -21351,7 +21653,7 @@
         <v>0</v>
       </c>
       <c r="R118">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>29</v>
       </c>
       <c r="T118">
@@ -21373,58 +21675,66 @@
         <v>0</v>
       </c>
       <c r="Z118">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>29</v>
       </c>
       <c r="AB118" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.62068965517241381</v>
       </c>
       <c r="AC118" s="10">
-        <f t="shared" si="260"/>
-        <v>0.17241379310344829</v>
-      </c>
-      <c r="AD118" s="10">
         <f t="shared" si="261"/>
         <v>0.17241379310344829</v>
       </c>
+      <c r="AD118" s="10">
+        <f t="shared" si="262"/>
+        <v>0.17241379310344829</v>
+      </c>
       <c r="AE118" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="AF118" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG118" s="10"/>
-      <c r="AH118" s="22"/>
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG118" s="10">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="AH118" s="22">
+        <v>2.38</v>
+      </c>
       <c r="AJ118" s="9">
+        <f t="shared" si="269"/>
+        <v>0.82758620689655171</v>
+      </c>
+      <c r="AK118" s="10">
+        <f t="shared" si="265"/>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="AL118" s="10">
+        <f t="shared" si="266"/>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="AM118" s="10">
+        <f t="shared" si="267"/>
+        <v>0</v>
+      </c>
+      <c r="AN118" s="10">
         <f t="shared" si="268"/>
-        <v>0.82758620689655171</v>
-      </c>
-      <c r="AK118" s="10">
-        <f t="shared" si="264"/>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="AL118" s="10">
-        <f t="shared" si="265"/>
-        <v>0.10344827586206896</v>
-      </c>
-      <c r="AM118" s="10">
-        <f t="shared" si="266"/>
-        <v>0</v>
-      </c>
-      <c r="AN118" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO118" s="10"/>
-      <c r="AP118" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO118" s="10">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="AP118" s="22">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="AR118">
         <v>1816818371</v>
       </c>
     </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>42693</v>
       </c>
@@ -21475,7 +21785,7 @@
         <v>0</v>
       </c>
       <c r="R119">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>13</v>
       </c>
       <c r="T119">
@@ -21497,58 +21807,66 @@
         <v>0</v>
       </c>
       <c r="Z119">
+        <f t="shared" si="270"/>
+        <v>14</v>
+      </c>
+      <c r="AB119" s="9">
+        <f t="shared" si="260"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="AC119" s="10">
+        <f t="shared" si="261"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="AD119" s="10">
+        <f t="shared" si="262"/>
+        <v>0</v>
+      </c>
+      <c r="AE119" s="10">
+        <f t="shared" si="263"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AF119" s="10">
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG119" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="AH119" s="22">
+        <v>0.87</v>
+      </c>
+      <c r="AJ119" s="9">
         <f t="shared" si="269"/>
-        <v>14</v>
-      </c>
-      <c r="AB119" s="9">
-        <f t="shared" si="259"/>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="AC119" s="10">
-        <f t="shared" si="260"/>
-        <v>0.23076923076923078</v>
-      </c>
-      <c r="AD119" s="10">
-        <f t="shared" si="261"/>
-        <v>0</v>
-      </c>
-      <c r="AE119" s="10">
-        <f t="shared" si="262"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="AF119" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG119" s="10"/>
-      <c r="AH119" s="22"/>
-      <c r="AJ119" s="9">
+        <v>1</v>
+      </c>
+      <c r="AK119" s="10">
+        <f t="shared" si="265"/>
+        <v>0</v>
+      </c>
+      <c r="AL119" s="10">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+      <c r="AM119" s="10">
+        <f t="shared" si="267"/>
+        <v>0</v>
+      </c>
+      <c r="AN119" s="10">
         <f t="shared" si="268"/>
-        <v>1</v>
-      </c>
-      <c r="AK119" s="10">
-        <f t="shared" si="264"/>
-        <v>0</v>
-      </c>
-      <c r="AL119" s="10">
-        <f t="shared" si="265"/>
-        <v>0</v>
-      </c>
-      <c r="AM119" s="10">
-        <f t="shared" si="266"/>
-        <v>0</v>
-      </c>
-      <c r="AN119" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO119" s="10"/>
-      <c r="AP119" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO119" s="10">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="AP119" s="22">
+        <v>0.04</v>
+      </c>
       <c r="AR119">
         <v>1816803424</v>
       </c>
     </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>42692</v>
       </c>
@@ -21599,7 +21917,7 @@
         <v>0</v>
       </c>
       <c r="R120">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>27</v>
       </c>
       <c r="T120">
@@ -21621,58 +21939,66 @@
         <v>0</v>
       </c>
       <c r="Z120">
+        <f t="shared" si="270"/>
+        <v>27</v>
+      </c>
+      <c r="AB120" s="9">
+        <f t="shared" si="260"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AC120" s="10">
+        <f t="shared" si="261"/>
+        <v>0</v>
+      </c>
+      <c r="AD120" s="10">
+        <f t="shared" si="262"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AE120" s="10">
+        <f t="shared" si="263"/>
+        <v>0</v>
+      </c>
+      <c r="AF120" s="10">
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG120" s="10">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AH120" s="22">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AJ120" s="9">
         <f t="shared" si="269"/>
-        <v>27</v>
-      </c>
-      <c r="AB120" s="9">
-        <f t="shared" si="259"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="AC120" s="10">
-        <f t="shared" si="260"/>
-        <v>0</v>
-      </c>
-      <c r="AD120" s="10">
-        <f t="shared" si="261"/>
+        <v>0.85185185185185186</v>
+      </c>
+      <c r="AK120" s="10">
+        <f t="shared" si="265"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="AE120" s="10">
-        <f t="shared" si="262"/>
-        <v>0</v>
-      </c>
-      <c r="AF120" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG120" s="10"/>
-      <c r="AH120" s="22"/>
-      <c r="AJ120" s="9">
+      <c r="AL120" s="10">
+        <f t="shared" si="266"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="AM120" s="10">
+        <f t="shared" si="267"/>
+        <v>0</v>
+      </c>
+      <c r="AN120" s="10">
         <f t="shared" si="268"/>
-        <v>0.85185185185185186</v>
-      </c>
-      <c r="AK120" s="10">
-        <f t="shared" si="264"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="AL120" s="10">
-        <f t="shared" si="265"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="AM120" s="10">
-        <f t="shared" si="266"/>
-        <v>0</v>
-      </c>
-      <c r="AN120" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO120" s="10"/>
-      <c r="AP120" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO120" s="10">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="AP120" s="22">
+        <v>0.47</v>
+      </c>
       <c r="AR120">
         <v>1815935094</v>
       </c>
     </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>42692</v>
       </c>
@@ -21720,7 +22046,7 @@
         <v>0</v>
       </c>
       <c r="R121">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>44</v>
       </c>
       <c r="T121">
@@ -21742,58 +22068,66 @@
         <v>4</v>
       </c>
       <c r="Z121">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>44</v>
       </c>
       <c r="AB121" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.77272727272727271</v>
       </c>
       <c r="AC121" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="AD121" s="10">
-        <f t="shared" si="261"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="AE121" s="10">
         <f t="shared" si="262"/>
         <v>4.5454545454545456E-2</v>
       </c>
+      <c r="AE121" s="10">
+        <f t="shared" si="263"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
       <c r="AF121" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG121" s="10"/>
-      <c r="AH121" s="22"/>
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG121" s="10">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="AH121" s="22">
+        <v>1.05</v>
+      </c>
       <c r="AJ121" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.68181818181818177</v>
       </c>
       <c r="AK121" s="10">
-        <f t="shared" si="264"/>
+        <f t="shared" si="265"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="AL121" s="10">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="AM121" s="10">
-        <f t="shared" si="266"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="AN121" s="10">
         <f t="shared" si="267"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="AO121" s="10"/>
-      <c r="AP121" s="22"/>
+      <c r="AN121" s="10">
+        <f t="shared" si="268"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AO121" s="10">
+        <v>0.308</v>
+      </c>
+      <c r="AP121" s="22">
+        <v>1.42</v>
+      </c>
       <c r="AR121">
         <v>1815922801</v>
       </c>
     </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>42692</v>
       </c>
@@ -21841,7 +22175,7 @@
         <v>0</v>
       </c>
       <c r="R122">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>35</v>
       </c>
       <c r="T122">
@@ -21863,53 +22197,61 @@
         <v>0</v>
       </c>
       <c r="Z122">
+        <f t="shared" si="270"/>
+        <v>35</v>
+      </c>
+      <c r="AB122" s="9">
+        <f t="shared" si="260"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC122" s="10">
+        <f t="shared" si="261"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="AD122" s="10">
+        <f t="shared" si="262"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="AE122" s="10">
+        <f t="shared" si="263"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="AF122" s="10">
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG122" s="10">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="AH122" s="22">
+        <v>2.4</v>
+      </c>
+      <c r="AJ122" s="9">
         <f t="shared" si="269"/>
-        <v>35</v>
-      </c>
-      <c r="AB122" s="9">
-        <f t="shared" si="259"/>
-        <v>0.8</v>
-      </c>
-      <c r="AC122" s="10">
-        <f t="shared" si="260"/>
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="AK122" s="10">
+        <f t="shared" si="265"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="AL122" s="10">
+        <f t="shared" si="266"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="AM122" s="10">
+        <f t="shared" si="267"/>
         <v>5.7142857142857141E-2</v>
       </c>
-      <c r="AD122" s="10">
-        <f t="shared" si="261"/>
-        <v>8.5714285714285715E-2</v>
-      </c>
-      <c r="AE122" s="10">
-        <f t="shared" si="262"/>
-        <v>5.7142857142857141E-2</v>
-      </c>
-      <c r="AF122" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG122" s="10"/>
-      <c r="AH122" s="22"/>
-      <c r="AJ122" s="9">
+      <c r="AN122" s="10">
         <f t="shared" si="268"/>
-        <v>0.82857142857142863</v>
-      </c>
-      <c r="AK122" s="10">
-        <f t="shared" si="264"/>
-        <v>8.5714285714285715E-2</v>
-      </c>
-      <c r="AL122" s="10">
-        <f t="shared" si="265"/>
-        <v>2.8571428571428571E-2</v>
-      </c>
-      <c r="AM122" s="10">
-        <f t="shared" si="266"/>
-        <v>5.7142857142857141E-2</v>
-      </c>
-      <c r="AN122" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO122" s="10"/>
-      <c r="AP122" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO122" s="10">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="AP122" s="22">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="AR122">
         <v>1815911805</v>
       </c>
@@ -21917,7 +22259,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>42692</v>
       </c>
@@ -21968,7 +22310,7 @@
         <v>1</v>
       </c>
       <c r="R123">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>23</v>
       </c>
       <c r="T123">
@@ -21990,53 +22332,61 @@
         <v>0</v>
       </c>
       <c r="Z123">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>23</v>
       </c>
       <c r="AB123" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="AC123" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.13043478260869565</v>
       </c>
       <c r="AD123" s="10">
-        <f t="shared" si="261"/>
+        <f t="shared" si="262"/>
         <v>0.21739130434782608</v>
       </c>
       <c r="AE123" s="10">
-        <f t="shared" si="262"/>
-        <v>4.3478260869565216E-2</v>
-      </c>
-      <c r="AF123" s="10">
         <f t="shared" si="263"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="AG123" s="10"/>
-      <c r="AH123" s="22"/>
-      <c r="AJ123" s="9">
-        <f t="shared" si="268"/>
-        <v>0.65217391304347827</v>
-      </c>
-      <c r="AK123" s="10">
+      <c r="AF123" s="10">
         <f t="shared" si="264"/>
         <v>4.3478260869565216E-2</v>
       </c>
+      <c r="AG123" s="10">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="AH123" s="22">
+        <v>2.38</v>
+      </c>
+      <c r="AJ123" s="9">
+        <f t="shared" si="269"/>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="AK123" s="10">
+        <f t="shared" si="265"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
       <c r="AL123" s="10">
-        <f t="shared" si="265"/>
+        <f t="shared" si="266"/>
         <v>0.21739130434782608</v>
       </c>
       <c r="AM123" s="10">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="AN123" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO123" s="10"/>
-      <c r="AP123" s="22"/>
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="AO123" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="AP123" s="22">
+        <v>2.71</v>
+      </c>
       <c r="AR123">
         <v>1815890323</v>
       </c>
@@ -22044,7 +22394,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>42691</v>
       </c>
@@ -22095,7 +22445,7 @@
         <v>0</v>
       </c>
       <c r="R124">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>17</v>
       </c>
       <c r="T124">
@@ -22117,58 +22467,66 @@
         <v>0</v>
       </c>
       <c r="Z124">
+        <f t="shared" si="270"/>
+        <v>18</v>
+      </c>
+      <c r="AB124" s="9">
+        <f t="shared" si="260"/>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="AC124" s="10">
+        <f t="shared" si="261"/>
+        <v>0</v>
+      </c>
+      <c r="AD124" s="10">
+        <f t="shared" si="262"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="AE124" s="10">
+        <f t="shared" si="263"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="AF124" s="10">
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG124" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="AH124" s="22">
+        <v>0.65</v>
+      </c>
+      <c r="AJ124" s="9">
         <f t="shared" si="269"/>
-        <v>18</v>
-      </c>
-      <c r="AB124" s="9">
-        <f t="shared" si="259"/>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="AC124" s="10">
-        <f t="shared" si="260"/>
-        <v>0</v>
-      </c>
-      <c r="AD124" s="10">
-        <f t="shared" si="261"/>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="AE124" s="10">
-        <f t="shared" si="262"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="AF124" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG124" s="10"/>
-      <c r="AH124" s="22"/>
-      <c r="AJ124" s="9">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="AK124" s="10">
+        <f t="shared" si="265"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AL124" s="10">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+      <c r="AM124" s="10">
+        <f t="shared" si="267"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AN124" s="10">
         <f t="shared" si="268"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="AK124" s="10">
-        <f t="shared" si="264"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="AL124" s="10">
-        <f t="shared" si="265"/>
-        <v>0</v>
-      </c>
-      <c r="AM124" s="10">
-        <f t="shared" si="266"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="AN124" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO124" s="10"/>
-      <c r="AP124" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO124" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="AP124" s="22">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="AR124">
         <v>1814772517</v>
       </c>
     </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>42689</v>
       </c>
@@ -22219,7 +22577,7 @@
         <v>0</v>
       </c>
       <c r="R125">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>23</v>
       </c>
       <c r="T125">
@@ -22241,58 +22599,66 @@
         <v>0</v>
       </c>
       <c r="Z125">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>24</v>
       </c>
       <c r="AB125" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.78260869565217395</v>
       </c>
       <c r="AC125" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.13043478260869565</v>
       </c>
       <c r="AD125" s="10">
-        <f t="shared" si="261"/>
-        <v>4.3478260869565216E-2</v>
-      </c>
-      <c r="AE125" s="10">
         <f t="shared" si="262"/>
         <v>4.3478260869565216E-2</v>
       </c>
+      <c r="AE125" s="10">
+        <f t="shared" si="263"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
       <c r="AF125" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG125" s="10"/>
-      <c r="AH125" s="22"/>
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG125" s="10">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AH125" s="22">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="AJ125" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.875</v>
       </c>
       <c r="AK125" s="10">
-        <f t="shared" si="264"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AL125" s="10">
         <f t="shared" si="265"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AM125" s="10">
+      <c r="AL125" s="10">
         <f t="shared" si="266"/>
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="AM125" s="10">
+        <f t="shared" si="267"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AN125" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO125" s="10"/>
-      <c r="AP125" s="22"/>
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="AO125" s="10">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="AP125" s="22">
+        <v>0.31</v>
+      </c>
       <c r="AR125">
         <v>1814712917</v>
       </c>
     </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>42689</v>
       </c>
@@ -22340,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="R126">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>26</v>
       </c>
       <c r="T126">
@@ -22362,58 +22728,66 @@
         <v>0</v>
       </c>
       <c r="Z126">
+        <f t="shared" si="270"/>
+        <v>26</v>
+      </c>
+      <c r="AB126" s="9">
+        <f t="shared" si="260"/>
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="AC126" s="10">
+        <f t="shared" si="261"/>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="AD126" s="10">
+        <f t="shared" si="262"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="AE126" s="10">
+        <f t="shared" si="263"/>
+        <v>0</v>
+      </c>
+      <c r="AF126" s="10">
+        <f t="shared" si="264"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="AG126" s="10">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="AH126" s="22">
+        <v>1.9</v>
+      </c>
+      <c r="AJ126" s="9">
         <f t="shared" si="269"/>
-        <v>26</v>
-      </c>
-      <c r="AB126" s="9">
-        <f t="shared" si="259"/>
-        <v>0.69230769230769229</v>
-      </c>
-      <c r="AC126" s="10">
-        <f t="shared" si="260"/>
-        <v>0.19230769230769232</v>
-      </c>
-      <c r="AD126" s="10">
-        <f t="shared" si="261"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="AE126" s="10">
-        <f t="shared" si="262"/>
-        <v>0</v>
-      </c>
-      <c r="AF126" s="10">
-        <f t="shared" si="263"/>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="AK126" s="10">
+        <f t="shared" si="265"/>
+        <v>0</v>
+      </c>
+      <c r="AL126" s="10">
+        <f t="shared" si="266"/>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="AG126" s="10"/>
-      <c r="AH126" s="22"/>
-      <c r="AJ126" s="9">
+      <c r="AM126" s="10">
+        <f t="shared" si="267"/>
+        <v>0</v>
+      </c>
+      <c r="AN126" s="10">
         <f t="shared" si="268"/>
-        <v>0.96153846153846156</v>
-      </c>
-      <c r="AK126" s="10">
-        <f t="shared" si="264"/>
-        <v>0</v>
-      </c>
-      <c r="AL126" s="10">
-        <f t="shared" si="265"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="AM126" s="10">
-        <f t="shared" si="266"/>
-        <v>0</v>
-      </c>
-      <c r="AN126" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO126" s="10"/>
-      <c r="AP126" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO126" s="10">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AP126" s="22">
+        <v>0.72</v>
+      </c>
       <c r="AR126">
         <v>1814708647</v>
       </c>
     </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>42689</v>
       </c>
@@ -22461,7 +22835,7 @@
         <v>2</v>
       </c>
       <c r="R127">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>16</v>
       </c>
       <c r="T127">
@@ -22483,58 +22857,66 @@
         <v>0</v>
       </c>
       <c r="Z127">
+        <f t="shared" si="270"/>
+        <v>17</v>
+      </c>
+      <c r="AB127" s="9">
+        <f t="shared" si="260"/>
+        <v>0.625</v>
+      </c>
+      <c r="AC127" s="10">
+        <f t="shared" si="261"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AD127" s="10">
+        <f t="shared" si="262"/>
+        <v>0.125</v>
+      </c>
+      <c r="AE127" s="10">
+        <f t="shared" si="263"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AF127" s="10">
+        <f t="shared" si="264"/>
+        <v>0.125</v>
+      </c>
+      <c r="AG127" s="10">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="AH127" s="22">
+        <v>2.23</v>
+      </c>
+      <c r="AJ127" s="9">
         <f t="shared" si="269"/>
-        <v>17</v>
-      </c>
-      <c r="AB127" s="9">
-        <f t="shared" si="259"/>
-        <v>0.625</v>
-      </c>
-      <c r="AC127" s="10">
-        <f t="shared" si="260"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="AD127" s="10">
-        <f t="shared" si="261"/>
-        <v>0.125</v>
-      </c>
-      <c r="AE127" s="10">
-        <f t="shared" si="262"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="AF127" s="10">
-        <f t="shared" si="263"/>
-        <v>0.125</v>
-      </c>
-      <c r="AG127" s="10"/>
-      <c r="AH127" s="22"/>
-      <c r="AJ127" s="9">
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="AK127" s="10">
+        <f t="shared" si="265"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="AL127" s="10">
+        <f t="shared" si="266"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="AM127" s="10">
+        <f t="shared" si="267"/>
+        <v>0</v>
+      </c>
+      <c r="AN127" s="10">
         <f t="shared" si="268"/>
-        <v>0.82352941176470584</v>
-      </c>
-      <c r="AK127" s="10">
-        <f t="shared" si="264"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="AL127" s="10">
-        <f t="shared" si="265"/>
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="AM127" s="10">
-        <f t="shared" si="266"/>
-        <v>0</v>
-      </c>
-      <c r="AN127" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO127" s="10"/>
-      <c r="AP127" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO127" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AP127" s="22">
+        <v>1.99</v>
+      </c>
       <c r="AR127">
         <v>1811736159</v>
       </c>
     </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>42689</v>
       </c>
@@ -22582,7 +22964,7 @@
         <v>0</v>
       </c>
       <c r="R128">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>16</v>
       </c>
       <c r="T128">
@@ -22604,58 +22986,66 @@
         <v>0</v>
       </c>
       <c r="Z128">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>16</v>
       </c>
       <c r="AB128" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.5</v>
       </c>
       <c r="AC128" s="10">
-        <f t="shared" si="260"/>
+        <f t="shared" si="261"/>
         <v>0.125</v>
       </c>
       <c r="AD128" s="10">
-        <f t="shared" si="261"/>
-        <v>0.1875</v>
-      </c>
-      <c r="AE128" s="10">
         <f t="shared" si="262"/>
         <v>0.1875</v>
       </c>
+      <c r="AE128" s="10">
+        <f t="shared" si="263"/>
+        <v>0.1875</v>
+      </c>
       <c r="AF128" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG128" s="10"/>
-      <c r="AH128" s="22"/>
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG128" s="10">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AH128" s="22">
+        <v>1.97</v>
+      </c>
       <c r="AJ128" s="9">
+        <f t="shared" si="269"/>
+        <v>0.5625</v>
+      </c>
+      <c r="AK128" s="10">
+        <f t="shared" si="265"/>
+        <v>0.125</v>
+      </c>
+      <c r="AL128" s="10">
+        <f t="shared" si="266"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AM128" s="10">
+        <f t="shared" si="267"/>
+        <v>0.25</v>
+      </c>
+      <c r="AN128" s="10">
         <f t="shared" si="268"/>
-        <v>0.5625</v>
-      </c>
-      <c r="AK128" s="10">
-        <f t="shared" si="264"/>
-        <v>0.125</v>
-      </c>
-      <c r="AL128" s="10">
-        <f t="shared" si="265"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="AM128" s="10">
-        <f t="shared" si="266"/>
-        <v>0.25</v>
-      </c>
-      <c r="AN128" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO128" s="10"/>
-      <c r="AP128" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO128" s="10">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AP128" s="22">
+        <v>1.49</v>
+      </c>
       <c r="AR128">
         <v>1811730313</v>
       </c>
     </row>
-    <row r="129" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>42689</v>
       </c>
@@ -22703,7 +23093,7 @@
         <v>1</v>
       </c>
       <c r="R129">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>50</v>
       </c>
       <c r="T129">
@@ -22725,58 +23115,66 @@
         <v>0</v>
       </c>
       <c r="Z129">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>51</v>
       </c>
       <c r="AB129" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.9</v>
       </c>
       <c r="AC129" s="10">
-        <f t="shared" si="260"/>
-        <v>0.02</v>
-      </c>
-      <c r="AD129" s="10">
         <f t="shared" si="261"/>
         <v>0.02</v>
       </c>
+      <c r="AD129" s="10">
+        <f t="shared" si="262"/>
+        <v>0.02</v>
+      </c>
       <c r="AE129" s="10">
-        <f t="shared" si="262"/>
+        <f t="shared" si="263"/>
         <v>0.04</v>
       </c>
       <c r="AF129" s="10">
-        <f t="shared" si="263"/>
+        <f t="shared" si="264"/>
         <v>0.02</v>
       </c>
-      <c r="AG129" s="10"/>
-      <c r="AH129" s="22"/>
+      <c r="AG129" s="10">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AH129" s="22">
+        <v>2.2999999999999998</v>
+      </c>
       <c r="AJ129" s="9">
-        <f t="shared" si="268"/>
+        <f t="shared" si="269"/>
         <v>0.92156862745098034</v>
       </c>
       <c r="AK129" s="10">
-        <f t="shared" si="264"/>
-        <v>3.9215686274509803E-2</v>
-      </c>
-      <c r="AL129" s="10">
         <f t="shared" si="265"/>
         <v>3.9215686274509803E-2</v>
       </c>
+      <c r="AL129" s="10">
+        <f t="shared" si="266"/>
+        <v>3.9215686274509803E-2</v>
+      </c>
       <c r="AM129" s="10">
-        <f t="shared" si="266"/>
+        <f t="shared" si="267"/>
         <v>0</v>
       </c>
       <c r="AN129" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO129" s="10"/>
-      <c r="AP129" s="22"/>
+        <f t="shared" si="268"/>
+        <v>0</v>
+      </c>
+      <c r="AO129" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="AP129" s="22">
+        <v>2.5299999999999998</v>
+      </c>
       <c r="AR129">
         <v>1811716015</v>
       </c>
     </row>
-    <row r="130" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>42689</v>
       </c>
@@ -22824,7 +23222,7 @@
         <v>0</v>
       </c>
       <c r="R130">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>30</v>
       </c>
       <c r="T130">
@@ -22846,53 +23244,61 @@
         <v>0</v>
       </c>
       <c r="Z130">
+        <f t="shared" si="270"/>
+        <v>30</v>
+      </c>
+      <c r="AB130" s="9">
+        <f t="shared" si="260"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC130" s="10">
+        <f t="shared" si="261"/>
+        <v>0.1</v>
+      </c>
+      <c r="AD130" s="10">
+        <f t="shared" si="262"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AE130" s="10">
+        <f t="shared" si="263"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AF130" s="10">
+        <f t="shared" si="264"/>
+        <v>0</v>
+      </c>
+      <c r="AG130" s="10">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="AH130" s="22">
+        <v>1.65</v>
+      </c>
+      <c r="AJ130" s="9">
         <f t="shared" si="269"/>
-        <v>30</v>
-      </c>
-      <c r="AB130" s="9">
-        <f t="shared" si="259"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AC130" s="10">
-        <f t="shared" si="260"/>
+        <v>0.7</v>
+      </c>
+      <c r="AK130" s="10">
+        <f t="shared" si="265"/>
         <v>0.1</v>
       </c>
-      <c r="AD130" s="10">
-        <f t="shared" si="261"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="AE130" s="10">
-        <f t="shared" si="262"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AF130" s="10">
-        <f t="shared" si="263"/>
-        <v>0</v>
-      </c>
-      <c r="AG130" s="10"/>
-      <c r="AH130" s="22"/>
-      <c r="AJ130" s="9">
+      <c r="AL130" s="10">
+        <f t="shared" si="266"/>
+        <v>0.2</v>
+      </c>
+      <c r="AM130" s="10">
+        <f t="shared" si="267"/>
+        <v>0</v>
+      </c>
+      <c r="AN130" s="10">
         <f t="shared" si="268"/>
-        <v>0.7</v>
-      </c>
-      <c r="AK130" s="10">
-        <f t="shared" si="264"/>
-        <v>0.1</v>
-      </c>
-      <c r="AL130" s="10">
-        <f t="shared" si="265"/>
-        <v>0.2</v>
-      </c>
-      <c r="AM130" s="10">
-        <f t="shared" si="266"/>
-        <v>0</v>
-      </c>
-      <c r="AN130" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO130" s="10"/>
-      <c r="AP130" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO130" s="10">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="AP130" s="22">
+        <v>1.74</v>
+      </c>
       <c r="AR130">
         <v>1811706198</v>
       </c>
@@ -22900,7 +23306,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="131" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>42685</v>
       </c>
@@ -22948,7 +23354,7 @@
         <v>2</v>
       </c>
       <c r="R131">
-        <f t="shared" si="274"/>
+        <f t="shared" si="275"/>
         <v>48</v>
       </c>
       <c r="T131">
@@ -22970,58 +23376,66 @@
         <v>0</v>
       </c>
       <c r="Z131">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>49</v>
       </c>
       <c r="AB131" s="9">
-        <f t="shared" si="259"/>
+        <f t="shared" si="260"/>
         <v>0.75</v>
       </c>
       <c r="AC131" s="10">
-        <f t="shared" si="260"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AD131" s="10">
         <f t="shared" si="261"/>
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="AD131" s="10">
+        <f t="shared" si="262"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="AE131" s="10">
-        <f t="shared" si="262"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AF131" s="10">
         <f t="shared" si="263"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AG131" s="10"/>
-      <c r="AH131" s="22"/>
+      <c r="AF131" s="10">
+        <f t="shared" si="264"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AG131" s="10">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="AH131" s="22">
+        <v>2.21</v>
+      </c>
       <c r="AJ131" s="9">
+        <f t="shared" si="269"/>
+        <v>0.81632653061224492</v>
+      </c>
+      <c r="AK131" s="10">
+        <f t="shared" si="265"/>
+        <v>0.12244897959183673</v>
+      </c>
+      <c r="AL131" s="10">
+        <f t="shared" si="266"/>
+        <v>4.0816326530612242E-2</v>
+      </c>
+      <c r="AM131" s="10">
+        <f t="shared" si="267"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
+      <c r="AN131" s="10">
         <f t="shared" si="268"/>
-        <v>0.81632653061224492</v>
-      </c>
-      <c r="AK131" s="10">
-        <f t="shared" si="264"/>
-        <v>0.12244897959183673</v>
-      </c>
-      <c r="AL131" s="10">
-        <f t="shared" si="265"/>
-        <v>4.0816326530612242E-2</v>
-      </c>
-      <c r="AM131" s="10">
-        <f t="shared" si="266"/>
-        <v>2.0408163265306121E-2</v>
-      </c>
-      <c r="AN131" s="10">
-        <f t="shared" si="267"/>
-        <v>0</v>
-      </c>
-      <c r="AO131" s="10"/>
-      <c r="AP131" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO131" s="10">
+        <v>0.435</v>
+      </c>
+      <c r="AP131" s="22">
+        <v>3.03</v>
+      </c>
       <c r="AR131">
         <v>1805270627</v>
       </c>
     </row>
-    <row r="132" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>42683</v>
       </c>
@@ -23069,7 +23483,7 @@
         <v>2</v>
       </c>
       <c r="R132">
-        <f t="shared" ref="R132:R157" si="275">SUM(L132:Q132)</f>
+        <f t="shared" ref="R132:R157" si="276">SUM(L132:Q132)</f>
         <v>38</v>
       </c>
       <c r="T132">
@@ -23091,58 +23505,66 @@
         <v>0</v>
       </c>
       <c r="Z132">
-        <f t="shared" si="269"/>
+        <f t="shared" si="270"/>
         <v>39</v>
       </c>
       <c r="AB132" s="9">
-        <f t="shared" ref="AB132:AB157" si="276">(L132+M132)/$R132</f>
+        <f t="shared" ref="AB132:AB157" si="277">(L132+M132)/$R132</f>
         <v>0.71052631578947367</v>
       </c>
       <c r="AC132" s="10">
-        <f t="shared" ref="AC132:AC157" si="277">N132/$R132</f>
+        <f t="shared" ref="AC132:AC157" si="278">N132/$R132</f>
         <v>0.15789473684210525</v>
       </c>
       <c r="AD132" s="10">
-        <f t="shared" ref="AD132:AD157" si="278">O132/$R132</f>
+        <f t="shared" ref="AD132:AD157" si="279">O132/$R132</f>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="AE132" s="10">
-        <f t="shared" ref="AE132:AE157" si="279">P132/$R132</f>
+        <f t="shared" ref="AE132:AE157" si="280">P132/$R132</f>
         <v>2.6315789473684209E-2</v>
       </c>
       <c r="AF132" s="10">
-        <f t="shared" ref="AF132:AF157" si="280">Q132/$R132</f>
+        <f t="shared" ref="AF132:AF157" si="281">Q132/$R132</f>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="AG132" s="10"/>
-      <c r="AH132" s="22"/>
+      <c r="AG132" s="10">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="AH132" s="22">
+        <v>1.92</v>
+      </c>
       <c r="AJ132" s="9">
-        <f t="shared" ref="AJ132:AJ157" si="281">(T132+U132)/$Z132</f>
+        <f t="shared" ref="AJ132:AJ157" si="282">(T132+U132)/$Z132</f>
         <v>0.79487179487179482</v>
       </c>
       <c r="AK132" s="10">
-        <f t="shared" ref="AK132:AK157" si="282">V132/$Z132</f>
+        <f t="shared" ref="AK132:AK157" si="283">V132/$Z132</f>
         <v>0.10256410256410256</v>
       </c>
       <c r="AL132" s="10">
-        <f t="shared" ref="AL132:AL157" si="283">W132/$Z132</f>
+        <f t="shared" ref="AL132:AL157" si="284">W132/$Z132</f>
         <v>5.128205128205128E-2</v>
       </c>
       <c r="AM132" s="10">
-        <f t="shared" ref="AM132:AM157" si="284">X132/$Z132</f>
+        <f t="shared" ref="AM132:AM157" si="285">X132/$Z132</f>
         <v>5.128205128205128E-2</v>
       </c>
       <c r="AN132" s="10">
-        <f t="shared" ref="AN132:AN157" si="285">Y132/$Z132</f>
-        <v>0</v>
-      </c>
-      <c r="AO132" s="10"/>
-      <c r="AP132" s="22"/>
+        <f t="shared" ref="AN132:AN157" si="286">Y132/$Z132</f>
+        <v>0</v>
+      </c>
+      <c r="AO132" s="10">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="AP132" s="22">
+        <v>1.01</v>
+      </c>
       <c r="AR132">
         <v>1803719799</v>
       </c>
     </row>
-    <row r="133" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>42682</v>
       </c>
@@ -23190,7 +23612,7 @@
         <v>3</v>
       </c>
       <c r="R133">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>47</v>
       </c>
       <c r="T133">
@@ -23212,58 +23634,66 @@
         <v>0</v>
       </c>
       <c r="Z133">
-        <f t="shared" ref="Z133:Z157" si="286">SUM(T133:Y133)</f>
+        <f t="shared" ref="Z133:Z157" si="287">SUM(T133:Y133)</f>
         <v>48</v>
       </c>
       <c r="AB133" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.80851063829787229</v>
       </c>
       <c r="AC133" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>6.3829787234042548E-2</v>
       </c>
       <c r="AD133" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>4.2553191489361701E-2</v>
       </c>
       <c r="AE133" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>2.1276595744680851E-2</v>
       </c>
       <c r="AF133" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>6.3829787234042548E-2</v>
       </c>
-      <c r="AG133" s="10"/>
-      <c r="AH133" s="22"/>
+      <c r="AG133" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="AH133" s="22">
+        <v>1.8</v>
+      </c>
       <c r="AJ133" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="AK133" s="10">
-        <f t="shared" si="282"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AL133" s="10">
         <f t="shared" si="283"/>
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="AL133" s="10">
+        <f t="shared" si="284"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="AM133" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AN133" s="10">
-        <f t="shared" si="285"/>
-        <v>0</v>
-      </c>
-      <c r="AO133" s="10"/>
-      <c r="AP133" s="22"/>
+        <f t="shared" si="286"/>
+        <v>0</v>
+      </c>
+      <c r="AO133" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="AP133" s="22">
+        <v>2.57</v>
+      </c>
       <c r="AR133">
         <v>1802402373</v>
       </c>
     </row>
-    <row r="134" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>42681</v>
       </c>
@@ -23311,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="R134">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>40</v>
       </c>
       <c r="T134">
@@ -23333,58 +23763,66 @@
         <v>1</v>
       </c>
       <c r="Z134">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>40</v>
       </c>
       <c r="AB134" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.875</v>
       </c>
       <c r="AC134" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0.125</v>
       </c>
       <c r="AD134" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="AE134" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="AF134" s="10">
-        <f t="shared" si="280"/>
-        <v>0</v>
-      </c>
-      <c r="AG134" s="10"/>
-      <c r="AH134" s="22"/>
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+      <c r="AG134" s="10">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="AH134" s="22">
+        <v>1.75</v>
+      </c>
       <c r="AJ134" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.82499999999999996</v>
       </c>
       <c r="AK134" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AL134" s="10">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>0.05</v>
       </c>
       <c r="AM134" s="10">
-        <f t="shared" si="284"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="AN134" s="10">
         <f t="shared" si="285"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AO134" s="10"/>
-      <c r="AP134" s="22"/>
+      <c r="AN134" s="10">
+        <f t="shared" si="286"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AO134" s="10">
+        <v>0.316</v>
+      </c>
+      <c r="AP134" s="22">
+        <v>2.2799999999999998</v>
+      </c>
       <c r="AR134">
         <v>1801051477</v>
       </c>
     </row>
-    <row r="135" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>42680</v>
       </c>
@@ -23432,7 +23870,7 @@
         <v>0</v>
       </c>
       <c r="R135">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>31</v>
       </c>
       <c r="T135">
@@ -23454,27 +23892,27 @@
         <v>0</v>
       </c>
       <c r="Z135">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>30</v>
       </c>
       <c r="AB135" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.58064516129032262</v>
       </c>
       <c r="AC135" s="10">
-        <f t="shared" si="277"/>
-        <v>0.12903225806451613</v>
-      </c>
-      <c r="AD135" s="10">
         <f t="shared" si="278"/>
         <v>0.12903225806451613</v>
       </c>
+      <c r="AD135" s="10">
+        <f t="shared" si="279"/>
+        <v>0.12903225806451613</v>
+      </c>
       <c r="AE135" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.16129032258064516</v>
       </c>
       <c r="AF135" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="AG135" s="10">
@@ -23484,23 +23922,23 @@
         <v>1.63</v>
       </c>
       <c r="AJ135" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.6</v>
       </c>
       <c r="AK135" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="AL135" s="10">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="AM135" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>0.13333333333333333</v>
       </c>
       <c r="AN135" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO135" s="10">
@@ -23513,7 +23951,7 @@
         <v>1799753292</v>
       </c>
     </row>
-    <row r="136" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>42680</v>
       </c>
@@ -23561,7 +23999,7 @@
         <v>0</v>
       </c>
       <c r="R136">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>25</v>
       </c>
       <c r="T136">
@@ -23583,27 +24021,27 @@
         <v>0</v>
       </c>
       <c r="Z136">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>26</v>
       </c>
       <c r="AB136" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.72</v>
       </c>
       <c r="AC136" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0.16</v>
       </c>
       <c r="AD136" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>0.12</v>
       </c>
       <c r="AE136" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="AF136" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="AG136" s="10">
@@ -23613,23 +24051,23 @@
         <v>1.58</v>
       </c>
       <c r="AJ136" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.84615384615384615</v>
       </c>
       <c r="AK136" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="AL136" s="10">
-        <f t="shared" si="283"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="AM136" s="10">
         <f t="shared" si="284"/>
         <v>3.8461538461538464E-2</v>
       </c>
+      <c r="AM136" s="10">
+        <f t="shared" si="285"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
       <c r="AN136" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO136" s="10">
@@ -23642,7 +24080,7 @@
         <v>1799747558</v>
       </c>
     </row>
-    <row r="137" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>42680</v>
       </c>
@@ -23690,7 +24128,7 @@
         <v>0</v>
       </c>
       <c r="R137">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>11</v>
       </c>
       <c r="T137">
@@ -23712,27 +24150,27 @@
         <v>0</v>
       </c>
       <c r="Z137">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>11</v>
       </c>
       <c r="AB137" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="AC137" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="AD137" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="AE137" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="AF137" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="AG137" s="10">
@@ -23742,23 +24180,23 @@
         <v>2.96</v>
       </c>
       <c r="AJ137" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="AK137" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="AL137" s="10">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AM137" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="AN137" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO137" s="10">
@@ -23771,7 +24209,7 @@
         <v>1799369215</v>
       </c>
     </row>
-    <row r="138" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>42680</v>
       </c>
@@ -23819,7 +24257,7 @@
         <v>4</v>
       </c>
       <c r="R138">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>31</v>
       </c>
       <c r="T138">
@@ -23841,27 +24279,27 @@
         <v>0</v>
       </c>
       <c r="Z138">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>32</v>
       </c>
       <c r="AB138" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.70967741935483875</v>
       </c>
       <c r="AC138" s="10">
-        <f t="shared" si="277"/>
-        <v>6.4516129032258063E-2</v>
-      </c>
-      <c r="AD138" s="10">
         <f t="shared" si="278"/>
         <v>6.4516129032258063E-2</v>
       </c>
+      <c r="AD138" s="10">
+        <f t="shared" si="279"/>
+        <v>6.4516129032258063E-2</v>
+      </c>
       <c r="AE138" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="AF138" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>0.12903225806451613</v>
       </c>
       <c r="AG138" s="10">
@@ -23871,23 +24309,23 @@
         <v>1.6</v>
       </c>
       <c r="AJ138" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.84375</v>
       </c>
       <c r="AK138" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0.125</v>
       </c>
       <c r="AL138" s="10">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AM138" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>3.125E-2</v>
       </c>
       <c r="AN138" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO138" s="10">
@@ -23900,7 +24338,7 @@
         <v>1799357884</v>
       </c>
     </row>
-    <row r="139" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>42680</v>
       </c>
@@ -23948,7 +24386,7 @@
         <v>0</v>
       </c>
       <c r="R139">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>22</v>
       </c>
       <c r="T139">
@@ -23970,27 +24408,27 @@
         <v>0</v>
       </c>
       <c r="Z139">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>21</v>
       </c>
       <c r="AB139" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.81818181818181823</v>
       </c>
       <c r="AC139" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="AD139" s="10">
-        <f t="shared" si="278"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="AE139" s="10">
         <f t="shared" si="279"/>
         <v>4.5454545454545456E-2</v>
       </c>
+      <c r="AE139" s="10">
+        <f t="shared" si="280"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
       <c r="AF139" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="AG139" s="10">
@@ -24000,23 +24438,23 @@
         <v>0.41</v>
       </c>
       <c r="AJ139" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="AK139" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>4.7619047619047616E-2</v>
       </c>
       <c r="AL139" s="10">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="AM139" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AN139" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO139" s="10">
@@ -24029,7 +24467,7 @@
         <v>1799348375</v>
       </c>
     </row>
-    <row r="140" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>42643</v>
       </c>
@@ -24077,7 +24515,7 @@
         <v>1</v>
       </c>
       <c r="R140">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>34</v>
       </c>
       <c r="T140">
@@ -24099,29 +24537,29 @@
         <v>0</v>
       </c>
       <c r="Z140">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>34</v>
       </c>
       <c r="AB140" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AC140" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="AD140" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="AE140" s="10">
-        <f t="shared" si="279"/>
-        <v>2.9411764705882353E-2</v>
-      </c>
-      <c r="AF140" s="10">
         <f t="shared" si="280"/>
         <v>2.9411764705882353E-2</v>
       </c>
+      <c r="AF140" s="10">
+        <f t="shared" si="281"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
       <c r="AG140" s="10">
         <v>0.161</v>
       </c>
@@ -24129,23 +24567,23 @@
         <v>1.37</v>
       </c>
       <c r="AJ140" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.79411764705882348</v>
       </c>
       <c r="AK140" s="10">
-        <f t="shared" si="282"/>
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="AL140" s="10">
         <f t="shared" si="283"/>
         <v>8.8235294117647065E-2</v>
       </c>
+      <c r="AL140" s="10">
+        <f t="shared" si="284"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
       <c r="AM140" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="AN140" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO140" s="10">
@@ -24158,7 +24596,7 @@
         <v>1750589971</v>
       </c>
     </row>
-    <row r="141" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>42643</v>
       </c>
@@ -24206,7 +24644,7 @@
         <v>0</v>
       </c>
       <c r="R141">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>33</v>
       </c>
       <c r="T141">
@@ -24228,27 +24666,27 @@
         <v>0</v>
       </c>
       <c r="Z141">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>33</v>
       </c>
       <c r="AB141" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.72727272727272729</v>
       </c>
       <c r="AC141" s="10">
-        <f t="shared" si="277"/>
-        <v>3.0303030303030304E-2</v>
-      </c>
-      <c r="AD141" s="10">
         <f t="shared" si="278"/>
         <v>3.0303030303030304E-2</v>
       </c>
+      <c r="AD141" s="10">
+        <f t="shared" si="279"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
       <c r="AE141" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.21212121212121213</v>
       </c>
       <c r="AF141" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="AG141" s="10">
@@ -24258,23 +24696,23 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="AJ141" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.75757575757575757</v>
       </c>
       <c r="AK141" s="10">
-        <f t="shared" si="282"/>
-        <v>3.0303030303030304E-2</v>
-      </c>
-      <c r="AL141" s="10">
         <f t="shared" si="283"/>
         <v>3.0303030303030304E-2</v>
       </c>
+      <c r="AL141" s="10">
+        <f t="shared" si="284"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
       <c r="AM141" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="AN141" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO141" s="10">
@@ -24290,7 +24728,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>42643</v>
       </c>
@@ -24338,7 +24776,7 @@
         <v>2</v>
       </c>
       <c r="R142">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>18</v>
       </c>
       <c r="T142">
@@ -24360,29 +24798,29 @@
         <v>0</v>
       </c>
       <c r="Z142">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>19</v>
       </c>
       <c r="AB142" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="AC142" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="AD142" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AE142" s="10">
-        <f t="shared" si="279"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="AF142" s="10">
         <f t="shared" si="280"/>
         <v>0.1111111111111111</v>
       </c>
+      <c r="AF142" s="10">
+        <f t="shared" si="281"/>
+        <v>0.1111111111111111</v>
+      </c>
       <c r="AG142" s="10">
         <v>0.33300000000000002</v>
       </c>
@@ -24390,23 +24828,23 @@
         <v>2.13</v>
       </c>
       <c r="AJ142" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.84210526315789469</v>
       </c>
       <c r="AK142" s="10">
-        <f t="shared" si="282"/>
-        <v>5.2631578947368418E-2</v>
-      </c>
-      <c r="AL142" s="10">
         <f t="shared" si="283"/>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="AM142" s="10">
+      <c r="AL142" s="10">
         <f t="shared" si="284"/>
         <v>5.2631578947368418E-2</v>
       </c>
+      <c r="AM142" s="10">
+        <f t="shared" si="285"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
       <c r="AN142" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO142" s="10">
@@ -24419,7 +24857,7 @@
         <v>1750579610</v>
       </c>
     </row>
-    <row r="143" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>42643</v>
       </c>
@@ -24467,7 +24905,7 @@
         <v>9</v>
       </c>
       <c r="R143">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>26</v>
       </c>
       <c r="T143">
@@ -24489,27 +24927,27 @@
         <v>0</v>
       </c>
       <c r="Z143">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>17</v>
       </c>
       <c r="AB143" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.34615384615384615</v>
       </c>
       <c r="AC143" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0.11538461538461539</v>
       </c>
       <c r="AD143" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="AE143" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>3.8461538461538464E-2</v>
       </c>
       <c r="AF143" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>0.34615384615384615</v>
       </c>
       <c r="AG143" s="10">
@@ -24519,23 +24957,23 @@
         <v>3.3</v>
       </c>
       <c r="AJ143" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.82352941176470584</v>
       </c>
       <c r="AK143" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="AL143" s="10">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AM143" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="AN143" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO143" s="10">
@@ -24548,7 +24986,7 @@
         <v>1750577531</v>
       </c>
     </row>
-    <row r="144" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>42643</v>
       </c>
@@ -24596,7 +25034,7 @@
         <v>4</v>
       </c>
       <c r="R144">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>48</v>
       </c>
       <c r="T144">
@@ -24618,27 +25056,27 @@
         <v>0</v>
       </c>
       <c r="Z144">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>49</v>
       </c>
       <c r="AB144" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="AC144" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="AD144" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE144" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF144" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="AG144" s="10">
@@ -24648,23 +25086,23 @@
         <v>1.64</v>
       </c>
       <c r="AJ144" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.95918367346938771</v>
       </c>
       <c r="AK144" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>2.0408163265306121E-2</v>
       </c>
       <c r="AL144" s="10">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AM144" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>2.0408163265306121E-2</v>
       </c>
       <c r="AN144" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO144" s="10">
@@ -24680,7 +25118,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="145" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>42783</v>
       </c>
@@ -24728,7 +25166,7 @@
         <v>2</v>
       </c>
       <c r="R145">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>44</v>
       </c>
       <c r="T145">
@@ -24750,27 +25188,27 @@
         <v>0</v>
       </c>
       <c r="Z145">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>45</v>
       </c>
       <c r="AB145" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.77272727272727271</v>
       </c>
       <c r="AC145" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="AD145" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="AE145" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="AF145" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="AG145" s="10">
@@ -24780,23 +25218,23 @@
         <v>2.6</v>
       </c>
       <c r="AJ145" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.8666666666666667</v>
       </c>
       <c r="AK145" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="AL145" s="10">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="AM145" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>2.2222222222222223E-2</v>
       </c>
       <c r="AN145" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO145" s="10">
@@ -24809,7 +25247,7 @@
         <v>1464918348</v>
       </c>
     </row>
-    <row r="146" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>42783</v>
       </c>
@@ -24857,7 +25295,7 @@
         <v>1</v>
       </c>
       <c r="R146">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>29</v>
       </c>
       <c r="T146">
@@ -24879,29 +25317,29 @@
         <v>1</v>
       </c>
       <c r="Z146">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>29</v>
       </c>
       <c r="AB146" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.7931034482758621</v>
       </c>
       <c r="AC146" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="AD146" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>0.10344827586206896</v>
       </c>
       <c r="AE146" s="10">
-        <f t="shared" si="279"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="AF146" s="10">
         <f t="shared" si="280"/>
         <v>3.4482758620689655E-2</v>
       </c>
+      <c r="AF146" s="10">
+        <f t="shared" si="281"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
       <c r="AG146" s="10">
         <v>0.25</v>
       </c>
@@ -24909,23 +25347,23 @@
         <v>3.61</v>
       </c>
       <c r="AJ146" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.89655172413793105</v>
       </c>
       <c r="AK146" s="10">
-        <f t="shared" si="282"/>
-        <v>3.4482758620689655E-2</v>
-      </c>
-      <c r="AL146" s="10">
         <f t="shared" si="283"/>
         <v>3.4482758620689655E-2</v>
       </c>
+      <c r="AL146" s="10">
+        <f t="shared" si="284"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
       <c r="AM146" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>0</v>
       </c>
       <c r="AN146" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="AO146" s="10">
@@ -24938,7 +25376,7 @@
         <v>1464912226</v>
       </c>
     </row>
-    <row r="147" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>42783</v>
       </c>
@@ -24986,7 +25424,7 @@
         <v>0</v>
       </c>
       <c r="R147">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>35</v>
       </c>
       <c r="T147">
@@ -25008,27 +25446,27 @@
         <v>1</v>
       </c>
       <c r="Z147">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>36</v>
       </c>
       <c r="AB147" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.65714285714285714</v>
       </c>
       <c r="AC147" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="AD147" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>8.5714285714285715E-2</v>
       </c>
       <c r="AE147" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.11428571428571428</v>
       </c>
       <c r="AF147" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="AG147" s="10">
@@ -25038,23 +25476,23 @@
         <v>1.34</v>
       </c>
       <c r="AJ147" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.69444444444444442</v>
       </c>
       <c r="AK147" s="10">
-        <f t="shared" si="282"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AL147" s="10">
         <f t="shared" si="283"/>
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="AL147" s="10">
+        <f t="shared" si="284"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="AM147" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="AN147" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="AO147" s="10">
@@ -25067,7 +25505,7 @@
         <v>1464893657</v>
       </c>
     </row>
-    <row r="148" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>42783</v>
       </c>
@@ -25115,7 +25553,7 @@
         <v>5</v>
       </c>
       <c r="R148">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>58</v>
       </c>
       <c r="T148">
@@ -25137,27 +25575,27 @@
         <v>0</v>
       </c>
       <c r="Z148">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>59</v>
       </c>
       <c r="AB148" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.72413793103448276</v>
       </c>
       <c r="AC148" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>8.6206896551724144E-2</v>
       </c>
       <c r="AD148" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>3.4482758620689655E-2</v>
       </c>
       <c r="AE148" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="AF148" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>8.6206896551724144E-2</v>
       </c>
       <c r="AG148" s="10">
@@ -25167,23 +25605,23 @@
         <v>1.75</v>
       </c>
       <c r="AJ148" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.83050847457627119</v>
       </c>
       <c r="AK148" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>8.4745762711864403E-2</v>
       </c>
       <c r="AL148" s="10">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>1.6949152542372881E-2</v>
       </c>
       <c r="AM148" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>6.7796610169491525E-2</v>
       </c>
       <c r="AN148" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO148" s="10">
@@ -25196,7 +25634,7 @@
         <v>1464880151</v>
       </c>
     </row>
-    <row r="149" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>42783</v>
       </c>
@@ -25244,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="R149">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>34</v>
       </c>
       <c r="T149">
@@ -25266,27 +25704,27 @@
         <v>0</v>
       </c>
       <c r="Z149">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>34</v>
       </c>
       <c r="AB149" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.73529411764705888</v>
       </c>
       <c r="AC149" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>8.8235294117647065E-2</v>
       </c>
       <c r="AD149" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="AE149" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="AF149" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="AG149" s="10">
@@ -25296,23 +25734,23 @@
         <v>1.24</v>
       </c>
       <c r="AJ149" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.67647058823529416</v>
       </c>
       <c r="AK149" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0.20588235294117646</v>
       </c>
       <c r="AL149" s="10">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AM149" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="AN149" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO149" s="10">
@@ -25325,7 +25763,7 @@
         <v>1464873451</v>
       </c>
     </row>
-    <row r="150" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>42782</v>
       </c>
@@ -25376,7 +25814,7 @@
         <v>0</v>
       </c>
       <c r="R150">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>7</v>
       </c>
       <c r="T150">
@@ -25398,27 +25836,27 @@
         <v>0</v>
       </c>
       <c r="Z150">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>6</v>
       </c>
       <c r="AB150" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="AC150" s="10">
-        <f t="shared" si="277"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="AD150" s="10">
         <f t="shared" si="278"/>
         <v>0.14285714285714285</v>
       </c>
+      <c r="AD150" s="10">
+        <f t="shared" si="279"/>
+        <v>0.14285714285714285</v>
+      </c>
       <c r="AE150" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="AF150" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="AG150" s="10">
@@ -25428,23 +25866,23 @@
         <v>0.44</v>
       </c>
       <c r="AJ150" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.5</v>
       </c>
       <c r="AK150" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AL150" s="10">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>0</v>
       </c>
       <c r="AM150" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="AN150" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO150" s="10">
@@ -25460,7 +25898,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>42415</v>
       </c>
@@ -25508,7 +25946,7 @@
         <v>2</v>
       </c>
       <c r="R151">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>26</v>
       </c>
       <c r="T151">
@@ -25530,27 +25968,27 @@
         <v>0</v>
       </c>
       <c r="Z151">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>27</v>
       </c>
       <c r="AB151" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.69230769230769229</v>
       </c>
       <c r="AC151" s="10">
-        <f t="shared" si="277"/>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="AD151" s="10">
         <f t="shared" si="278"/>
         <v>3.8461538461538464E-2</v>
       </c>
+      <c r="AD151" s="10">
+        <f t="shared" si="279"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
       <c r="AE151" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="AF151" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="AG151" s="10">
@@ -25560,23 +25998,23 @@
         <v>1.88</v>
       </c>
       <c r="AJ151" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="AK151" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="AL151" s="10">
-        <f t="shared" si="283"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="AM151" s="10">
         <f t="shared" si="284"/>
         <v>0.1111111111111111</v>
       </c>
+      <c r="AM151" s="10">
+        <f t="shared" si="285"/>
+        <v>0.1111111111111111</v>
+      </c>
       <c r="AN151" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO151" s="10">
@@ -25589,7 +26027,7 @@
         <v>1462337962</v>
       </c>
     </row>
-    <row r="152" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>42415</v>
       </c>
@@ -25637,7 +26075,7 @@
         <v>0</v>
       </c>
       <c r="R152">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>27</v>
       </c>
       <c r="T152">
@@ -25659,27 +26097,27 @@
         <v>0</v>
       </c>
       <c r="Z152">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>27</v>
       </c>
       <c r="AB152" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.96296296296296291</v>
       </c>
       <c r="AC152" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="AD152" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>0</v>
       </c>
       <c r="AE152" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="AF152" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="AG152" s="10">
@@ -25689,23 +26127,23 @@
         <v>2.89</v>
       </c>
       <c r="AJ152" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.92592592592592593</v>
       </c>
       <c r="AK152" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="AL152" s="10">
-        <f t="shared" si="283"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="AM152" s="10">
         <f t="shared" si="284"/>
         <v>3.7037037037037035E-2</v>
       </c>
+      <c r="AM152" s="10">
+        <f t="shared" si="285"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
       <c r="AN152" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO152" s="10">
@@ -25721,7 +26159,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>42415</v>
       </c>
@@ -25769,7 +26207,7 @@
         <v>0</v>
       </c>
       <c r="R153">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>27</v>
       </c>
       <c r="T153">
@@ -25791,27 +26229,27 @@
         <v>0</v>
       </c>
       <c r="Z153">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>27</v>
       </c>
       <c r="AB153" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.7407407407407407</v>
       </c>
       <c r="AC153" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0.14814814814814814</v>
       </c>
       <c r="AD153" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="AE153" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="AF153" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="AG153" s="10">
@@ -25821,23 +26259,23 @@
         <v>1.32</v>
       </c>
       <c r="AJ153" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.70370370370370372</v>
       </c>
       <c r="AK153" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0</v>
       </c>
       <c r="AL153" s="10">
-        <f t="shared" si="283"/>
-        <v>0.14814814814814814</v>
-      </c>
-      <c r="AM153" s="10">
         <f t="shared" si="284"/>
         <v>0.14814814814814814</v>
       </c>
+      <c r="AM153" s="10">
+        <f t="shared" si="285"/>
+        <v>0.14814814814814814</v>
+      </c>
       <c r="AN153" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO153" s="10">
@@ -25850,7 +26288,7 @@
         <v>1462322928</v>
       </c>
     </row>
-    <row r="154" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>42415</v>
       </c>
@@ -25898,7 +26336,7 @@
         <v>0</v>
       </c>
       <c r="R154">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>36</v>
       </c>
       <c r="T154">
@@ -25920,27 +26358,27 @@
         <v>2</v>
       </c>
       <c r="Z154">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>35</v>
       </c>
       <c r="AB154" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="AC154" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="AD154" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="AE154" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="AF154" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="AG154" s="10">
@@ -25950,23 +26388,23 @@
         <v>3.29</v>
       </c>
       <c r="AJ154" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.77142857142857146</v>
       </c>
       <c r="AK154" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>8.5714285714285715E-2</v>
       </c>
       <c r="AL154" s="10">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="AM154" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>2.8571428571428571E-2</v>
       </c>
       <c r="AN154" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>5.7142857142857141E-2</v>
       </c>
       <c r="AO154" s="10">
@@ -25982,7 +26420,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>42415</v>
       </c>
@@ -26030,7 +26468,7 @@
         <v>1</v>
       </c>
       <c r="R155">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>33</v>
       </c>
       <c r="T155">
@@ -26052,27 +26490,27 @@
         <v>0</v>
       </c>
       <c r="Z155">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>33</v>
       </c>
       <c r="AB155" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.51515151515151514</v>
       </c>
       <c r="AC155" s="10">
-        <f t="shared" si="277"/>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="AD155" s="10">
         <f t="shared" si="278"/>
         <v>0.15151515151515152</v>
       </c>
-      <c r="AE155" s="10">
+      <c r="AD155" s="10">
         <f t="shared" si="279"/>
         <v>0.15151515151515152</v>
       </c>
+      <c r="AE155" s="10">
+        <f t="shared" si="280"/>
+        <v>0.15151515151515152</v>
+      </c>
       <c r="AF155" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>3.0303030303030304E-2</v>
       </c>
       <c r="AG155" s="10">
@@ -26082,23 +26520,23 @@
         <v>2.42</v>
       </c>
       <c r="AJ155" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="AK155" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0.15151515151515152</v>
       </c>
       <c r="AL155" s="10">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="AM155" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>0.12121212121212122</v>
       </c>
       <c r="AN155" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO155" s="10">
@@ -26114,7 +26552,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="156" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>42415</v>
       </c>
@@ -26162,7 +26600,7 @@
         <v>0</v>
       </c>
       <c r="R156">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>26</v>
       </c>
       <c r="T156">
@@ -26184,27 +26622,27 @@
         <v>0</v>
       </c>
       <c r="Z156">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>26</v>
       </c>
       <c r="AB156" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.65384615384615385</v>
       </c>
       <c r="AC156" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="AD156" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>0.19230769230769232</v>
       </c>
       <c r="AE156" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0</v>
       </c>
       <c r="AF156" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="AG156" s="10">
@@ -26214,23 +26652,23 @@
         <v>1.21</v>
       </c>
       <c r="AJ156" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.65384615384615385</v>
       </c>
       <c r="AK156" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>0.11538461538461539</v>
       </c>
       <c r="AL156" s="10">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="AM156" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="AN156" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>0</v>
       </c>
       <c r="AO156" s="10">
@@ -26246,7 +26684,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>42415</v>
       </c>
@@ -26294,7 +26732,7 @@
         <v>0</v>
       </c>
       <c r="R157">
-        <f t="shared" si="275"/>
+        <f t="shared" si="276"/>
         <v>38</v>
       </c>
       <c r="T157">
@@ -26316,27 +26754,27 @@
         <v>1</v>
       </c>
       <c r="Z157">
-        <f t="shared" si="286"/>
+        <f t="shared" si="287"/>
         <v>38</v>
       </c>
       <c r="AB157" s="9">
-        <f t="shared" si="276"/>
+        <f t="shared" si="277"/>
         <v>0.63157894736842102</v>
       </c>
       <c r="AC157" s="10">
-        <f t="shared" si="277"/>
+        <f t="shared" si="278"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="AD157" s="10">
-        <f t="shared" si="278"/>
+        <f t="shared" si="279"/>
         <v>0.15789473684210525</v>
       </c>
       <c r="AE157" s="10">
-        <f t="shared" si="279"/>
+        <f t="shared" si="280"/>
         <v>0.13157894736842105</v>
       </c>
       <c r="AF157" s="10">
-        <f t="shared" si="280"/>
+        <f t="shared" si="281"/>
         <v>0</v>
       </c>
       <c r="AG157" s="10">
@@ -26346,23 +26784,23 @@
         <v>4.47</v>
       </c>
       <c r="AJ157" s="9">
-        <f t="shared" si="281"/>
+        <f t="shared" si="282"/>
         <v>0.57894736842105265</v>
       </c>
       <c r="AK157" s="10">
-        <f t="shared" si="282"/>
+        <f t="shared" si="283"/>
         <v>7.8947368421052627E-2</v>
       </c>
       <c r="AL157" s="10">
-        <f t="shared" si="283"/>
+        <f t="shared" si="284"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="AM157" s="10">
-        <f t="shared" si="284"/>
+        <f t="shared" si="285"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="AN157" s="10">
-        <f t="shared" si="285"/>
+        <f t="shared" si="286"/>
         <v>2.6315789473684209E-2</v>
       </c>
       <c r="AO157" s="10">
@@ -26375,7 +26813,7 @@
         <v>1462286583</v>
       </c>
     </row>
-    <row r="158" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:45" x14ac:dyDescent="0.55000000000000004">
       <c r="C158" s="2">
         <v>1000</v>
       </c>
